--- a/account/test2.xlsx
+++ b/account/test2.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26516"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71A11AF5-068E-48E7-AD1F-79C0CB50294D}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43813085-7504-4032-860E-8D45E6E20DA1}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="test1単体" sheetId="1" r:id="rId1"/>
+    <sheet name="test1結合" sheetId="2" r:id="rId2"/>
+    <sheet name="testVer2単体" sheetId="3" r:id="rId3"/>
+    <sheet name="testVer2結合" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="377">
   <si>
     <t>NO</t>
   </si>
@@ -1286,6 +1288,121 @@
   </si>
   <si>
     <t>0から入力されている</t>
+  </si>
+  <si>
+    <t>http://localhost//account/list.phpにアクセスする</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面</t>
+  </si>
+  <si>
+    <t>アカウント一覧</t>
+  </si>
+  <si>
+    <t>アカウント一覧をクリック</t>
+  </si>
+  <si>
+    <t>メイン</t>
+  </si>
+  <si>
+    <t>UIの確認</t>
+  </si>
+  <si>
+    <t>ID/名前（姓）/名前（名）/カナ（姓）/カナ（名）/メールアドレス/性別/アカウント権限/
+削除フラグ/登録日時/更新日時/操作が表の一番上に横に並んでいる</t>
+  </si>
+  <si>
+    <t>IDには降順で登録したものがならんでいる</t>
+  </si>
+  <si>
+    <t>名前（姓）が指定文字で入力か、他項目混ざってないか</t>
+  </si>
+  <si>
+    <t>名前（名）が指定文字で入力か、他項目混ざってないか</t>
+  </si>
+  <si>
+    <t>カナ（姓）が指定文字で入力か、他項目混ざってないか</t>
+  </si>
+  <si>
+    <t>カナ（名）が指定文字で入力か、他項目混ざってないか</t>
+  </si>
+  <si>
+    <t>メールアドレスが指定文字で入力か、他項目混ざってないか</t>
+  </si>
+  <si>
+    <t>性別は「男」か「女」のみ表示されているか</t>
+  </si>
+  <si>
+    <t>アカウント権限は「一般」「管理者」のみで表示されているか</t>
+  </si>
+  <si>
+    <t>削除フラグは無効になっているか（有効は削除のボタンの遷移先をプログラムしていないのでない、あればエラー）</t>
+  </si>
+  <si>
+    <t>登録日時は年月日のみ表示になっているか</t>
+  </si>
+  <si>
+    <t>更新日時は年月日のみ表示になっているか</t>
+  </si>
+  <si>
+    <t>操作には「編集」と「削除」のボタンがあるかどうか</t>
+  </si>
+  <si>
+    <t>ボタン</t>
+  </si>
+  <si>
+    <t>「削除」</t>
+  </si>
+  <si>
+    <t>削除をクリックするとhttp://localhost//account/delete.phpに遷移するか</t>
+  </si>
+  <si>
+    <t>「編集」</t>
+  </si>
+  <si>
+    <t>更新をクリックするとhttp://localhost//account/update.phpに遷移するか</t>
+  </si>
+  <si>
+    <t>アカウント登録</t>
+  </si>
+  <si>
+    <t>登録→一覧</t>
+  </si>
+  <si>
+    <t>登録→一覧で入力を確認</t>
+  </si>
+  <si>
+    <t>アカウント登録から指定文字で正常に登録完了まで進め、その後アカウント一覧をクリック、一番上に登録内容が更新されているか</t>
+  </si>
+  <si>
+    <t>先ほど登録したIDがプラス1されているか</t>
+  </si>
+  <si>
+    <t>登録日時は本日の日付になっているか</t>
+  </si>
+  <si>
+    <t>更新日時は本日の日付になっているか</t>
+  </si>
+  <si>
+    <t>MySQLでデータが0の時「アカウント一覧」ページでは「男」と表記されているか</t>
+  </si>
+  <si>
+    <t>MySQLでデータが1の時「アカウント一覧」ページでは「女」と表記されているか</t>
+  </si>
+  <si>
+    <t>MySQLでデータが0の時「アカウント一覧」ページでは「一般」と表記されているか</t>
+  </si>
+  <si>
+    <t>MySQLでデータが1の時「アカウント一覧」ページでは「管理者」と表記されているか</t>
+  </si>
+  <si>
+    <t>MySQLでデータが0の時「アカウント一覧」ページでは「無効」と表記されているか</t>
+  </si>
+  <si>
+    <t>MySQLでデータが1の時「アカウント一覧」ページでは「有効」と表記されているか</t>
+  </si>
+  <si>
+    <t>有効は現段階でない（あればエラー）</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1481,6 +1598,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1798,11 +1918,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="13" width="21.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -5912,11 +6035,11 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.25" customWidth="1"/>
-    <col min="6" max="6" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -9614,4 +9737,2478 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471C042D-9C2F-46E9-8D44-B45D4C190838}">
+  <dimension ref="A1:K187"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G192" sqref="G192"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="118.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.25">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7">
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7">
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7">
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7">
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7">
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7">
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7">
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7">
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7">
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7">
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7">
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7">
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7">
+      <c r="E43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7">
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7">
+      <c r="E45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7">
+      <c r="E46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7">
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7">
+      <c r="E48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7">
+      <c r="E49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7">
+      <c r="E50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7">
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7">
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7">
+      <c r="D53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7">
+      <c r="E54" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7">
+      <c r="E55" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7">
+      <c r="E56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7">
+      <c r="E57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7">
+      <c r="E58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7">
+      <c r="E59" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7">
+      <c r="E60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7">
+      <c r="E61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7">
+      <c r="E62" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7">
+      <c r="E63" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7">
+      <c r="D64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7">
+      <c r="E65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7">
+      <c r="E66" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7">
+      <c r="E67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7">
+      <c r="E68" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7">
+      <c r="E69" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7">
+      <c r="E70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7">
+      <c r="E71" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7">
+      <c r="E72" t="s">
+        <v>35</v>
+      </c>
+      <c r="F72" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7">
+      <c r="E73" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73" t="s">
+        <v>65</v>
+      </c>
+      <c r="G73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7">
+      <c r="E74" t="s">
+        <v>39</v>
+      </c>
+      <c r="F74" t="s">
+        <v>40</v>
+      </c>
+      <c r="G74" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7">
+      <c r="E75" t="s">
+        <v>42</v>
+      </c>
+      <c r="F75" t="s">
+        <v>43</v>
+      </c>
+      <c r="G75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7">
+      <c r="D76" t="s">
+        <v>67</v>
+      </c>
+      <c r="E76" t="s">
+        <v>68</v>
+      </c>
+      <c r="F76" t="s">
+        <v>69</v>
+      </c>
+      <c r="G76" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7">
+      <c r="E77" t="s">
+        <v>68</v>
+      </c>
+      <c r="F77" t="s">
+        <v>70</v>
+      </c>
+      <c r="G77" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7">
+      <c r="E78" t="s">
+        <v>68</v>
+      </c>
+      <c r="F78" t="s">
+        <v>68</v>
+      </c>
+      <c r="G78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7">
+      <c r="E79" t="s">
+        <v>72</v>
+      </c>
+      <c r="F79" t="s">
+        <v>73</v>
+      </c>
+      <c r="G79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7">
+      <c r="E80" t="s">
+        <v>74</v>
+      </c>
+      <c r="F80" t="s">
+        <v>75</v>
+      </c>
+      <c r="G80" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="4:7">
+      <c r="D81" t="s">
+        <v>78</v>
+      </c>
+      <c r="E81" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" t="s">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="4:7">
+      <c r="E82" t="s">
+        <v>80</v>
+      </c>
+      <c r="F82" t="s">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7">
+      <c r="E83" t="s">
+        <v>81</v>
+      </c>
+      <c r="F83" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="4:7">
+      <c r="E84" t="s">
+        <v>82</v>
+      </c>
+      <c r="F84" t="s">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="4:7">
+      <c r="E85" t="s">
+        <v>83</v>
+      </c>
+      <c r="F85" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="4:7">
+      <c r="E86" t="s">
+        <v>84</v>
+      </c>
+      <c r="F86" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="4:7">
+      <c r="E87" t="s">
+        <v>85</v>
+      </c>
+      <c r="F87" t="s">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="4:7">
+      <c r="E88" t="s">
+        <v>86</v>
+      </c>
+      <c r="F88" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="4:7">
+      <c r="E89" t="s">
+        <v>87</v>
+      </c>
+      <c r="F89" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="4:7">
+      <c r="E90" t="s">
+        <v>36</v>
+      </c>
+      <c r="F90" t="s">
+        <v>37</v>
+      </c>
+      <c r="G90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="4:7">
+      <c r="E91" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" t="s">
+        <v>40</v>
+      </c>
+      <c r="G91" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="4:7">
+      <c r="E92" t="s">
+        <v>88</v>
+      </c>
+      <c r="F92" t="s">
+        <v>89</v>
+      </c>
+      <c r="G92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="4:7">
+      <c r="D93" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" t="s">
+        <v>92</v>
+      </c>
+      <c r="F93" t="s">
+        <v>93</v>
+      </c>
+      <c r="G93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="4:7">
+      <c r="E94" t="s">
+        <v>94</v>
+      </c>
+      <c r="F94" t="s">
+        <v>95</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="4:7">
+      <c r="E95" t="s">
+        <v>96</v>
+      </c>
+      <c r="F95" t="s">
+        <v>97</v>
+      </c>
+      <c r="G95" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="4:7">
+      <c r="E96" t="s">
+        <v>99</v>
+      </c>
+      <c r="F96" t="s">
+        <v>100</v>
+      </c>
+      <c r="G96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7">
+      <c r="E97" t="s">
+        <v>101</v>
+      </c>
+      <c r="F97" t="s">
+        <v>102</v>
+      </c>
+      <c r="G97" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7">
+      <c r="D98" t="s">
+        <v>103</v>
+      </c>
+      <c r="E98" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="4:7">
+      <c r="D99" t="s">
+        <v>104</v>
+      </c>
+      <c r="E99" t="s">
+        <v>26</v>
+      </c>
+      <c r="F99" t="s">
+        <v>24</v>
+      </c>
+      <c r="G99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="4:7">
+      <c r="D100" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E100" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="4:7">
+      <c r="E101" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="4:7">
+      <c r="E102" t="s">
+        <v>31</v>
+      </c>
+      <c r="F102" t="s">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="4:7">
+      <c r="E103" t="s">
+        <v>32</v>
+      </c>
+      <c r="F103" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="4:7">
+      <c r="E104" t="s">
+        <v>106</v>
+      </c>
+      <c r="F104" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="4:7">
+      <c r="E105" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="4:7">
+      <c r="E106" t="s">
+        <v>107</v>
+      </c>
+      <c r="F106" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="4:7">
+      <c r="E107" t="s">
+        <v>36</v>
+      </c>
+      <c r="F107" t="s">
+        <v>37</v>
+      </c>
+      <c r="G107" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="4:7">
+      <c r="E108" t="s">
+        <v>39</v>
+      </c>
+      <c r="F108" t="s">
+        <v>40</v>
+      </c>
+      <c r="G108" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" spans="4:7">
+      <c r="E109" t="s">
+        <v>42</v>
+      </c>
+      <c r="F109" t="s">
+        <v>43</v>
+      </c>
+      <c r="G109" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="4:7">
+      <c r="D110" t="s">
+        <v>108</v>
+      </c>
+      <c r="E110" t="s">
+        <v>50</v>
+      </c>
+      <c r="F110" t="s">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="4:7">
+      <c r="D111" t="s">
+        <v>104</v>
+      </c>
+      <c r="E111" t="s">
+        <v>52</v>
+      </c>
+      <c r="F111" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="4:7">
+      <c r="D112" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E112" t="s">
+        <v>109</v>
+      </c>
+      <c r="F112" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="E113" t="s">
+        <v>54</v>
+      </c>
+      <c r="F113" t="s">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="E114" t="s">
+        <v>55</v>
+      </c>
+      <c r="F114" t="s">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="E115" t="s">
+        <v>56</v>
+      </c>
+      <c r="F115" t="s">
+        <v>24</v>
+      </c>
+      <c r="G115" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="E116" t="s">
+        <v>110</v>
+      </c>
+      <c r="F116" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="E117" t="s">
+        <v>58</v>
+      </c>
+      <c r="F117" t="s">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="E118" t="s">
+        <v>111</v>
+      </c>
+      <c r="F118" t="s">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="E119" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" t="s">
+        <v>37</v>
+      </c>
+      <c r="G119" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="E120" t="s">
+        <v>39</v>
+      </c>
+      <c r="F120" t="s">
+        <v>40</v>
+      </c>
+      <c r="G120" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="E121" t="s">
+        <v>60</v>
+      </c>
+      <c r="F121" t="s">
+        <v>112</v>
+      </c>
+      <c r="G121" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="D122" t="s">
+        <v>113</v>
+      </c>
+      <c r="E122" t="s">
+        <v>99</v>
+      </c>
+      <c r="F122" t="s">
+        <v>100</v>
+      </c>
+      <c r="G122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="E123" t="s">
+        <v>114</v>
+      </c>
+      <c r="F123" t="s">
+        <v>115</v>
+      </c>
+      <c r="G123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="E124" t="s">
+        <v>114</v>
+      </c>
+      <c r="F124" t="s">
+        <v>116</v>
+      </c>
+      <c r="G124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="E125" t="s">
+        <v>101</v>
+      </c>
+      <c r="F125" t="s">
+        <v>102</v>
+      </c>
+      <c r="G125" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="C126" t="s">
+        <v>118</v>
+      </c>
+      <c r="D126" t="s">
+        <v>119</v>
+      </c>
+      <c r="E126" t="s">
+        <v>120</v>
+      </c>
+      <c r="F126" t="s">
+        <v>121</v>
+      </c>
+      <c r="G126" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="D127" t="s">
+        <v>119</v>
+      </c>
+      <c r="E127" t="s">
+        <v>123</v>
+      </c>
+      <c r="F127" t="s">
+        <v>124</v>
+      </c>
+      <c r="G127" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" ht="14.25">
+      <c r="B128" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128" t="s">
+        <v>127</v>
+      </c>
+      <c r="D128" t="s">
+        <v>128</v>
+      </c>
+      <c r="E128" t="s">
+        <v>129</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="E129" t="s">
+        <v>132</v>
+      </c>
+      <c r="F129" t="s">
+        <v>133</v>
+      </c>
+      <c r="G129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="C130" t="s">
+        <v>118</v>
+      </c>
+      <c r="D130" t="s">
+        <v>134</v>
+      </c>
+      <c r="E130" t="s">
+        <v>135</v>
+      </c>
+      <c r="F130" t="s">
+        <v>11</v>
+      </c>
+      <c r="G130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="E131" t="s">
+        <v>136</v>
+      </c>
+      <c r="F131" t="s">
+        <v>137</v>
+      </c>
+      <c r="G131" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="D132" t="s">
+        <v>138</v>
+      </c>
+      <c r="E132" t="s">
+        <v>135</v>
+      </c>
+      <c r="F132" t="s">
+        <v>139</v>
+      </c>
+      <c r="G132" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" t="s">
+        <v>139</v>
+      </c>
+      <c r="C133" t="s">
+        <v>139</v>
+      </c>
+      <c r="D133" t="s">
+        <v>140</v>
+      </c>
+      <c r="E133" t="s">
+        <v>141</v>
+      </c>
+      <c r="F133" t="s">
+        <v>142</v>
+      </c>
+      <c r="G133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" ht="14.25">
+      <c r="D134" t="s">
+        <v>144</v>
+      </c>
+      <c r="E134" t="s">
+        <v>145</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="C135" t="s">
+        <v>118</v>
+      </c>
+      <c r="D135" t="s">
+        <v>147</v>
+      </c>
+      <c r="E135" t="s">
+        <v>135</v>
+      </c>
+      <c r="F135" t="s">
+        <v>148</v>
+      </c>
+      <c r="G135" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136" t="s">
+        <v>150</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" t="s">
+        <v>151</v>
+      </c>
+      <c r="E136" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="D137" t="s">
+        <v>151</v>
+      </c>
+      <c r="E137" t="s">
+        <v>19</v>
+      </c>
+      <c r="F137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" t="s">
+        <v>126</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" t="s">
+        <v>151</v>
+      </c>
+      <c r="E138" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="D139" t="s">
+        <v>151</v>
+      </c>
+      <c r="E139" t="s">
+        <v>19</v>
+      </c>
+      <c r="F139" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" t="s">
+        <v>139</v>
+      </c>
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" t="s">
+        <v>151</v>
+      </c>
+      <c r="E140" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="D141" t="s">
+        <v>151</v>
+      </c>
+      <c r="E141" t="s">
+        <v>19</v>
+      </c>
+      <c r="F141" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" t="s">
+        <v>154</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E142" t="s">
+        <v>156</v>
+      </c>
+      <c r="F142" t="s">
+        <v>157</v>
+      </c>
+      <c r="G142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="D143" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E143" t="s">
+        <v>156</v>
+      </c>
+      <c r="F143" t="s">
+        <v>159</v>
+      </c>
+      <c r="G143" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" t="s">
+        <v>160</v>
+      </c>
+      <c r="C144" t="s">
+        <v>161</v>
+      </c>
+      <c r="D144" t="s">
+        <v>162</v>
+      </c>
+      <c r="E144" t="s">
+        <v>163</v>
+      </c>
+      <c r="F144" t="s">
+        <v>164</v>
+      </c>
+      <c r="G144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="C145" t="s">
+        <v>165</v>
+      </c>
+      <c r="D145" t="s">
+        <v>166</v>
+      </c>
+      <c r="E145" t="s">
+        <v>167</v>
+      </c>
+      <c r="F145" t="s">
+        <v>164</v>
+      </c>
+      <c r="G145" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="C146" t="s">
+        <v>168</v>
+      </c>
+      <c r="D146" t="s">
+        <v>169</v>
+      </c>
+      <c r="E146" t="s">
+        <v>170</v>
+      </c>
+      <c r="F146" t="s">
+        <v>164</v>
+      </c>
+      <c r="G146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="C147" t="s">
+        <v>171</v>
+      </c>
+      <c r="D147" t="s">
+        <v>172</v>
+      </c>
+      <c r="E147" t="s">
+        <v>173</v>
+      </c>
+      <c r="F147" t="s">
+        <v>164</v>
+      </c>
+      <c r="G147" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="C148" t="s">
+        <v>174</v>
+      </c>
+      <c r="D148" t="s">
+        <v>175</v>
+      </c>
+      <c r="E148" t="s">
+        <v>176</v>
+      </c>
+      <c r="F148" t="s">
+        <v>164</v>
+      </c>
+      <c r="G148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="C149" t="s">
+        <v>177</v>
+      </c>
+      <c r="D149" t="s">
+        <v>178</v>
+      </c>
+      <c r="E149" t="s">
+        <v>179</v>
+      </c>
+      <c r="F149" t="s">
+        <v>164</v>
+      </c>
+      <c r="G149" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" ht="14.25">
+      <c r="C150" t="s">
+        <v>180</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F150" t="s">
+        <v>164</v>
+      </c>
+      <c r="G150" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" ht="14.25">
+      <c r="C151" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F151" t="s">
+        <v>164</v>
+      </c>
+      <c r="G151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" ht="14.25">
+      <c r="C152" t="s">
+        <v>185</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F152" t="s">
+        <v>164</v>
+      </c>
+      <c r="G152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" ht="14.25">
+      <c r="C153" t="s">
+        <v>187</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F153" t="s">
+        <v>164</v>
+      </c>
+      <c r="G153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" ht="14.25">
+      <c r="C154" t="s">
+        <v>189</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F154" t="s">
+        <v>164</v>
+      </c>
+      <c r="G154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" ht="14.25">
+      <c r="C155" t="s">
+        <v>191</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F155" t="s">
+        <v>164</v>
+      </c>
+      <c r="G155" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" ht="14.25">
+      <c r="C156" t="s">
+        <v>193</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F156" t="s">
+        <v>164</v>
+      </c>
+      <c r="G156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" ht="14.25">
+      <c r="C157" t="s">
+        <v>195</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F157" t="s">
+        <v>164</v>
+      </c>
+      <c r="G157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" ht="14.25">
+      <c r="C158" t="s">
+        <v>197</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F158" t="s">
+        <v>164</v>
+      </c>
+      <c r="G158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" ht="14.25">
+      <c r="B159" t="s">
+        <v>153</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="E159" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="F159" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160" t="s">
+        <v>341</v>
+      </c>
+      <c r="C160" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="3:7">
+      <c r="D161" t="s">
+        <v>18</v>
+      </c>
+      <c r="E161" t="s">
+        <v>19</v>
+      </c>
+      <c r="F161" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="3:7">
+      <c r="D162" t="s">
+        <v>341</v>
+      </c>
+      <c r="E162" t="s">
+        <v>342</v>
+      </c>
+      <c r="F162" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="163" spans="3:7" ht="39.75" customHeight="1">
+      <c r="C163" t="s">
+        <v>343</v>
+      </c>
+      <c r="D163" t="s">
+        <v>344</v>
+      </c>
+      <c r="E163" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="F163" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="164" spans="3:7">
+      <c r="E164" t="s">
+        <v>346</v>
+      </c>
+      <c r="F164" t="s">
+        <v>164</v>
+      </c>
+      <c r="G164" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="3:7">
+      <c r="E165" t="s">
+        <v>347</v>
+      </c>
+      <c r="F165" t="s">
+        <v>164</v>
+      </c>
+      <c r="G165" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="3:7">
+      <c r="E166" t="s">
+        <v>348</v>
+      </c>
+      <c r="F166" t="s">
+        <v>164</v>
+      </c>
+      <c r="G166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="3:7">
+      <c r="E167" t="s">
+        <v>349</v>
+      </c>
+      <c r="F167" t="s">
+        <v>164</v>
+      </c>
+      <c r="G167" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="3:7">
+      <c r="E168" t="s">
+        <v>350</v>
+      </c>
+      <c r="F168" t="s">
+        <v>164</v>
+      </c>
+      <c r="G168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="3:7">
+      <c r="E169" t="s">
+        <v>351</v>
+      </c>
+      <c r="F169" t="s">
+        <v>164</v>
+      </c>
+      <c r="G169" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="3:7">
+      <c r="E170" t="s">
+        <v>352</v>
+      </c>
+      <c r="F170" t="s">
+        <v>164</v>
+      </c>
+      <c r="G170" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="3:7">
+      <c r="E171" t="s">
+        <v>353</v>
+      </c>
+      <c r="F171" t="s">
+        <v>164</v>
+      </c>
+      <c r="G171" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="3:7">
+      <c r="E172" t="s">
+        <v>354</v>
+      </c>
+      <c r="F172" t="s">
+        <v>164</v>
+      </c>
+      <c r="G172" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="3:7">
+      <c r="E173" t="s">
+        <v>355</v>
+      </c>
+      <c r="F173" t="s">
+        <v>164</v>
+      </c>
+      <c r="G173" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="3:7">
+      <c r="E174" t="s">
+        <v>356</v>
+      </c>
+      <c r="F174" t="s">
+        <v>164</v>
+      </c>
+      <c r="G174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="3:7">
+      <c r="E175" t="s">
+        <v>357</v>
+      </c>
+      <c r="F175" t="s">
+        <v>164</v>
+      </c>
+      <c r="G175" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="3:7">
+      <c r="C176" t="s">
+        <v>358</v>
+      </c>
+      <c r="D176" t="s">
+        <v>359</v>
+      </c>
+      <c r="E176" t="s">
+        <v>360</v>
+      </c>
+      <c r="F176" t="s">
+        <v>164</v>
+      </c>
+      <c r="G176" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7">
+      <c r="D177" t="s">
+        <v>361</v>
+      </c>
+      <c r="E177" t="s">
+        <v>362</v>
+      </c>
+      <c r="F177" t="s">
+        <v>164</v>
+      </c>
+      <c r="G177" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7">
+      <c r="B178" t="s">
+        <v>363</v>
+      </c>
+      <c r="C178" t="s">
+        <v>364</v>
+      </c>
+      <c r="D178" t="s">
+        <v>365</v>
+      </c>
+      <c r="E178" t="s">
+        <v>366</v>
+      </c>
+      <c r="F178" t="s">
+        <v>164</v>
+      </c>
+      <c r="G178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7">
+      <c r="E179" t="s">
+        <v>367</v>
+      </c>
+      <c r="F179" t="s">
+        <v>164</v>
+      </c>
+      <c r="G179" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7">
+      <c r="E180" t="s">
+        <v>368</v>
+      </c>
+      <c r="F180" t="s">
+        <v>164</v>
+      </c>
+      <c r="G180" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7">
+      <c r="E181" t="s">
+        <v>369</v>
+      </c>
+      <c r="F181" t="s">
+        <v>164</v>
+      </c>
+      <c r="G181" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" ht="14.25">
+      <c r="B182" t="s">
+        <v>160</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E182" t="s">
+        <v>370</v>
+      </c>
+      <c r="F182" t="s">
+        <v>164</v>
+      </c>
+      <c r="G182" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7">
+      <c r="E183" t="s">
+        <v>371</v>
+      </c>
+      <c r="F183" t="s">
+        <v>164</v>
+      </c>
+      <c r="G183" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" ht="14.25">
+      <c r="D184" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E184" t="s">
+        <v>372</v>
+      </c>
+      <c r="F184" t="s">
+        <v>164</v>
+      </c>
+      <c r="G184" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7">
+      <c r="E185" t="s">
+        <v>373</v>
+      </c>
+      <c r="F185" t="s">
+        <v>164</v>
+      </c>
+      <c r="G185" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" ht="14.25">
+      <c r="D186" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E186" t="s">
+        <v>374</v>
+      </c>
+      <c r="F186" t="s">
+        <v>164</v>
+      </c>
+      <c r="G186" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7">
+      <c r="E187" t="s">
+        <v>375</v>
+      </c>
+      <c r="F187" t="s">
+        <v>376</v>
+      </c>
+      <c r="G187" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D143" r:id="rId1" xr:uid="{60769E34-3D4C-4FB6-A57D-3CD7164D4454}"/>
+    <hyperlink ref="D142" r:id="rId2" xr:uid="{6A4F960C-7E4B-40CD-8339-D36582FCCE7C}"/>
+    <hyperlink ref="E159" r:id="rId3" xr:uid="{EF5A39C5-8FE3-4C13-8A99-38054C38387B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9CC3FD-7885-4A67-BB33-5BB23EC7C9D8}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/account/test2.xlsx
+++ b/account/test2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26516"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="128" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43813085-7504-4032-860E-8D45E6E20DA1}"/>
+  <xr:revisionPtr revIDLastSave="316" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88A7F631-0E79-4190-B4F6-680C8FF15577}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test1単体" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2938" uniqueCount="414">
   <si>
     <t>NO</t>
   </si>
@@ -1290,6 +1290,16 @@
     <t>0から入力されている</t>
   </si>
   <si>
+    <t>＠の後ろにひらがなを入れると通っていまい
+アルファベットに変換されている「ぽ」→xn--99jなど</t>
+  </si>
+  <si>
+    <t>半角英数と半角数字しか入力できない</t>
+  </si>
+  <si>
+    <t>されない（list.phpへ移行）</t>
+  </si>
+  <si>
     <t>http://localhost//account/list.phpにアクセスする</t>
   </si>
   <si>
@@ -1403,6 +1413,113 @@
   </si>
   <si>
     <t>有効は現段階でない（あればエラー）</t>
+  </si>
+  <si>
+    <t>入力ホーム</t>
+  </si>
+  <si>
+    <t>正常値の登録</t>
+  </si>
+  <si>
+    <t>指定文字で入力をおこなってMYSQLに登録される</t>
+  </si>
+  <si>
+    <t>問題なくできる</t>
+  </si>
+  <si>
+    <t>http://localhost/account/regist.php　から入って登録</t>
+  </si>
+  <si>
+    <t>先の順でアカウント登録を正常値で行う</t>
+  </si>
+  <si>
+    <t>登録完了画面</t>
+  </si>
+  <si>
+    <t>メッセージの確認</t>
+  </si>
+  <si>
+    <t>登録完了しましたとでる</t>
+  </si>
+  <si>
+    <t>でない（list.phpにとぶ）</t>
+  </si>
+  <si>
+    <t>登録完了ページではなくlist.phpに遷移するようになってしまっている</t>
+  </si>
+  <si>
+    <t>エラーの確認</t>
+  </si>
+  <si>
+    <t>登録完了できませんでしたとでる</t>
+  </si>
+  <si>
+    <t>でない（登録もできない）</t>
+  </si>
+  <si>
+    <t>正常値と異常値の混在</t>
+  </si>
+  <si>
+    <t>指定文字と異常値を混合させてエラーを確認（名前（姓））</t>
+  </si>
+  <si>
+    <t>異常値があればエラーで登録できない</t>
+  </si>
+  <si>
+    <t>常用漢字、ひらがな、
+全角半角カタカナ、
+全角半角英数字、
+記号、
+スペース
+全て混ぜる</t>
+  </si>
+  <si>
+    <t>指定文字と異常値を混合させてエラーを確認（名前（名））</t>
+  </si>
+  <si>
+    <t>指定文字と異常値を混合させてエラーを確認（カナ（姓））</t>
+  </si>
+  <si>
+    <t>指定文字と異常値を混合させてエラーを確認（カナ（名））</t>
+  </si>
+  <si>
+    <t>指定文字と異常値を混合させてエラーを確認（メールアドレス）</t>
+  </si>
+  <si>
+    <t>指定文字と異常値を混合させてエラーを確認（パスワード）</t>
+  </si>
+  <si>
+    <t>指定文字と異常値を混合させてエラーを確認（郵便番号※半角数字のみ）</t>
+  </si>
+  <si>
+    <t>指定文字と異常値を混合させてエラーを確認（住所（市区町村））</t>
+  </si>
+  <si>
+    <t>指定文字と異常値を混合させてエラーを確認（住所（番地））</t>
+  </si>
+  <si>
+    <t>MYSQL</t>
+  </si>
+  <si>
+    <t>diblog_account</t>
+  </si>
+  <si>
+    <t>登録データの確認</t>
+  </si>
+  <si>
+    <t>NO1~3で登録が無事に成功した場合、登録データが反映されているかを確認</t>
+  </si>
+  <si>
+    <t>３件追加されている</t>
+  </si>
+  <si>
+    <t>アカウント確認画面のフッターのCSSがはずれている</t>
+  </si>
+  <si>
+    <t>操作のボタンは「編集」「削除」がある</t>
+  </si>
+  <si>
+    <t>それぞれのページに遷移する</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1600,6 +1717,15 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1924,7 +2050,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="13" width="21.42578125" customWidth="1"/>
+    <col min="1" max="13" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -6030,16 +6156,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFD9AE5-B6FD-4476-BAA8-BD4C9F4881E0}">
   <dimension ref="A1:K184"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106:C107"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
+    <col min="6" max="6" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -9741,25 +9869,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471C042D-9C2F-46E9-8D44-B45D4C190838}">
-  <dimension ref="A1:K187"/>
+  <dimension ref="A1:K178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G192" sqref="G192"/>
+    <sheetView topLeftCell="F33" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="99.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="118.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="118.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="30.42578125" customWidth="1"/>
+    <col min="12" max="13" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -9798,6 +9926,9 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
@@ -9819,8 +9950,17 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
+      <c r="I2" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
@@ -9836,8 +9976,17 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
+      <c r="I3" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
@@ -9853,8 +10002,20 @@
       <c r="G4" t="s">
         <v>25</v>
       </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="E5" t="s">
         <v>26</v>
       </c>
@@ -9864,8 +10025,20 @@
       <c r="G5" t="s">
         <v>25</v>
       </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -9875,8 +10048,20 @@
       <c r="G6" t="s">
         <v>28</v>
       </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
@@ -9886,8 +10071,20 @@
       <c r="G7" t="s">
         <v>28</v>
       </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="E8" t="s">
         <v>31</v>
       </c>
@@ -9897,8 +10094,20 @@
       <c r="G8" t="s">
         <v>28</v>
       </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="E9" t="s">
         <v>32</v>
       </c>
@@ -9908,8 +10117,20 @@
       <c r="G9" t="s">
         <v>28</v>
       </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="E10" t="s">
         <v>33</v>
       </c>
@@ -9919,8 +10140,20 @@
       <c r="G10" t="s">
         <v>28</v>
       </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="E11" t="s">
         <v>34</v>
       </c>
@@ -9930,8 +10163,20 @@
       <c r="G11" t="s">
         <v>28</v>
       </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="E12" t="s">
         <v>35</v>
       </c>
@@ -9941,8 +10186,20 @@
       <c r="G12" t="s">
         <v>28</v>
       </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="E13" t="s">
         <v>36</v>
       </c>
@@ -9952,8 +10209,20 @@
       <c r="G13" t="s">
         <v>38</v>
       </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="E14" t="s">
         <v>39</v>
       </c>
@@ -9963,8 +10232,20 @@
       <c r="G14" t="s">
         <v>41</v>
       </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="E15" t="s">
         <v>42</v>
       </c>
@@ -9974,8 +10255,20 @@
       <c r="G15" t="s">
         <v>44</v>
       </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="D16" t="s">
         <v>45</v>
       </c>
@@ -9988,8 +10281,20 @@
       <c r="G16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="4:7">
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="E17" t="s">
         <v>26</v>
       </c>
@@ -9999,8 +10304,20 @@
       <c r="G17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="4:7">
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="E18" t="s">
         <v>27</v>
       </c>
@@ -10010,8 +10327,20 @@
       <c r="G18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="4:7">
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
@@ -10021,8 +10350,20 @@
       <c r="G19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="4:7">
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="E20" t="s">
         <v>31</v>
       </c>
@@ -10032,8 +10373,20 @@
       <c r="G20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="4:7">
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="E21" t="s">
         <v>32</v>
       </c>
@@ -10043,8 +10396,20 @@
       <c r="G21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="4:7">
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="E22" t="s">
         <v>33</v>
       </c>
@@ -10054,8 +10419,20 @@
       <c r="G22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="4:7">
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="E23" t="s">
         <v>34</v>
       </c>
@@ -10065,8 +10442,20 @@
       <c r="G23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="4:7">
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="E24" t="s">
         <v>35</v>
       </c>
@@ -10076,8 +10465,20 @@
       <c r="G24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="4:7">
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="E25" t="s">
         <v>36</v>
       </c>
@@ -10087,8 +10488,20 @@
       <c r="G25" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="4:7">
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="E26" t="s">
         <v>39</v>
       </c>
@@ -10098,8 +10511,20 @@
       <c r="G26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="4:7">
+      <c r="H26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="E27" t="s">
         <v>42</v>
       </c>
@@ -10109,8 +10534,20 @@
       <c r="G27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="4:7">
+      <c r="H27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="D28" t="s">
         <v>46</v>
       </c>
@@ -10123,8 +10560,20 @@
       <c r="G28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="4:7">
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="E29" t="s">
         <v>26</v>
       </c>
@@ -10134,8 +10583,20 @@
       <c r="G29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="4:7">
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="E30" t="s">
         <v>27</v>
       </c>
@@ -10145,8 +10606,20 @@
       <c r="G30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="4:7">
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>30</v>
+      </c>
       <c r="E31" t="s">
         <v>30</v>
       </c>
@@ -10156,8 +10629,20 @@
       <c r="G31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="4:7">
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>31</v>
+      </c>
       <c r="E32" t="s">
         <v>31</v>
       </c>
@@ -10167,8 +10652,20 @@
       <c r="G32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="4:7">
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>32</v>
+      </c>
       <c r="E33" t="s">
         <v>32</v>
       </c>
@@ -10178,8 +10675,20 @@
       <c r="G33" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="4:7">
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>33</v>
+      </c>
       <c r="E34" t="s">
         <v>33</v>
       </c>
@@ -10189,8 +10698,20 @@
       <c r="G34" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="4:7">
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>34</v>
+      </c>
       <c r="E35" t="s">
         <v>34</v>
       </c>
@@ -10200,8 +10721,20 @@
       <c r="G35" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="4:7">
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>35</v>
+      </c>
       <c r="E36" t="s">
         <v>35</v>
       </c>
@@ -10211,8 +10744,20 @@
       <c r="G36" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="4:7">
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>36</v>
+      </c>
       <c r="E37" t="s">
         <v>36</v>
       </c>
@@ -10222,8 +10767,20 @@
       <c r="G37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="4:7">
+      <c r="H37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>37</v>
+      </c>
       <c r="E38" t="s">
         <v>39</v>
       </c>
@@ -10233,8 +10790,20 @@
       <c r="G38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="4:7">
+      <c r="H38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>38</v>
+      </c>
       <c r="E39" t="s">
         <v>42</v>
       </c>
@@ -10244,8 +10813,20 @@
       <c r="G39" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="4:7">
+      <c r="H39" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>39</v>
+      </c>
       <c r="D40" t="s">
         <v>48</v>
       </c>
@@ -10258,8 +10839,20 @@
       <c r="G40" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="41" spans="4:7">
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>40</v>
+      </c>
       <c r="E41" t="s">
         <v>26</v>
       </c>
@@ -10269,8 +10862,20 @@
       <c r="G41" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="4:7">
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>41</v>
+      </c>
       <c r="E42" t="s">
         <v>27</v>
       </c>
@@ -10280,8 +10885,20 @@
       <c r="G42" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="43" spans="4:7">
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>42</v>
+      </c>
       <c r="E43" t="s">
         <v>30</v>
       </c>
@@ -10291,8 +10908,20 @@
       <c r="G43" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="44" spans="4:7">
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>43</v>
+      </c>
       <c r="E44" t="s">
         <v>31</v>
       </c>
@@ -10302,8 +10931,20 @@
       <c r="G44" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="45" spans="4:7">
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>44</v>
+      </c>
       <c r="E45" t="s">
         <v>32</v>
       </c>
@@ -10313,8 +10954,20 @@
       <c r="G45" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="46" spans="4:7">
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>45</v>
+      </c>
       <c r="E46" t="s">
         <v>33</v>
       </c>
@@ -10324,8 +10977,20 @@
       <c r="G46" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="47" spans="4:7">
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>46</v>
+      </c>
       <c r="E47" t="s">
         <v>34</v>
       </c>
@@ -10335,8 +11000,20 @@
       <c r="G47" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="48" spans="4:7">
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>47</v>
+      </c>
       <c r="E48" t="s">
         <v>35</v>
       </c>
@@ -10346,8 +11023,20 @@
       <c r="G48" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="4:7">
+      <c r="H48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>48</v>
+      </c>
       <c r="E49" t="s">
         <v>36</v>
       </c>
@@ -10357,8 +11046,20 @@
       <c r="G49" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="50" spans="4:7">
+      <c r="H49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>49</v>
+      </c>
       <c r="E50" t="s">
         <v>39</v>
       </c>
@@ -10368,8 +11069,20 @@
       <c r="G50" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="51" spans="4:7">
+      <c r="H50" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>50</v>
+      </c>
       <c r="E51" t="s">
         <v>42</v>
       </c>
@@ -10379,8 +11092,20 @@
       <c r="G51" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="52" spans="4:7">
+      <c r="H51" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>51</v>
+      </c>
       <c r="D52" t="s">
         <v>49</v>
       </c>
@@ -10393,8 +11118,17 @@
       <c r="G52" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="53" spans="4:7">
+      <c r="I52" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="40.5">
+      <c r="A53">
+        <v>52</v>
+      </c>
       <c r="D53" t="s">
         <v>51</v>
       </c>
@@ -10407,8 +11141,20 @@
       <c r="G53" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="54" spans="4:7">
+      <c r="H53" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="I53" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>53</v>
+      </c>
       <c r="E54" t="s">
         <v>53</v>
       </c>
@@ -10418,8 +11164,20 @@
       <c r="G54" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="4:7">
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>54</v>
+      </c>
       <c r="E55" t="s">
         <v>54</v>
       </c>
@@ -10429,8 +11187,20 @@
       <c r="G55" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="56" spans="4:7">
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>55</v>
+      </c>
       <c r="E56" t="s">
         <v>55</v>
       </c>
@@ -10440,8 +11210,20 @@
       <c r="G56" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="57" spans="4:7">
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>56</v>
+      </c>
       <c r="E57" t="s">
         <v>56</v>
       </c>
@@ -10451,8 +11233,20 @@
       <c r="G57" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="58" spans="4:7">
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>57</v>
+      </c>
       <c r="E58" t="s">
         <v>57</v>
       </c>
@@ -10462,8 +11256,20 @@
       <c r="G58" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="59" spans="4:7">
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>58</v>
+      </c>
       <c r="E59" t="s">
         <v>58</v>
       </c>
@@ -10473,8 +11279,20 @@
       <c r="G59" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="60" spans="4:7">
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>59</v>
+      </c>
       <c r="E60" t="s">
         <v>59</v>
       </c>
@@ -10484,8 +11302,20 @@
       <c r="G60" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="61" spans="4:7">
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>60</v>
+      </c>
       <c r="E61" t="s">
         <v>36</v>
       </c>
@@ -10495,8 +11325,20 @@
       <c r="G61" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="62" spans="4:7">
+      <c r="H61" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>61</v>
+      </c>
       <c r="E62" t="s">
         <v>39</v>
       </c>
@@ -10506,8 +11348,20 @@
       <c r="G62" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="63" spans="4:7">
+      <c r="H62" t="s">
+        <v>41</v>
+      </c>
+      <c r="I62" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>62</v>
+      </c>
       <c r="E63" t="s">
         <v>60</v>
       </c>
@@ -10517,399 +11371,825 @@
       <c r="G63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="4:7">
+      <c r="H63" t="s">
+        <v>62</v>
+      </c>
+      <c r="I63" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>63</v>
+      </c>
       <c r="D64" t="s">
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>340</v>
+      </c>
+      <c r="F64" t="s">
+        <v>340</v>
+      </c>
+      <c r="G64" t="s">
+        <v>340</v>
+      </c>
+      <c r="H64" t="s">
+        <v>340</v>
+      </c>
+      <c r="I64" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" t="s">
+        <v>65</v>
+      </c>
+      <c r="G65" t="s">
+        <v>66</v>
+      </c>
+      <c r="H65" t="s">
+        <v>66</v>
+      </c>
+      <c r="I65" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" t="s">
+        <v>40</v>
+      </c>
+      <c r="G66" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" t="s">
+        <v>41</v>
+      </c>
+      <c r="I66" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" t="s">
+        <v>43</v>
+      </c>
+      <c r="G67" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" t="s">
+        <v>44</v>
+      </c>
+      <c r="I67" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>68</v>
+      </c>
+      <c r="F68" t="s">
+        <v>69</v>
+      </c>
+      <c r="G68" t="s">
+        <v>38</v>
+      </c>
+      <c r="H68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I68" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>68</v>
+      </c>
+      <c r="F69" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" t="s">
+        <v>38</v>
+      </c>
+      <c r="H69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I69" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F70" t="s">
+        <v>68</v>
+      </c>
+      <c r="G70" t="s">
+        <v>71</v>
+      </c>
+      <c r="H70" t="s">
+        <v>71</v>
+      </c>
+      <c r="I70" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F71" t="s">
+        <v>73</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>74</v>
+      </c>
+      <c r="F72" t="s">
+        <v>75</v>
+      </c>
+      <c r="G72" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72" t="s">
+        <v>76</v>
+      </c>
+      <c r="I72" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s">
+        <v>28</v>
+      </c>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>80</v>
+      </c>
+      <c r="F74" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>81</v>
+      </c>
+      <c r="F75" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s">
+        <v>28</v>
+      </c>
+      <c r="H75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>82</v>
+      </c>
+      <c r="F76" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>83</v>
+      </c>
+      <c r="F77" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s">
+        <v>25</v>
+      </c>
+      <c r="H77" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>84</v>
+      </c>
+      <c r="F78" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>85</v>
+      </c>
+      <c r="F79" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>86</v>
+      </c>
+      <c r="F80" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" t="s">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>36</v>
+      </c>
+      <c r="F82" t="s">
+        <v>37</v>
+      </c>
+      <c r="G82" t="s">
+        <v>38</v>
+      </c>
+      <c r="H82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I82" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F83" t="s">
+        <v>40</v>
+      </c>
+      <c r="G83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H83" t="s">
+        <v>41</v>
+      </c>
+      <c r="I83" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>88</v>
+      </c>
+      <c r="F84" t="s">
+        <v>89</v>
+      </c>
+      <c r="G84" t="s">
+        <v>90</v>
+      </c>
+      <c r="H84" t="s">
+        <v>90</v>
+      </c>
+      <c r="I84" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="D85" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" t="s">
+        <v>93</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>94</v>
+      </c>
+      <c r="F86" t="s">
+        <v>95</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>96</v>
+      </c>
+      <c r="F87" t="s">
+        <v>97</v>
+      </c>
+      <c r="G87" t="s">
+        <v>98</v>
+      </c>
+      <c r="H87" t="s">
+        <v>98</v>
+      </c>
+      <c r="I87" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>99</v>
+      </c>
+      <c r="F88" t="s">
+        <v>100</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>101</v>
+      </c>
+      <c r="F89" t="s">
+        <v>102</v>
+      </c>
+      <c r="G89" t="s">
+        <v>41</v>
+      </c>
+      <c r="H89" t="s">
+        <v>41</v>
+      </c>
+      <c r="I89" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="D90" t="s">
+        <v>103</v>
+      </c>
+      <c r="E90" t="s">
         <v>23</v>
       </c>
-      <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="4:7">
-      <c r="E65" t="s">
+      <c r="F90" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" t="s">
+        <v>25</v>
+      </c>
+      <c r="I90" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="D91" t="s">
+        <v>104</v>
+      </c>
+      <c r="E91" t="s">
         <v>26</v>
       </c>
-      <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="4:7">
-      <c r="E66" t="s">
+      <c r="F91" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s">
+        <v>25</v>
+      </c>
+      <c r="H91" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E92" t="s">
         <v>27</v>
       </c>
-      <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="F92" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s">
+        <v>28</v>
+      </c>
+      <c r="H93" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="67" spans="4:7">
-      <c r="E67" t="s">
-        <v>30</v>
-      </c>
-      <c r="F67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="4:7">
-      <c r="E68" t="s">
-        <v>31</v>
-      </c>
-      <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="H94" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="69" spans="4:7">
-      <c r="E69" t="s">
+      <c r="I94" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
         <v>32</v>
       </c>
-      <c r="F69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="4:7">
-      <c r="E70" t="s">
-        <v>33</v>
-      </c>
-      <c r="F70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" spans="4:7">
-      <c r="E71" t="s">
+      <c r="F95" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s">
+        <v>28</v>
+      </c>
+      <c r="H95" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>106</v>
+      </c>
+      <c r="F96" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s">
+        <v>25</v>
+      </c>
+      <c r="H96" t="s">
+        <v>25</v>
+      </c>
+      <c r="I96" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
         <v>34</v>
       </c>
-      <c r="F71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="4:7">
-      <c r="E72" t="s">
-        <v>35</v>
-      </c>
-      <c r="F72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="4:7">
-      <c r="E73" t="s">
-        <v>36</v>
-      </c>
-      <c r="F73" t="s">
-        <v>65</v>
-      </c>
-      <c r="G73" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="4:7">
-      <c r="E74" t="s">
-        <v>39</v>
-      </c>
-      <c r="F74" t="s">
-        <v>40</v>
-      </c>
-      <c r="G74" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="4:7">
-      <c r="E75" t="s">
-        <v>42</v>
-      </c>
-      <c r="F75" t="s">
-        <v>43</v>
-      </c>
-      <c r="G75" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76" spans="4:7">
-      <c r="D76" t="s">
-        <v>67</v>
-      </c>
-      <c r="E76" t="s">
-        <v>68</v>
-      </c>
-      <c r="F76" t="s">
-        <v>69</v>
-      </c>
-      <c r="G76" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" spans="4:7">
-      <c r="E77" t="s">
-        <v>68</v>
-      </c>
-      <c r="F77" t="s">
-        <v>70</v>
-      </c>
-      <c r="G77" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="4:7">
-      <c r="E78" t="s">
-        <v>68</v>
-      </c>
-      <c r="F78" t="s">
-        <v>68</v>
-      </c>
-      <c r="G78" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="4:7">
-      <c r="E79" t="s">
-        <v>72</v>
-      </c>
-      <c r="F79" t="s">
-        <v>73</v>
-      </c>
-      <c r="G79" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="4:7">
-      <c r="E80" t="s">
-        <v>74</v>
-      </c>
-      <c r="F80" t="s">
-        <v>75</v>
-      </c>
-      <c r="G80" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" spans="4:7">
-      <c r="D81" t="s">
-        <v>78</v>
-      </c>
-      <c r="E81" t="s">
-        <v>79</v>
-      </c>
-      <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="82" spans="4:7">
-      <c r="E82" t="s">
-        <v>80</v>
-      </c>
-      <c r="F82" t="s">
-        <v>24</v>
-      </c>
-      <c r="G82" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="83" spans="4:7">
-      <c r="E83" t="s">
-        <v>81</v>
-      </c>
-      <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="84" spans="4:7">
-      <c r="E84" t="s">
-        <v>82</v>
-      </c>
-      <c r="F84" t="s">
-        <v>24</v>
-      </c>
-      <c r="G84" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="85" spans="4:7">
-      <c r="E85" t="s">
-        <v>83</v>
-      </c>
-      <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="4:7">
-      <c r="E86" t="s">
-        <v>84</v>
-      </c>
-      <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="87" spans="4:7">
-      <c r="E87" t="s">
-        <v>85</v>
-      </c>
-      <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="88" spans="4:7">
-      <c r="E88" t="s">
-        <v>86</v>
-      </c>
-      <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" spans="4:7">
-      <c r="E89" t="s">
-        <v>87</v>
-      </c>
-      <c r="F89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="90" spans="4:7">
-      <c r="E90" t="s">
-        <v>36</v>
-      </c>
-      <c r="F90" t="s">
-        <v>37</v>
-      </c>
-      <c r="G90" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="91" spans="4:7">
-      <c r="E91" t="s">
-        <v>39</v>
-      </c>
-      <c r="F91" t="s">
-        <v>40</v>
-      </c>
-      <c r="G91" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="92" spans="4:7">
-      <c r="E92" t="s">
-        <v>88</v>
-      </c>
-      <c r="F92" t="s">
-        <v>89</v>
-      </c>
-      <c r="G92" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="4:7">
-      <c r="D93" t="s">
-        <v>91</v>
-      </c>
-      <c r="E93" t="s">
-        <v>92</v>
-      </c>
-      <c r="F93" t="s">
-        <v>93</v>
-      </c>
-      <c r="G93" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="4:7">
-      <c r="E94" t="s">
-        <v>94</v>
-      </c>
-      <c r="F94" t="s">
-        <v>95</v>
-      </c>
-      <c r="G94" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="4:7">
-      <c r="E95" t="s">
-        <v>96</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="F97" t="s">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s">
+        <v>28</v>
+      </c>
+      <c r="H97" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="G95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="4:7">
-      <c r="E96" t="s">
-        <v>99</v>
-      </c>
-      <c r="F96" t="s">
-        <v>100</v>
-      </c>
-      <c r="G96" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="4:7">
-      <c r="E97" t="s">
-        <v>101</v>
-      </c>
-      <c r="F97" t="s">
-        <v>102</v>
-      </c>
-      <c r="G97" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="98" spans="4:7">
-      <c r="D98" t="s">
-        <v>103</v>
-      </c>
       <c r="E98" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="F98" t="s">
         <v>24</v>
@@ -10917,49 +12197,94 @@
       <c r="G98" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="99" spans="4:7">
-      <c r="D99" t="s">
-        <v>104</v>
+      <c r="H98" t="s">
+        <v>25</v>
+      </c>
+      <c r="I98" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="4:7">
-      <c r="D100" s="6" t="s">
-        <v>105</v>
+        <v>38</v>
+      </c>
+      <c r="H99" t="s">
+        <v>38</v>
+      </c>
+      <c r="I99" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="101" spans="4:7">
+        <v>41</v>
+      </c>
+      <c r="H100" t="s">
+        <v>41</v>
+      </c>
+      <c r="I100" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>100</v>
+      </c>
       <c r="E101" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G101" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="102" spans="4:7">
+        <v>44</v>
+      </c>
+      <c r="H101" t="s">
+        <v>44</v>
+      </c>
+      <c r="I101" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="D102" t="s">
+        <v>108</v>
+      </c>
       <c r="E102" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F102" t="s">
         <v>24</v>
@@ -10967,32 +12292,74 @@
       <c r="G102" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="103" spans="4:7">
+      <c r="H102" t="s">
+        <v>25</v>
+      </c>
+      <c r="I102" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="D103" t="s">
+        <v>104</v>
+      </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F103" t="s">
         <v>24</v>
       </c>
       <c r="G103" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="104" spans="4:7">
+        <v>25</v>
+      </c>
+      <c r="H103" t="s">
+        <v>25</v>
+      </c>
+      <c r="I103" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="E104" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F104" t="s">
         <v>24</v>
       </c>
       <c r="G104" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" spans="4:7">
+        <v>28</v>
+      </c>
+      <c r="H104" t="s">
+        <v>28</v>
+      </c>
+      <c r="I104" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>104</v>
+      </c>
       <c r="E105" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F105" t="s">
         <v>24</v>
@@ -11000,10 +12367,22 @@
       <c r="G105" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="106" spans="4:7">
+      <c r="H105" t="s">
+        <v>28</v>
+      </c>
+      <c r="I105" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>105</v>
+      </c>
       <c r="E106" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="F106" t="s">
         <v>24</v>
@@ -11011,46 +12390,91 @@
       <c r="G106" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="107" spans="4:7">
+      <c r="H106" t="s">
+        <v>25</v>
+      </c>
+      <c r="I106" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>106</v>
+      </c>
       <c r="E107" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="108" spans="4:7">
+        <v>28</v>
+      </c>
+      <c r="H107" t="s">
+        <v>28</v>
+      </c>
+      <c r="I107" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>107</v>
+      </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="109" spans="4:7">
+        <v>25</v>
+      </c>
+      <c r="H108" t="s">
+        <v>25</v>
+      </c>
+      <c r="I108" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>108</v>
+      </c>
       <c r="E109" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F109" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G109" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="110" spans="4:7">
-      <c r="D110" t="s">
-        <v>108</v>
+        <v>28</v>
+      </c>
+      <c r="H109" t="s">
+        <v>28</v>
+      </c>
+      <c r="I109" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="F110" t="s">
         <v>24</v>
@@ -11058,484 +12482,937 @@
       <c r="G110" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="111" spans="4:7">
-      <c r="D111" t="s">
-        <v>104</v>
+      <c r="H110" t="s">
+        <v>25</v>
+      </c>
+      <c r="I110" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F111" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" spans="4:7">
-      <c r="D112" s="6" t="s">
-        <v>105</v>
+        <v>38</v>
+      </c>
+      <c r="H111" t="s">
+        <v>38</v>
+      </c>
+      <c r="I111" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7">
+        <v>41</v>
+      </c>
+      <c r="H112" t="s">
+        <v>41</v>
+      </c>
+      <c r="I112" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>112</v>
+      </c>
       <c r="E113" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="G113" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7">
+        <v>62</v>
+      </c>
+      <c r="H113" t="s">
+        <v>62</v>
+      </c>
+      <c r="I113" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K113" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="D114" t="s">
+        <v>113</v>
+      </c>
       <c r="E114" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="F114" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="G114" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7">
+        <v>17</v>
+      </c>
+      <c r="H114" t="s">
+        <v>17</v>
+      </c>
+      <c r="I114" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>114</v>
+      </c>
       <c r="E115" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="G115" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7">
+        <v>17</v>
+      </c>
+      <c r="H115" t="s">
+        <v>17</v>
+      </c>
+      <c r="I115" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>115</v>
+      </c>
       <c r="E116" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F116" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="G116" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7">
+        <v>17</v>
+      </c>
+      <c r="H116" t="s">
+        <v>17</v>
+      </c>
+      <c r="I116" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>116</v>
+      </c>
       <c r="E117" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="F117" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="G117" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7">
+        <v>117</v>
+      </c>
+      <c r="H117" t="s">
+        <v>117</v>
+      </c>
+      <c r="I117" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>118</v>
+      </c>
+      <c r="D118" t="s">
+        <v>119</v>
+      </c>
       <c r="E118" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F118" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="G118" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7">
+        <v>122</v>
+      </c>
+      <c r="H118" t="s">
+        <v>122</v>
+      </c>
+      <c r="I118" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="D119" t="s">
+        <v>119</v>
+      </c>
       <c r="E119" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7">
+        <v>125</v>
+      </c>
+      <c r="H119" t="s">
+        <v>125</v>
+      </c>
+      <c r="I119" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="14.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" t="s">
+        <v>127</v>
+      </c>
+      <c r="D120" t="s">
+        <v>128</v>
+      </c>
       <c r="E120" t="s">
-        <v>39</v>
-      </c>
-      <c r="F120" t="s">
-        <v>40</v>
+        <v>129</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7">
+        <v>17</v>
+      </c>
+      <c r="H120" t="s">
+        <v>17</v>
+      </c>
+      <c r="I120" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>120</v>
+      </c>
       <c r="E121" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="F121" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="G121" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7">
+        <v>17</v>
+      </c>
+      <c r="H121" t="s">
+        <v>17</v>
+      </c>
+      <c r="I121" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="C122" t="s">
+        <v>118</v>
+      </c>
       <c r="D122" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E122" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="F122" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="G122" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7">
+        <v>11</v>
+      </c>
+      <c r="H122" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>122</v>
+      </c>
       <c r="E123" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="F123" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="G123" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="124" spans="2:7">
+      <c r="H123" t="s">
+        <v>17</v>
+      </c>
+      <c r="I123" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="D124" t="s">
+        <v>138</v>
+      </c>
       <c r="E124" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="F124" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="G124" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7">
+        <v>139</v>
+      </c>
+      <c r="H124" t="s">
+        <v>139</v>
+      </c>
+      <c r="I124" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125" t="s">
+        <v>139</v>
+      </c>
+      <c r="D125" t="s">
+        <v>140</v>
+      </c>
       <c r="E125" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="F125" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="G125" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7">
+        <v>17</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="I125" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>125</v>
+      </c>
       <c r="C126" t="s">
         <v>118</v>
       </c>
       <c r="D126" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="E126" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="F126" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="G126" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7">
+        <v>148</v>
+      </c>
+      <c r="H126" t="s">
+        <v>148</v>
+      </c>
+      <c r="I126" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>150</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
       <c r="D127" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="E127" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="F127" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="G127" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7" ht="14.25">
-      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+      <c r="H127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="D128" t="s">
+        <v>151</v>
+      </c>
+      <c r="E128" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
+        <v>20</v>
+      </c>
+      <c r="H128" t="s">
+        <v>20</v>
+      </c>
+      <c r="I128" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
         <v>126</v>
       </c>
-      <c r="C128" t="s">
-        <v>127</v>
-      </c>
-      <c r="D128" t="s">
-        <v>128</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" t="s">
+        <v>151</v>
+      </c>
+      <c r="E129" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
+        <v>16</v>
+      </c>
+      <c r="H129" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
         <v>129</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="D130" t="s">
+        <v>151</v>
+      </c>
+      <c r="E130" t="s">
+        <v>19</v>
+      </c>
+      <c r="F130" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
+        <v>20</v>
+      </c>
+      <c r="H130" t="s">
+        <v>20</v>
+      </c>
+      <c r="I130" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K130" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
         <v>130</v>
       </c>
-      <c r="G128" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7">
-      <c r="E129" t="s">
+      <c r="B131" t="s">
+        <v>139</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" t="s">
+        <v>151</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>16</v>
+      </c>
+      <c r="H131" t="s">
+        <v>16</v>
+      </c>
+      <c r="I131" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K131" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="D132" t="s">
+        <v>151</v>
+      </c>
+      <c r="E132" t="s">
+        <v>19</v>
+      </c>
+      <c r="F132" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" t="s">
+        <v>20</v>
+      </c>
+      <c r="I132" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
         <v>132</v>
       </c>
-      <c r="F129" t="s">
+      <c r="B133" t="s">
+        <v>153</v>
+      </c>
+      <c r="C133" t="s">
+        <v>154</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E133" t="s">
+        <v>156</v>
+      </c>
+      <c r="F133" t="s">
+        <v>157</v>
+      </c>
+      <c r="G133" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" t="s">
+        <v>17</v>
+      </c>
+      <c r="I133" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
         <v>133</v>
       </c>
-      <c r="G129" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7">
-      <c r="C130" t="s">
-        <v>118</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="D134" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E134" t="s">
+        <v>156</v>
+      </c>
+      <c r="F134" t="s">
+        <v>159</v>
+      </c>
+      <c r="G134" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" t="s">
+        <v>17</v>
+      </c>
+      <c r="I134" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
         <v>134</v>
       </c>
-      <c r="E130" t="s">
+      <c r="B135" t="s">
+        <v>160</v>
+      </c>
+      <c r="C135" t="s">
+        <v>161</v>
+      </c>
+      <c r="D135" t="s">
+        <v>162</v>
+      </c>
+      <c r="E135" t="s">
+        <v>163</v>
+      </c>
+      <c r="F135" t="s">
+        <v>164</v>
+      </c>
+      <c r="G135" t="s">
+        <v>17</v>
+      </c>
+      <c r="H135" t="s">
+        <v>17</v>
+      </c>
+      <c r="I135" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K135" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
         <v>135</v>
       </c>
-      <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7">
-      <c r="E131" t="s">
+      <c r="C136" t="s">
+        <v>165</v>
+      </c>
+      <c r="D136" t="s">
+        <v>166</v>
+      </c>
+      <c r="E136" t="s">
+        <v>167</v>
+      </c>
+      <c r="F136" t="s">
+        <v>164</v>
+      </c>
+      <c r="G136" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" t="s">
+        <v>17</v>
+      </c>
+      <c r="I136" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K136" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
         <v>136</v>
       </c>
-      <c r="F131" t="s">
+      <c r="C137" t="s">
+        <v>168</v>
+      </c>
+      <c r="D137" t="s">
+        <v>169</v>
+      </c>
+      <c r="E137" t="s">
+        <v>170</v>
+      </c>
+      <c r="F137" t="s">
+        <v>164</v>
+      </c>
+      <c r="G137" t="s">
+        <v>17</v>
+      </c>
+      <c r="H137" t="s">
+        <v>17</v>
+      </c>
+      <c r="I137" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
         <v>137</v>
       </c>
-      <c r="G131" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7">
-      <c r="D132" t="s">
+      <c r="C138" t="s">
+        <v>171</v>
+      </c>
+      <c r="D138" t="s">
+        <v>172</v>
+      </c>
+      <c r="E138" t="s">
+        <v>173</v>
+      </c>
+      <c r="F138" t="s">
+        <v>164</v>
+      </c>
+      <c r="G138" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" t="s">
+        <v>17</v>
+      </c>
+      <c r="I138" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
         <v>138</v>
       </c>
-      <c r="E132" t="s">
-        <v>135</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="C139" t="s">
+        <v>174</v>
+      </c>
+      <c r="D139" t="s">
+        <v>175</v>
+      </c>
+      <c r="E139" t="s">
+        <v>176</v>
+      </c>
+      <c r="F139" t="s">
+        <v>164</v>
+      </c>
+      <c r="G139" t="s">
+        <v>17</v>
+      </c>
+      <c r="H139" t="s">
+        <v>17</v>
+      </c>
+      <c r="I139" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
         <v>139</v>
       </c>
-      <c r="G132" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7">
-      <c r="B133" t="s">
-        <v>139</v>
-      </c>
-      <c r="C133" t="s">
-        <v>139</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="C140" t="s">
+        <v>177</v>
+      </c>
+      <c r="D140" t="s">
+        <v>178</v>
+      </c>
+      <c r="E140" t="s">
+        <v>179</v>
+      </c>
+      <c r="F140" t="s">
+        <v>164</v>
+      </c>
+      <c r="G140" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" t="s">
+        <v>17</v>
+      </c>
+      <c r="I140" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="14.25">
+      <c r="A141">
         <v>140</v>
       </c>
-      <c r="E133" t="s">
+      <c r="C141" t="s">
+        <v>180</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F141" t="s">
+        <v>164</v>
+      </c>
+      <c r="G141" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" t="s">
+        <v>17</v>
+      </c>
+      <c r="I141" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K141" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="14.25">
+      <c r="A142">
         <v>141</v>
       </c>
-      <c r="F133" t="s">
+      <c r="C142" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F142" t="s">
+        <v>164</v>
+      </c>
+      <c r="G142" t="s">
+        <v>17</v>
+      </c>
+      <c r="H142" t="s">
+        <v>17</v>
+      </c>
+      <c r="I142" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="14.25">
+      <c r="A143">
         <v>142</v>
       </c>
-      <c r="G133" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7" ht="14.25">
-      <c r="D134" t="s">
-        <v>144</v>
-      </c>
-      <c r="E134" t="s">
-        <v>145</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G134" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7">
-      <c r="C135" t="s">
-        <v>118</v>
-      </c>
-      <c r="D135" t="s">
-        <v>147</v>
-      </c>
-      <c r="E135" t="s">
-        <v>135</v>
-      </c>
-      <c r="F135" t="s">
-        <v>148</v>
-      </c>
-      <c r="G135" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7">
-      <c r="B136" t="s">
-        <v>150</v>
-      </c>
-      <c r="C136" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" t="s">
-        <v>151</v>
-      </c>
-      <c r="E136" t="s">
-        <v>14</v>
-      </c>
-      <c r="F136" t="s">
-        <v>15</v>
-      </c>
-      <c r="G136" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7">
-      <c r="D137" t="s">
-        <v>151</v>
-      </c>
-      <c r="E137" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137" t="s">
-        <v>15</v>
-      </c>
-      <c r="G137" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="2:7">
-      <c r="B138" t="s">
-        <v>126</v>
-      </c>
-      <c r="C138" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" t="s">
-        <v>151</v>
-      </c>
-      <c r="E138" t="s">
-        <v>14</v>
-      </c>
-      <c r="F138" t="s">
-        <v>15</v>
-      </c>
-      <c r="G138" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" spans="2:7">
-      <c r="D139" t="s">
-        <v>151</v>
-      </c>
-      <c r="E139" t="s">
-        <v>19</v>
-      </c>
-      <c r="F139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G139" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="140" spans="2:7">
-      <c r="B140" t="s">
-        <v>139</v>
-      </c>
-      <c r="C140" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" t="s">
-        <v>151</v>
-      </c>
-      <c r="E140" t="s">
-        <v>14</v>
-      </c>
-      <c r="F140" t="s">
-        <v>15</v>
-      </c>
-      <c r="G140" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7">
-      <c r="D141" t="s">
-        <v>151</v>
-      </c>
-      <c r="E141" t="s">
-        <v>19</v>
-      </c>
-      <c r="F141" t="s">
-        <v>15</v>
-      </c>
-      <c r="G141" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7">
-      <c r="B142" t="s">
-        <v>153</v>
-      </c>
-      <c r="C142" t="s">
-        <v>154</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E142" t="s">
-        <v>156</v>
-      </c>
-      <c r="F142" t="s">
-        <v>157</v>
-      </c>
-      <c r="G142" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7">
-      <c r="D143" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E143" t="s">
-        <v>156</v>
+      <c r="C143" t="s">
+        <v>185</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="F143" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G143" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="144" spans="2:7">
-      <c r="B144" t="s">
-        <v>160</v>
+      <c r="H143" t="s">
+        <v>17</v>
+      </c>
+      <c r="I143" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K143" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="14.25">
+      <c r="A144">
+        <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>161</v>
-      </c>
-      <c r="D144" t="s">
-        <v>162</v>
-      </c>
-      <c r="E144" t="s">
-        <v>163</v>
+        <v>187</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="F144" t="s">
         <v>164</v>
@@ -11543,16 +13420,28 @@
       <c r="G144" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="145" spans="2:7">
+      <c r="H144" t="s">
+        <v>17</v>
+      </c>
+      <c r="I144" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="14.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
       <c r="C145" t="s">
-        <v>165</v>
-      </c>
-      <c r="D145" t="s">
-        <v>166</v>
-      </c>
-      <c r="E145" t="s">
-        <v>167</v>
+        <v>189</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="F145" t="s">
         <v>164</v>
@@ -11560,16 +13449,28 @@
       <c r="G145" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="146" spans="2:7">
+      <c r="H145" t="s">
+        <v>17</v>
+      </c>
+      <c r="I145" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K145" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="14.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
       <c r="C146" t="s">
-        <v>168</v>
-      </c>
-      <c r="D146" t="s">
-        <v>169</v>
-      </c>
-      <c r="E146" t="s">
-        <v>170</v>
+        <v>191</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="F146" t="s">
         <v>164</v>
@@ -11577,16 +13478,28 @@
       <c r="G146" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="147" spans="2:7">
+      <c r="H146" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="14.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
       <c r="C147" t="s">
-        <v>171</v>
-      </c>
-      <c r="D147" t="s">
-        <v>172</v>
-      </c>
-      <c r="E147" t="s">
-        <v>173</v>
+        <v>193</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="F147" t="s">
         <v>164</v>
@@ -11594,16 +13507,28 @@
       <c r="G147" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="148" spans="2:7">
+      <c r="H147" t="s">
+        <v>17</v>
+      </c>
+      <c r="I147" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K147" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="14.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
       <c r="C148" t="s">
-        <v>174</v>
-      </c>
-      <c r="D148" t="s">
-        <v>175</v>
-      </c>
-      <c r="E148" t="s">
-        <v>176</v>
+        <v>195</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="F148" t="s">
         <v>164</v>
@@ -11611,16 +13536,28 @@
       <c r="G148" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="149" spans="2:7">
+      <c r="H148" t="s">
+        <v>17</v>
+      </c>
+      <c r="I148" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="14.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
       <c r="C149" t="s">
-        <v>177</v>
-      </c>
-      <c r="D149" t="s">
-        <v>178</v>
-      </c>
-      <c r="E149" t="s">
-        <v>179</v>
+        <v>197</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="F149" t="s">
         <v>164</v>
@@ -11628,101 +13565,150 @@
       <c r="G149" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="150" spans="2:7" ht="14.25">
-      <c r="C150" t="s">
-        <v>180</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>182</v>
+      <c r="H149" t="s">
+        <v>17</v>
+      </c>
+      <c r="I149" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K149" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="14.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>153</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" s="8" t="s">
+        <v>342</v>
       </c>
       <c r="F150" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="G150" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="151" spans="2:7" ht="14.25">
-      <c r="C151" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>184</v>
+        <v>343</v>
+      </c>
+      <c r="H150" t="s">
+        <v>343</v>
+      </c>
+      <c r="I150" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K150" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>344</v>
+      </c>
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" t="s">
+        <v>14</v>
       </c>
       <c r="F151" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="G151" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7" ht="14.25">
-      <c r="C152" t="s">
-        <v>185</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>186</v>
+        <v>16</v>
+      </c>
+      <c r="H151" t="s">
+        <v>16</v>
+      </c>
+      <c r="I151" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="D152" t="s">
+        <v>18</v>
+      </c>
+      <c r="E152" t="s">
+        <v>19</v>
       </c>
       <c r="F152" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="G152" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="153" spans="2:7" ht="14.25">
-      <c r="C153" t="s">
-        <v>187</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>188</v>
+        <v>20</v>
+      </c>
+      <c r="H152" t="s">
+        <v>20</v>
+      </c>
+      <c r="I152" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="D153" t="s">
+        <v>344</v>
+      </c>
+      <c r="E153" t="s">
+        <v>345</v>
       </c>
       <c r="F153" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="G153" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="154" spans="2:7" ht="14.25">
+        <v>343</v>
+      </c>
+      <c r="H153" t="s">
+        <v>343</v>
+      </c>
+      <c r="K153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="39.75" customHeight="1">
+      <c r="A154">
+        <v>153</v>
+      </c>
       <c r="C154" t="s">
-        <v>189</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>190</v>
+        <v>346</v>
+      </c>
+      <c r="D154" t="s">
+        <v>347</v>
+      </c>
+      <c r="E154" s="22" t="s">
+        <v>348</v>
       </c>
       <c r="F154" t="s">
         <v>164</v>
       </c>
-      <c r="G154" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155" spans="2:7" ht="14.25">
-      <c r="C155" t="s">
-        <v>191</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>192</v>
+      <c r="K154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="E155" t="s">
+        <v>349</v>
       </c>
       <c r="F155" t="s">
         <v>164</v>
@@ -11730,16 +13716,19 @@
       <c r="G155" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="156" spans="2:7" ht="14.25">
-      <c r="C156" t="s">
-        <v>193</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>194</v>
+      <c r="H155" t="s">
+        <v>17</v>
+      </c>
+      <c r="K155" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="E156" t="s">
+        <v>350</v>
       </c>
       <c r="F156" t="s">
         <v>164</v>
@@ -11747,16 +13736,19 @@
       <c r="G156" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="157" spans="2:7" ht="14.25">
-      <c r="C157" t="s">
-        <v>195</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>196</v>
+      <c r="H156" t="s">
+        <v>17</v>
+      </c>
+      <c r="K156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="E157" t="s">
+        <v>351</v>
       </c>
       <c r="F157" t="s">
         <v>164</v>
@@ -11764,16 +13756,19 @@
       <c r="G157" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="158" spans="2:7" ht="14.25">
-      <c r="C158" t="s">
-        <v>197</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>198</v>
+      <c r="H157" t="s">
+        <v>17</v>
+      </c>
+      <c r="K157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="E158" t="s">
+        <v>352</v>
       </c>
       <c r="F158" t="s">
         <v>164</v>
@@ -11781,87 +13776,119 @@
       <c r="G158" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="159" spans="2:7" ht="14.25">
-      <c r="B159" t="s">
-        <v>153</v>
-      </c>
-      <c r="D159" s="2"/>
-      <c r="E159" s="8" t="s">
-        <v>339</v>
+      <c r="H158" t="s">
+        <v>17</v>
+      </c>
+      <c r="K158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="E159" t="s">
+        <v>353</v>
       </c>
       <c r="F159" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="G159" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="160" spans="2:7">
-      <c r="B160" t="s">
-        <v>341</v>
-      </c>
-      <c r="C160" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="H159" t="s">
+        <v>17</v>
+      </c>
+      <c r="K159" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>14</v>
+        <v>354</v>
       </c>
       <c r="F160" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="G160" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="161" spans="3:7">
-      <c r="D161" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="H160" t="s">
+        <v>17</v>
+      </c>
+      <c r="K160" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>19</v>
+        <v>355</v>
       </c>
       <c r="F161" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="G161" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="162" spans="3:7">
-      <c r="D162" t="s">
-        <v>341</v>
+        <v>17</v>
+      </c>
+      <c r="H161" t="s">
+        <v>17</v>
+      </c>
+      <c r="K161" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="F162" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="G162" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="163" spans="3:7" ht="39.75" customHeight="1">
-      <c r="C163" t="s">
-        <v>343</v>
-      </c>
-      <c r="D163" t="s">
-        <v>344</v>
-      </c>
-      <c r="E163" s="22" t="s">
-        <v>345</v>
+        <v>17</v>
+      </c>
+      <c r="H162" t="s">
+        <v>17</v>
+      </c>
+      <c r="K162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="E163" t="s">
+        <v>357</v>
       </c>
       <c r="F163" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="164" spans="3:7">
+      <c r="G163" t="s">
+        <v>17</v>
+      </c>
+      <c r="H163" t="s">
+        <v>17</v>
+      </c>
+      <c r="K163" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>163</v>
+      </c>
       <c r="E164" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="F164" t="s">
         <v>164</v>
@@ -11869,10 +13896,19 @@
       <c r="G164" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="165" spans="3:7">
+      <c r="H164" t="s">
+        <v>17</v>
+      </c>
+      <c r="K164" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>164</v>
+      </c>
       <c r="E165" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="F165" t="s">
         <v>164</v>
@@ -11880,10 +13916,19 @@
       <c r="G165" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="166" spans="3:7">
+      <c r="H165" t="s">
+        <v>17</v>
+      </c>
+      <c r="K165" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>165</v>
+      </c>
       <c r="E166" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="F166" t="s">
         <v>164</v>
@@ -11891,10 +13936,25 @@
       <c r="G166" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="167" spans="3:7">
+      <c r="H166" t="s">
+        <v>17</v>
+      </c>
+      <c r="K166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="C167" t="s">
+        <v>361</v>
+      </c>
+      <c r="D167" t="s">
+        <v>362</v>
+      </c>
       <c r="E167" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="F167" t="s">
         <v>164</v>
@@ -11902,10 +13962,22 @@
       <c r="G167" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="168" spans="3:7">
+      <c r="H167" t="s">
+        <v>17</v>
+      </c>
+      <c r="K167" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="D168" t="s">
+        <v>364</v>
+      </c>
       <c r="E168" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="F168" t="s">
         <v>164</v>
@@ -11913,10 +13985,28 @@
       <c r="G168" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="169" spans="3:7">
+      <c r="H168" t="s">
+        <v>17</v>
+      </c>
+      <c r="K168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>366</v>
+      </c>
+      <c r="C169" t="s">
+        <v>367</v>
+      </c>
+      <c r="D169" t="s">
+        <v>368</v>
+      </c>
       <c r="E169" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="F169" t="s">
         <v>164</v>
@@ -11924,10 +14014,19 @@
       <c r="G169" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="170" spans="3:7">
+      <c r="H169" t="s">
+        <v>17</v>
+      </c>
+      <c r="K169" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>169</v>
+      </c>
       <c r="E170" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="F170" t="s">
         <v>164</v>
@@ -11935,10 +14034,19 @@
       <c r="G170" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="171" spans="3:7">
+      <c r="H170" t="s">
+        <v>17</v>
+      </c>
+      <c r="K170" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>170</v>
+      </c>
       <c r="E171" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="F171" t="s">
         <v>164</v>
@@ -11946,10 +14054,19 @@
       <c r="G171" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="172" spans="3:7">
+      <c r="H171" t="s">
+        <v>17</v>
+      </c>
+      <c r="K171" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>171</v>
+      </c>
       <c r="E172" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="F172" t="s">
         <v>164</v>
@@ -11957,10 +14074,25 @@
       <c r="G172" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="173" spans="3:7">
+      <c r="H172" t="s">
+        <v>17</v>
+      </c>
+      <c r="K172" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="14.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>160</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>174</v>
+      </c>
       <c r="E173" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="F173" t="s">
         <v>164</v>
@@ -11968,10 +14100,19 @@
       <c r="G173" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="174" spans="3:7">
+      <c r="H173" t="s">
+        <v>17</v>
+      </c>
+      <c r="K173" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>173</v>
+      </c>
       <c r="E174" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="F174" t="s">
         <v>164</v>
@@ -11979,10 +14120,22 @@
       <c r="G174" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="175" spans="3:7">
+      <c r="H174" t="s">
+        <v>17</v>
+      </c>
+      <c r="K174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="14.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>171</v>
+      </c>
       <c r="E175" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="F175" t="s">
         <v>164</v>
@@ -11990,16 +14143,19 @@
       <c r="G175" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="176" spans="3:7">
-      <c r="C176" t="s">
-        <v>358</v>
-      </c>
-      <c r="D176" t="s">
-        <v>359</v>
+      <c r="H175" t="s">
+        <v>17</v>
+      </c>
+      <c r="K175" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="F176" t="s">
         <v>164</v>
@@ -12007,13 +14163,22 @@
       <c r="G176" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="177" spans="2:7">
-      <c r="D177" t="s">
-        <v>361</v>
+      <c r="H176" t="s">
+        <v>17</v>
+      </c>
+      <c r="K176" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="14.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="E177" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="F177" t="s">
         <v>164</v>
@@ -12021,143 +14186,38 @@
       <c r="G177" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="178" spans="2:7">
-      <c r="B178" t="s">
-        <v>363</v>
-      </c>
-      <c r="C178" t="s">
-        <v>364</v>
-      </c>
-      <c r="D178" t="s">
-        <v>365</v>
+      <c r="H177" t="s">
+        <v>17</v>
+      </c>
+      <c r="K177" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="F178" t="s">
-        <v>164</v>
+        <v>379</v>
       </c>
       <c r="G178" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="179" spans="2:7">
-      <c r="E179" t="s">
-        <v>367</v>
-      </c>
-      <c r="F179" t="s">
-        <v>164</v>
-      </c>
-      <c r="G179" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="180" spans="2:7">
-      <c r="E180" t="s">
-        <v>368</v>
-      </c>
-      <c r="F180" t="s">
-        <v>164</v>
-      </c>
-      <c r="G180" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="181" spans="2:7">
-      <c r="E181" t="s">
-        <v>369</v>
-      </c>
-      <c r="F181" t="s">
-        <v>164</v>
-      </c>
-      <c r="G181" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="182" spans="2:7" ht="14.25">
-      <c r="B182" t="s">
-        <v>160</v>
-      </c>
-      <c r="D182" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E182" t="s">
-        <v>370</v>
-      </c>
-      <c r="F182" t="s">
-        <v>164</v>
-      </c>
-      <c r="G182" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="183" spans="2:7">
-      <c r="E183" t="s">
-        <v>371</v>
-      </c>
-      <c r="F183" t="s">
-        <v>164</v>
-      </c>
-      <c r="G183" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="184" spans="2:7" ht="14.25">
-      <c r="D184" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E184" t="s">
-        <v>372</v>
-      </c>
-      <c r="F184" t="s">
-        <v>164</v>
-      </c>
-      <c r="G184" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="185" spans="2:7">
-      <c r="E185" t="s">
-        <v>373</v>
-      </c>
-      <c r="F185" t="s">
-        <v>164</v>
-      </c>
-      <c r="G185" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="186" spans="2:7" ht="14.25">
-      <c r="D186" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E186" t="s">
-        <v>374</v>
-      </c>
-      <c r="F186" t="s">
-        <v>164</v>
-      </c>
-      <c r="G186" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="187" spans="2:7">
-      <c r="E187" t="s">
-        <v>375</v>
-      </c>
-      <c r="F187" t="s">
-        <v>376</v>
-      </c>
-      <c r="G187" t="s">
+        <v>98</v>
+      </c>
+      <c r="H178" t="s">
+        <v>98</v>
+      </c>
+      <c r="K178" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D143" r:id="rId1" xr:uid="{60769E34-3D4C-4FB6-A57D-3CD7164D4454}"/>
-    <hyperlink ref="D142" r:id="rId2" xr:uid="{6A4F960C-7E4B-40CD-8339-D36582FCCE7C}"/>
-    <hyperlink ref="E159" r:id="rId3" xr:uid="{EF5A39C5-8FE3-4C13-8A99-38054C38387B}"/>
+    <hyperlink ref="D134" r:id="rId1" xr:uid="{60769E34-3D4C-4FB6-A57D-3CD7164D4454}"/>
+    <hyperlink ref="D133" r:id="rId2" xr:uid="{6A4F960C-7E4B-40CD-8339-D36582FCCE7C}"/>
+    <hyperlink ref="E150" r:id="rId3" xr:uid="{EF5A39C5-8FE3-4C13-8A99-38054C38387B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12165,13 +14225,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9CC3FD-7885-4A67-BB33-5BB23EC7C9D8}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -12208,7 +14276,872 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="G3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="D5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G5" t="s">
+        <v>388</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45070</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="E6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F6" t="s">
+        <v>392</v>
+      </c>
+      <c r="G6" t="s">
+        <v>392</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I6" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>380</v>
+      </c>
+      <c r="E7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I7" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="E8" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="F8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G8" t="s">
+        <v>396</v>
+      </c>
+      <c r="H8" t="s">
+        <v>396</v>
+      </c>
+      <c r="I8" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="E9" s="24"/>
+      <c r="F9" t="s">
+        <v>399</v>
+      </c>
+      <c r="G9" t="s">
+        <v>396</v>
+      </c>
+      <c r="H9" t="s">
+        <v>396</v>
+      </c>
+      <c r="I9" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="E10" s="24"/>
+      <c r="F10" t="s">
+        <v>400</v>
+      </c>
+      <c r="G10" t="s">
+        <v>396</v>
+      </c>
+      <c r="H10" t="s">
+        <v>396</v>
+      </c>
+      <c r="I10" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="54">
+      <c r="E11" s="24"/>
+      <c r="F11" t="s">
+        <v>401</v>
+      </c>
+      <c r="G11" t="s">
+        <v>396</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="I11" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="E12" s="24"/>
+      <c r="F12" t="s">
+        <v>402</v>
+      </c>
+      <c r="G12" t="s">
+        <v>396</v>
+      </c>
+      <c r="H12" t="s">
+        <v>396</v>
+      </c>
+      <c r="I12" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="E13" s="24"/>
+      <c r="F13" t="s">
+        <v>403</v>
+      </c>
+      <c r="G13" t="s">
+        <v>396</v>
+      </c>
+      <c r="H13" t="s">
+        <v>396</v>
+      </c>
+      <c r="I13" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="E14" s="24"/>
+      <c r="F14" t="s">
+        <v>404</v>
+      </c>
+      <c r="G14" t="s">
+        <v>396</v>
+      </c>
+      <c r="H14" t="s">
+        <v>396</v>
+      </c>
+      <c r="I14" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="E15" s="24"/>
+      <c r="F15" t="s">
+        <v>405</v>
+      </c>
+      <c r="G15" t="s">
+        <v>396</v>
+      </c>
+      <c r="H15" t="s">
+        <v>396</v>
+      </c>
+      <c r="I15" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" t="s">
+        <v>406</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="E16" t="s">
+        <v>408</v>
+      </c>
+      <c r="F16" t="s">
+        <v>409</v>
+      </c>
+      <c r="G16" t="s">
+        <v>410</v>
+      </c>
+      <c r="H16" t="s">
+        <v>410</v>
+      </c>
+      <c r="I16" s="3">
+        <v>45070</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" ht="14.25">
+      <c r="E17" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" ht="14.25">
+      <c r="E18" s="15"/>
+      <c r="F18" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" ht="14.25">
+      <c r="F19" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" ht="14.25">
+      <c r="F20" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" ht="14.25">
+      <c r="F21" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" ht="14.25">
+      <c r="F22" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" ht="14.25">
+      <c r="F23" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" ht="14.25">
+      <c r="F24" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" ht="14.25">
+      <c r="F25" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" ht="14.25">
+      <c r="F26" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" ht="14.25">
+      <c r="F27" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" ht="14.25">
+      <c r="F28" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" ht="14.25">
+      <c r="F29" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" ht="14.25">
+      <c r="F30" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" ht="14.25">
+      <c r="F31" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11" ht="14.25">
+      <c r="F32" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="14.25">
+      <c r="F33" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="14.25">
+      <c r="F34" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="14.25">
+      <c r="F35" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="14.25">
+      <c r="F36" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="F37" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="14.25">
+      <c r="B38" t="s">
+        <v>344</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" t="s">
+        <v>373</v>
+      </c>
+      <c r="F38" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="E39" t="s">
+        <v>374</v>
+      </c>
+      <c r="F39" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="14.25">
+      <c r="D40" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" t="s">
+        <v>375</v>
+      </c>
+      <c r="F40" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="E41" t="s">
+        <v>376</v>
+      </c>
+      <c r="F41" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="14.25">
+      <c r="D42" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" t="s">
+        <v>377</v>
+      </c>
+      <c r="F42" t="s">
+        <v>164</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="E43" t="s">
+        <v>378</v>
+      </c>
+      <c r="F43" t="s">
+        <v>379</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="D44" t="s">
+        <v>347</v>
+      </c>
+      <c r="E44" t="s">
+        <v>412</v>
+      </c>
+      <c r="F44" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="E45" t="s">
+        <v>413</v>
+      </c>
+      <c r="F45" t="s">
+        <v>164</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K45" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E8:E15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{0A2BF983-BE3E-42A5-9DF8-5385B0F83BB5}"/>
+    <hyperlink ref="D16" r:id="rId2" xr:uid="{9630B051-EA63-44DE-A154-F61096EBA1F2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/account/test2.xlsx
+++ b/account/test2.xlsx
@@ -14227,8 +14227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9CC3FD-7885-4A67-BB33-5BB23EC7C9D8}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/account/test2.xlsx
+++ b/account/test2.xlsx
@@ -3,15 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26516"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="316" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88A7F631-0E79-4190-B4F6-680C8FF15577}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71A11AF5-068E-48E7-AD1F-79C0CB50294D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test1単体" sheetId="1" r:id="rId1"/>
-    <sheet name="test1結合" sheetId="2" r:id="rId2"/>
-    <sheet name="testVer2単体" sheetId="3" r:id="rId3"/>
-    <sheet name="testVer2結合" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2938" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="339">
   <si>
     <t>NO</t>
   </si>
@@ -1288,238 +1286,6 @@
   </si>
   <si>
     <t>0から入力されている</t>
-  </si>
-  <si>
-    <t>＠の後ろにひらがなを入れると通っていまい
-アルファベットに変換されている「ぽ」→xn--99jなど</t>
-  </si>
-  <si>
-    <t>半角英数と半角数字しか入力できない</t>
-  </si>
-  <si>
-    <t>されない（list.phpへ移行）</t>
-  </si>
-  <si>
-    <t>http://localhost//account/list.phpにアクセスする</t>
-  </si>
-  <si>
-    <t>アカウント一覧画面</t>
-  </si>
-  <si>
-    <t>アカウント一覧</t>
-  </si>
-  <si>
-    <t>アカウント一覧をクリック</t>
-  </si>
-  <si>
-    <t>メイン</t>
-  </si>
-  <si>
-    <t>UIの確認</t>
-  </si>
-  <si>
-    <t>ID/名前（姓）/名前（名）/カナ（姓）/カナ（名）/メールアドレス/性別/アカウント権限/
-削除フラグ/登録日時/更新日時/操作が表の一番上に横に並んでいる</t>
-  </si>
-  <si>
-    <t>IDには降順で登録したものがならんでいる</t>
-  </si>
-  <si>
-    <t>名前（姓）が指定文字で入力か、他項目混ざってないか</t>
-  </si>
-  <si>
-    <t>名前（名）が指定文字で入力か、他項目混ざってないか</t>
-  </si>
-  <si>
-    <t>カナ（姓）が指定文字で入力か、他項目混ざってないか</t>
-  </si>
-  <si>
-    <t>カナ（名）が指定文字で入力か、他項目混ざってないか</t>
-  </si>
-  <si>
-    <t>メールアドレスが指定文字で入力か、他項目混ざってないか</t>
-  </si>
-  <si>
-    <t>性別は「男」か「女」のみ表示されているか</t>
-  </si>
-  <si>
-    <t>アカウント権限は「一般」「管理者」のみで表示されているか</t>
-  </si>
-  <si>
-    <t>削除フラグは無効になっているか（有効は削除のボタンの遷移先をプログラムしていないのでない、あればエラー）</t>
-  </si>
-  <si>
-    <t>登録日時は年月日のみ表示になっているか</t>
-  </si>
-  <si>
-    <t>更新日時は年月日のみ表示になっているか</t>
-  </si>
-  <si>
-    <t>操作には「編集」と「削除」のボタンがあるかどうか</t>
-  </si>
-  <si>
-    <t>ボタン</t>
-  </si>
-  <si>
-    <t>「削除」</t>
-  </si>
-  <si>
-    <t>削除をクリックするとhttp://localhost//account/delete.phpに遷移するか</t>
-  </si>
-  <si>
-    <t>「編集」</t>
-  </si>
-  <si>
-    <t>更新をクリックするとhttp://localhost//account/update.phpに遷移するか</t>
-  </si>
-  <si>
-    <t>アカウント登録</t>
-  </si>
-  <si>
-    <t>登録→一覧</t>
-  </si>
-  <si>
-    <t>登録→一覧で入力を確認</t>
-  </si>
-  <si>
-    <t>アカウント登録から指定文字で正常に登録完了まで進め、その後アカウント一覧をクリック、一番上に登録内容が更新されているか</t>
-  </si>
-  <si>
-    <t>先ほど登録したIDがプラス1されているか</t>
-  </si>
-  <si>
-    <t>登録日時は本日の日付になっているか</t>
-  </si>
-  <si>
-    <t>更新日時は本日の日付になっているか</t>
-  </si>
-  <si>
-    <t>MySQLでデータが0の時「アカウント一覧」ページでは「男」と表記されているか</t>
-  </si>
-  <si>
-    <t>MySQLでデータが1の時「アカウント一覧」ページでは「女」と表記されているか</t>
-  </si>
-  <si>
-    <t>MySQLでデータが0の時「アカウント一覧」ページでは「一般」と表記されているか</t>
-  </si>
-  <si>
-    <t>MySQLでデータが1の時「アカウント一覧」ページでは「管理者」と表記されているか</t>
-  </si>
-  <si>
-    <t>MySQLでデータが0の時「アカウント一覧」ページでは「無効」と表記されているか</t>
-  </si>
-  <si>
-    <t>MySQLでデータが1の時「アカウント一覧」ページでは「有効」と表記されているか</t>
-  </si>
-  <si>
-    <t>有効は現段階でない（あればエラー）</t>
-  </si>
-  <si>
-    <t>入力ホーム</t>
-  </si>
-  <si>
-    <t>正常値の登録</t>
-  </si>
-  <si>
-    <t>指定文字で入力をおこなってMYSQLに登録される</t>
-  </si>
-  <si>
-    <t>問題なくできる</t>
-  </si>
-  <si>
-    <t>http://localhost/account/regist.php　から入って登録</t>
-  </si>
-  <si>
-    <t>先の順でアカウント登録を正常値で行う</t>
-  </si>
-  <si>
-    <t>登録完了画面</t>
-  </si>
-  <si>
-    <t>メッセージの確認</t>
-  </si>
-  <si>
-    <t>登録完了しましたとでる</t>
-  </si>
-  <si>
-    <t>でない（list.phpにとぶ）</t>
-  </si>
-  <si>
-    <t>登録完了ページではなくlist.phpに遷移するようになってしまっている</t>
-  </si>
-  <si>
-    <t>エラーの確認</t>
-  </si>
-  <si>
-    <t>登録完了できませんでしたとでる</t>
-  </si>
-  <si>
-    <t>でない（登録もできない）</t>
-  </si>
-  <si>
-    <t>正常値と異常値の混在</t>
-  </si>
-  <si>
-    <t>指定文字と異常値を混合させてエラーを確認（名前（姓））</t>
-  </si>
-  <si>
-    <t>異常値があればエラーで登録できない</t>
-  </si>
-  <si>
-    <t>常用漢字、ひらがな、
-全角半角カタカナ、
-全角半角英数字、
-記号、
-スペース
-全て混ぜる</t>
-  </si>
-  <si>
-    <t>指定文字と異常値を混合させてエラーを確認（名前（名））</t>
-  </si>
-  <si>
-    <t>指定文字と異常値を混合させてエラーを確認（カナ（姓））</t>
-  </si>
-  <si>
-    <t>指定文字と異常値を混合させてエラーを確認（カナ（名））</t>
-  </si>
-  <si>
-    <t>指定文字と異常値を混合させてエラーを確認（メールアドレス）</t>
-  </si>
-  <si>
-    <t>指定文字と異常値を混合させてエラーを確認（パスワード）</t>
-  </si>
-  <si>
-    <t>指定文字と異常値を混合させてエラーを確認（郵便番号※半角数字のみ）</t>
-  </si>
-  <si>
-    <t>指定文字と異常値を混合させてエラーを確認（住所（市区町村））</t>
-  </si>
-  <si>
-    <t>指定文字と異常値を混合させてエラーを確認（住所（番地））</t>
-  </si>
-  <si>
-    <t>MYSQL</t>
-  </si>
-  <si>
-    <t>diblog_account</t>
-  </si>
-  <si>
-    <t>登録データの確認</t>
-  </si>
-  <si>
-    <t>NO1~3で登録が無事に成功した場合、登録データが反映されているかを確認</t>
-  </si>
-  <si>
-    <t>３件追加されている</t>
-  </si>
-  <si>
-    <t>アカウント確認画面のフッターのCSSがはずれている</t>
-  </si>
-  <si>
-    <t>操作のボタンは「編集」「削除」がある</t>
-  </si>
-  <si>
-    <t>それぞれのページに遷移する</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1715,18 +1481,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -2044,14 +1798,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G158"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="13" width="21.375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -6156,9 +5907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFD9AE5-B6FD-4476-BAA8-BD4C9F4881E0}">
   <dimension ref="A1:K184"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106:C107"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -9865,5283 +9614,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471C042D-9C2F-46E9-8D44-B45D4C190838}">
-  <dimension ref="A1:K178"/>
-  <sheetViews>
-    <sheetView topLeftCell="F33" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="99.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="118.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="41.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="E25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="E29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="E30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="E31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="E32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="E33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="E34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="E35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="E36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="E37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="E38" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" t="s">
-        <v>41</v>
-      </c>
-      <c r="I38" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="E39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" t="s">
-        <v>44</v>
-      </c>
-      <c r="I39" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="D40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="E41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="E42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="E43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" t="s">
-        <v>28</v>
-      </c>
-      <c r="I43" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="E44" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="E45" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="E46" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="E47" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="E48" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" t="s">
-        <v>25</v>
-      </c>
-      <c r="I48" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="E49" t="s">
-        <v>36</v>
-      </c>
-      <c r="F49" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I49" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="E50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G50" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="E51" t="s">
-        <v>42</v>
-      </c>
-      <c r="F51" t="s">
-        <v>43</v>
-      </c>
-      <c r="G51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H51" t="s">
-        <v>44</v>
-      </c>
-      <c r="I51" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="D52" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" t="s">
-        <v>50</v>
-      </c>
-      <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>28</v>
-      </c>
-      <c r="I52" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="40.5">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="D53" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" t="s">
-        <v>52</v>
-      </c>
-      <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" t="s">
-        <v>28</v>
-      </c>
-      <c r="H53" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="I53" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="E54" t="s">
-        <v>53</v>
-      </c>
-      <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" t="s">
-        <v>25</v>
-      </c>
-      <c r="I54" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="E55" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" t="s">
-        <v>28</v>
-      </c>
-      <c r="I55" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="E56" t="s">
-        <v>55</v>
-      </c>
-      <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I56" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="E57" t="s">
-        <v>56</v>
-      </c>
-      <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s">
-        <v>28</v>
-      </c>
-      <c r="H57" t="s">
-        <v>28</v>
-      </c>
-      <c r="I57" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="E58" t="s">
-        <v>57</v>
-      </c>
-      <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
-        <v>28</v>
-      </c>
-      <c r="H58" t="s">
-        <v>28</v>
-      </c>
-      <c r="I58" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="E59" t="s">
-        <v>58</v>
-      </c>
-      <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>28</v>
-      </c>
-      <c r="H59" t="s">
-        <v>28</v>
-      </c>
-      <c r="I59" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="E60" t="s">
-        <v>59</v>
-      </c>
-      <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s">
-        <v>28</v>
-      </c>
-      <c r="H60" t="s">
-        <v>28</v>
-      </c>
-      <c r="I60" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="E61" t="s">
-        <v>36</v>
-      </c>
-      <c r="F61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G61" t="s">
-        <v>38</v>
-      </c>
-      <c r="H61" t="s">
-        <v>38</v>
-      </c>
-      <c r="I61" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K61" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="E62" t="s">
-        <v>39</v>
-      </c>
-      <c r="F62" t="s">
-        <v>40</v>
-      </c>
-      <c r="G62" t="s">
-        <v>41</v>
-      </c>
-      <c r="H62" t="s">
-        <v>41</v>
-      </c>
-      <c r="I62" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="E63" t="s">
-        <v>60</v>
-      </c>
-      <c r="F63" t="s">
-        <v>61</v>
-      </c>
-      <c r="G63" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" t="s">
-        <v>62</v>
-      </c>
-      <c r="I63" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K63" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="D64" t="s">
-        <v>63</v>
-      </c>
-      <c r="E64" t="s">
-        <v>340</v>
-      </c>
-      <c r="F64" t="s">
-        <v>340</v>
-      </c>
-      <c r="G64" t="s">
-        <v>340</v>
-      </c>
-      <c r="H64" t="s">
-        <v>340</v>
-      </c>
-      <c r="I64" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K64" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="E65" t="s">
-        <v>36</v>
-      </c>
-      <c r="F65" t="s">
-        <v>65</v>
-      </c>
-      <c r="G65" t="s">
-        <v>66</v>
-      </c>
-      <c r="H65" t="s">
-        <v>66</v>
-      </c>
-      <c r="I65" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="E66" t="s">
-        <v>39</v>
-      </c>
-      <c r="F66" t="s">
-        <v>40</v>
-      </c>
-      <c r="G66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H66" t="s">
-        <v>41</v>
-      </c>
-      <c r="I66" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K66" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="E67" t="s">
-        <v>42</v>
-      </c>
-      <c r="F67" t="s">
-        <v>43</v>
-      </c>
-      <c r="G67" t="s">
-        <v>44</v>
-      </c>
-      <c r="H67" t="s">
-        <v>44</v>
-      </c>
-      <c r="I67" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K67" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="D68" t="s">
-        <v>67</v>
-      </c>
-      <c r="E68" t="s">
-        <v>68</v>
-      </c>
-      <c r="F68" t="s">
-        <v>69</v>
-      </c>
-      <c r="G68" t="s">
-        <v>38</v>
-      </c>
-      <c r="H68" t="s">
-        <v>38</v>
-      </c>
-      <c r="I68" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K68" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="E69" t="s">
-        <v>68</v>
-      </c>
-      <c r="F69" t="s">
-        <v>70</v>
-      </c>
-      <c r="G69" t="s">
-        <v>38</v>
-      </c>
-      <c r="H69" t="s">
-        <v>38</v>
-      </c>
-      <c r="I69" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="E70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F70" t="s">
-        <v>68</v>
-      </c>
-      <c r="G70" t="s">
-        <v>71</v>
-      </c>
-      <c r="H70" t="s">
-        <v>71</v>
-      </c>
-      <c r="I70" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K70" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="E71" t="s">
-        <v>72</v>
-      </c>
-      <c r="F71" t="s">
-        <v>73</v>
-      </c>
-      <c r="G71" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K71" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="E72" t="s">
-        <v>74</v>
-      </c>
-      <c r="F72" t="s">
-        <v>75</v>
-      </c>
-      <c r="G72" t="s">
-        <v>76</v>
-      </c>
-      <c r="H72" t="s">
-        <v>76</v>
-      </c>
-      <c r="I72" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K72" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="D73" t="s">
-        <v>78</v>
-      </c>
-      <c r="E73" t="s">
-        <v>79</v>
-      </c>
-      <c r="F73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" t="s">
-        <v>28</v>
-      </c>
-      <c r="H73" t="s">
-        <v>28</v>
-      </c>
-      <c r="I73" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K73" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="E74" t="s">
-        <v>80</v>
-      </c>
-      <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" t="s">
-        <v>28</v>
-      </c>
-      <c r="H74" t="s">
-        <v>28</v>
-      </c>
-      <c r="I74" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K74" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="E75" t="s">
-        <v>81</v>
-      </c>
-      <c r="F75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" t="s">
-        <v>28</v>
-      </c>
-      <c r="H75" t="s">
-        <v>28</v>
-      </c>
-      <c r="I75" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K75" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="E76" t="s">
-        <v>82</v>
-      </c>
-      <c r="F76" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" t="s">
-        <v>28</v>
-      </c>
-      <c r="H76" t="s">
-        <v>28</v>
-      </c>
-      <c r="I76" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K76" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="E77" t="s">
-        <v>83</v>
-      </c>
-      <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s">
-        <v>25</v>
-      </c>
-      <c r="H77" t="s">
-        <v>25</v>
-      </c>
-      <c r="I77" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K77" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="E78" t="s">
-        <v>84</v>
-      </c>
-      <c r="F78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" t="s">
-        <v>28</v>
-      </c>
-      <c r="H78" t="s">
-        <v>28</v>
-      </c>
-      <c r="I78" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K78" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="E79" t="s">
-        <v>85</v>
-      </c>
-      <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>28</v>
-      </c>
-      <c r="H79" t="s">
-        <v>28</v>
-      </c>
-      <c r="I79" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K79" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="E80" t="s">
-        <v>86</v>
-      </c>
-      <c r="F80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" t="s">
-        <v>28</v>
-      </c>
-      <c r="H80" t="s">
-        <v>28</v>
-      </c>
-      <c r="I80" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K80" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="E81" t="s">
-        <v>87</v>
-      </c>
-      <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>28</v>
-      </c>
-      <c r="H81" t="s">
-        <v>28</v>
-      </c>
-      <c r="I81" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K81" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="E82" t="s">
-        <v>36</v>
-      </c>
-      <c r="F82" t="s">
-        <v>37</v>
-      </c>
-      <c r="G82" t="s">
-        <v>38</v>
-      </c>
-      <c r="H82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I82" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K82" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="E83" t="s">
-        <v>39</v>
-      </c>
-      <c r="F83" t="s">
-        <v>40</v>
-      </c>
-      <c r="G83" t="s">
-        <v>41</v>
-      </c>
-      <c r="H83" t="s">
-        <v>41</v>
-      </c>
-      <c r="I83" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K83" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="E84" t="s">
-        <v>88</v>
-      </c>
-      <c r="F84" t="s">
-        <v>89</v>
-      </c>
-      <c r="G84" t="s">
-        <v>90</v>
-      </c>
-      <c r="H84" t="s">
-        <v>90</v>
-      </c>
-      <c r="I84" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K84" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="D85" t="s">
-        <v>91</v>
-      </c>
-      <c r="E85" t="s">
-        <v>92</v>
-      </c>
-      <c r="F85" t="s">
-        <v>93</v>
-      </c>
-      <c r="G85" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" t="s">
-        <v>17</v>
-      </c>
-      <c r="I85" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K85" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="E86" t="s">
-        <v>94</v>
-      </c>
-      <c r="F86" t="s">
-        <v>95</v>
-      </c>
-      <c r="G86" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" t="s">
-        <v>17</v>
-      </c>
-      <c r="I86" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K86" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="E87" t="s">
-        <v>96</v>
-      </c>
-      <c r="F87" t="s">
-        <v>97</v>
-      </c>
-      <c r="G87" t="s">
-        <v>98</v>
-      </c>
-      <c r="H87" t="s">
-        <v>98</v>
-      </c>
-      <c r="I87" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K87" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="E88" t="s">
-        <v>99</v>
-      </c>
-      <c r="F88" t="s">
-        <v>100</v>
-      </c>
-      <c r="G88" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" t="s">
-        <v>17</v>
-      </c>
-      <c r="I88" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K88" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="E89" t="s">
-        <v>101</v>
-      </c>
-      <c r="F89" t="s">
-        <v>102</v>
-      </c>
-      <c r="G89" t="s">
-        <v>41</v>
-      </c>
-      <c r="H89" t="s">
-        <v>41</v>
-      </c>
-      <c r="I89" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K89" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="D90" t="s">
-        <v>103</v>
-      </c>
-      <c r="E90" t="s">
-        <v>23</v>
-      </c>
-      <c r="F90" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H90" t="s">
-        <v>25</v>
-      </c>
-      <c r="I90" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K90" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="D91" t="s">
-        <v>104</v>
-      </c>
-      <c r="E91" t="s">
-        <v>26</v>
-      </c>
-      <c r="F91" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
-      <c r="H91" t="s">
-        <v>25</v>
-      </c>
-      <c r="I91" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K91" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E92" t="s">
-        <v>27</v>
-      </c>
-      <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>28</v>
-      </c>
-      <c r="H92" t="s">
-        <v>28</v>
-      </c>
-      <c r="I92" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K92" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="E93" t="s">
-        <v>30</v>
-      </c>
-      <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" t="s">
-        <v>28</v>
-      </c>
-      <c r="H93" t="s">
-        <v>28</v>
-      </c>
-      <c r="I93" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K93" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="E94" t="s">
-        <v>31</v>
-      </c>
-      <c r="F94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" t="s">
-        <v>25</v>
-      </c>
-      <c r="H94" t="s">
-        <v>25</v>
-      </c>
-      <c r="I94" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K94" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="E95" t="s">
-        <v>32</v>
-      </c>
-      <c r="F95" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" t="s">
-        <v>28</v>
-      </c>
-      <c r="H95" t="s">
-        <v>28</v>
-      </c>
-      <c r="I95" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K95" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="E96" t="s">
-        <v>106</v>
-      </c>
-      <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
-      <c r="H96" t="s">
-        <v>25</v>
-      </c>
-      <c r="I96" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K96" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="E97" t="s">
-        <v>34</v>
-      </c>
-      <c r="F97" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" t="s">
-        <v>28</v>
-      </c>
-      <c r="H97" t="s">
-        <v>28</v>
-      </c>
-      <c r="I97" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K97" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="E98" t="s">
-        <v>107</v>
-      </c>
-      <c r="F98" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" t="s">
-        <v>25</v>
-      </c>
-      <c r="H98" t="s">
-        <v>25</v>
-      </c>
-      <c r="I98" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K98" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="E99" t="s">
-        <v>36</v>
-      </c>
-      <c r="F99" t="s">
-        <v>37</v>
-      </c>
-      <c r="G99" t="s">
-        <v>38</v>
-      </c>
-      <c r="H99" t="s">
-        <v>38</v>
-      </c>
-      <c r="I99" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K99" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="E100" t="s">
-        <v>39</v>
-      </c>
-      <c r="F100" t="s">
-        <v>40</v>
-      </c>
-      <c r="G100" t="s">
-        <v>41</v>
-      </c>
-      <c r="H100" t="s">
-        <v>41</v>
-      </c>
-      <c r="I100" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K100" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="E101" t="s">
-        <v>42</v>
-      </c>
-      <c r="F101" t="s">
-        <v>43</v>
-      </c>
-      <c r="G101" t="s">
-        <v>44</v>
-      </c>
-      <c r="H101" t="s">
-        <v>44</v>
-      </c>
-      <c r="I101" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K101" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="D102" t="s">
-        <v>108</v>
-      </c>
-      <c r="E102" t="s">
-        <v>50</v>
-      </c>
-      <c r="F102" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" t="s">
-        <v>25</v>
-      </c>
-      <c r="H102" t="s">
-        <v>25</v>
-      </c>
-      <c r="I102" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K102" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="D103" t="s">
-        <v>104</v>
-      </c>
-      <c r="E103" t="s">
-        <v>52</v>
-      </c>
-      <c r="F103" t="s">
-        <v>24</v>
-      </c>
-      <c r="G103" t="s">
-        <v>25</v>
-      </c>
-      <c r="H103" t="s">
-        <v>25</v>
-      </c>
-      <c r="I103" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K103" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E104" t="s">
-        <v>109</v>
-      </c>
-      <c r="F104" t="s">
-        <v>24</v>
-      </c>
-      <c r="G104" t="s">
-        <v>28</v>
-      </c>
-      <c r="H104" t="s">
-        <v>28</v>
-      </c>
-      <c r="I104" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K104" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="E105" t="s">
-        <v>54</v>
-      </c>
-      <c r="F105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" t="s">
-        <v>28</v>
-      </c>
-      <c r="H105" t="s">
-        <v>28</v>
-      </c>
-      <c r="I105" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K105" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="E106" t="s">
-        <v>55</v>
-      </c>
-      <c r="F106" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" t="s">
-        <v>25</v>
-      </c>
-      <c r="H106" t="s">
-        <v>25</v>
-      </c>
-      <c r="I106" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K106" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="E107" t="s">
-        <v>56</v>
-      </c>
-      <c r="F107" t="s">
-        <v>24</v>
-      </c>
-      <c r="G107" t="s">
-        <v>28</v>
-      </c>
-      <c r="H107" t="s">
-        <v>28</v>
-      </c>
-      <c r="I107" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K107" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="E108" t="s">
-        <v>110</v>
-      </c>
-      <c r="F108" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" t="s">
-        <v>25</v>
-      </c>
-      <c r="H108" t="s">
-        <v>25</v>
-      </c>
-      <c r="I108" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K108" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="E109" t="s">
-        <v>58</v>
-      </c>
-      <c r="F109" t="s">
-        <v>24</v>
-      </c>
-      <c r="G109" t="s">
-        <v>28</v>
-      </c>
-      <c r="H109" t="s">
-        <v>28</v>
-      </c>
-      <c r="I109" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K109" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="E110" t="s">
-        <v>111</v>
-      </c>
-      <c r="F110" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" t="s">
-        <v>25</v>
-      </c>
-      <c r="H110" t="s">
-        <v>25</v>
-      </c>
-      <c r="I110" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K110" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="E111" t="s">
-        <v>36</v>
-      </c>
-      <c r="F111" t="s">
-        <v>37</v>
-      </c>
-      <c r="G111" t="s">
-        <v>38</v>
-      </c>
-      <c r="H111" t="s">
-        <v>38</v>
-      </c>
-      <c r="I111" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K111" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="E112" t="s">
-        <v>39</v>
-      </c>
-      <c r="F112" t="s">
-        <v>40</v>
-      </c>
-      <c r="G112" t="s">
-        <v>41</v>
-      </c>
-      <c r="H112" t="s">
-        <v>41</v>
-      </c>
-      <c r="I112" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K112" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="E113" t="s">
-        <v>60</v>
-      </c>
-      <c r="F113" t="s">
-        <v>112</v>
-      </c>
-      <c r="G113" t="s">
-        <v>62</v>
-      </c>
-      <c r="H113" t="s">
-        <v>62</v>
-      </c>
-      <c r="I113" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K113" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="D114" t="s">
-        <v>113</v>
-      </c>
-      <c r="E114" t="s">
-        <v>99</v>
-      </c>
-      <c r="F114" t="s">
-        <v>100</v>
-      </c>
-      <c r="G114" t="s">
-        <v>17</v>
-      </c>
-      <c r="H114" t="s">
-        <v>17</v>
-      </c>
-      <c r="I114" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K114" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="E115" t="s">
-        <v>114</v>
-      </c>
-      <c r="F115" t="s">
-        <v>115</v>
-      </c>
-      <c r="G115" t="s">
-        <v>17</v>
-      </c>
-      <c r="H115" t="s">
-        <v>17</v>
-      </c>
-      <c r="I115" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K115" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="E116" t="s">
-        <v>114</v>
-      </c>
-      <c r="F116" t="s">
-        <v>116</v>
-      </c>
-      <c r="G116" t="s">
-        <v>17</v>
-      </c>
-      <c r="H116" t="s">
-        <v>17</v>
-      </c>
-      <c r="I116" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K116" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="E117" t="s">
-        <v>101</v>
-      </c>
-      <c r="F117" t="s">
-        <v>102</v>
-      </c>
-      <c r="G117" t="s">
-        <v>117</v>
-      </c>
-      <c r="H117" t="s">
-        <v>117</v>
-      </c>
-      <c r="I117" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K117" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="C118" t="s">
-        <v>118</v>
-      </c>
-      <c r="D118" t="s">
-        <v>119</v>
-      </c>
-      <c r="E118" t="s">
-        <v>120</v>
-      </c>
-      <c r="F118" t="s">
-        <v>121</v>
-      </c>
-      <c r="G118" t="s">
-        <v>122</v>
-      </c>
-      <c r="H118" t="s">
-        <v>122</v>
-      </c>
-      <c r="I118" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K118" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="D119" t="s">
-        <v>119</v>
-      </c>
-      <c r="E119" t="s">
-        <v>123</v>
-      </c>
-      <c r="F119" t="s">
-        <v>124</v>
-      </c>
-      <c r="G119" t="s">
-        <v>125</v>
-      </c>
-      <c r="H119" t="s">
-        <v>125</v>
-      </c>
-      <c r="I119" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K119" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="14.25">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>126</v>
-      </c>
-      <c r="C120" t="s">
-        <v>127</v>
-      </c>
-      <c r="D120" t="s">
-        <v>128</v>
-      </c>
-      <c r="E120" t="s">
-        <v>129</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G120" t="s">
-        <v>17</v>
-      </c>
-      <c r="H120" t="s">
-        <v>17</v>
-      </c>
-      <c r="I120" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K120" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="E121" t="s">
-        <v>132</v>
-      </c>
-      <c r="F121" t="s">
-        <v>133</v>
-      </c>
-      <c r="G121" t="s">
-        <v>17</v>
-      </c>
-      <c r="H121" t="s">
-        <v>17</v>
-      </c>
-      <c r="I121" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K121" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="C122" t="s">
-        <v>118</v>
-      </c>
-      <c r="D122" t="s">
-        <v>134</v>
-      </c>
-      <c r="E122" t="s">
-        <v>135</v>
-      </c>
-      <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s">
-        <v>11</v>
-      </c>
-      <c r="H122" t="s">
-        <v>11</v>
-      </c>
-      <c r="I122" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K122" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="E123" t="s">
-        <v>136</v>
-      </c>
-      <c r="F123" t="s">
-        <v>137</v>
-      </c>
-      <c r="G123" t="s">
-        <v>17</v>
-      </c>
-      <c r="H123" t="s">
-        <v>17</v>
-      </c>
-      <c r="I123" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K123" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="D124" t="s">
-        <v>138</v>
-      </c>
-      <c r="E124" t="s">
-        <v>135</v>
-      </c>
-      <c r="F124" t="s">
-        <v>139</v>
-      </c>
-      <c r="G124" t="s">
-        <v>139</v>
-      </c>
-      <c r="H124" t="s">
-        <v>139</v>
-      </c>
-      <c r="I124" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K124" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>139</v>
-      </c>
-      <c r="C125" t="s">
-        <v>139</v>
-      </c>
-      <c r="D125" t="s">
-        <v>140</v>
-      </c>
-      <c r="E125" t="s">
-        <v>141</v>
-      </c>
-      <c r="F125" t="s">
-        <v>142</v>
-      </c>
-      <c r="G125" t="s">
-        <v>17</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="I125" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K125" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="C126" t="s">
-        <v>118</v>
-      </c>
-      <c r="D126" t="s">
-        <v>147</v>
-      </c>
-      <c r="E126" t="s">
-        <v>135</v>
-      </c>
-      <c r="F126" t="s">
-        <v>148</v>
-      </c>
-      <c r="G126" t="s">
-        <v>148</v>
-      </c>
-      <c r="H126" t="s">
-        <v>148</v>
-      </c>
-      <c r="I126" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K126" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>150</v>
-      </c>
-      <c r="C127" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" t="s">
-        <v>151</v>
-      </c>
-      <c r="E127" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" t="s">
-        <v>15</v>
-      </c>
-      <c r="G127" t="s">
-        <v>16</v>
-      </c>
-      <c r="H127" t="s">
-        <v>16</v>
-      </c>
-      <c r="I127" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K127" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="D128" t="s">
-        <v>151</v>
-      </c>
-      <c r="E128" t="s">
-        <v>19</v>
-      </c>
-      <c r="F128" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" t="s">
-        <v>20</v>
-      </c>
-      <c r="H128" t="s">
-        <v>20</v>
-      </c>
-      <c r="I128" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K128" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>126</v>
-      </c>
-      <c r="C129" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" t="s">
-        <v>151</v>
-      </c>
-      <c r="E129" t="s">
-        <v>14</v>
-      </c>
-      <c r="F129" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" t="s">
-        <v>16</v>
-      </c>
-      <c r="H129" t="s">
-        <v>16</v>
-      </c>
-      <c r="I129" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K129" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="D130" t="s">
-        <v>151</v>
-      </c>
-      <c r="E130" t="s">
-        <v>19</v>
-      </c>
-      <c r="F130" t="s">
-        <v>15</v>
-      </c>
-      <c r="G130" t="s">
-        <v>20</v>
-      </c>
-      <c r="H130" t="s">
-        <v>20</v>
-      </c>
-      <c r="I130" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K130" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>139</v>
-      </c>
-      <c r="C131" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" t="s">
-        <v>151</v>
-      </c>
-      <c r="E131" t="s">
-        <v>14</v>
-      </c>
-      <c r="F131" t="s">
-        <v>15</v>
-      </c>
-      <c r="G131" t="s">
-        <v>16</v>
-      </c>
-      <c r="H131" t="s">
-        <v>16</v>
-      </c>
-      <c r="I131" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K131" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="D132" t="s">
-        <v>151</v>
-      </c>
-      <c r="E132" t="s">
-        <v>19</v>
-      </c>
-      <c r="F132" t="s">
-        <v>15</v>
-      </c>
-      <c r="G132" t="s">
-        <v>20</v>
-      </c>
-      <c r="H132" t="s">
-        <v>20</v>
-      </c>
-      <c r="I132" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K132" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>153</v>
-      </c>
-      <c r="C133" t="s">
-        <v>154</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E133" t="s">
-        <v>156</v>
-      </c>
-      <c r="F133" t="s">
-        <v>157</v>
-      </c>
-      <c r="G133" t="s">
-        <v>17</v>
-      </c>
-      <c r="H133" t="s">
-        <v>17</v>
-      </c>
-      <c r="I133" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K133" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E134" t="s">
-        <v>156</v>
-      </c>
-      <c r="F134" t="s">
-        <v>159</v>
-      </c>
-      <c r="G134" t="s">
-        <v>17</v>
-      </c>
-      <c r="H134" t="s">
-        <v>17</v>
-      </c>
-      <c r="I134" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K134" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>160</v>
-      </c>
-      <c r="C135" t="s">
-        <v>161</v>
-      </c>
-      <c r="D135" t="s">
-        <v>162</v>
-      </c>
-      <c r="E135" t="s">
-        <v>163</v>
-      </c>
-      <c r="F135" t="s">
-        <v>164</v>
-      </c>
-      <c r="G135" t="s">
-        <v>17</v>
-      </c>
-      <c r="H135" t="s">
-        <v>17</v>
-      </c>
-      <c r="I135" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K135" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="C136" t="s">
-        <v>165</v>
-      </c>
-      <c r="D136" t="s">
-        <v>166</v>
-      </c>
-      <c r="E136" t="s">
-        <v>167</v>
-      </c>
-      <c r="F136" t="s">
-        <v>164</v>
-      </c>
-      <c r="G136" t="s">
-        <v>17</v>
-      </c>
-      <c r="H136" t="s">
-        <v>17</v>
-      </c>
-      <c r="I136" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K136" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137">
-        <v>136</v>
-      </c>
-      <c r="C137" t="s">
-        <v>168</v>
-      </c>
-      <c r="D137" t="s">
-        <v>169</v>
-      </c>
-      <c r="E137" t="s">
-        <v>170</v>
-      </c>
-      <c r="F137" t="s">
-        <v>164</v>
-      </c>
-      <c r="G137" t="s">
-        <v>17</v>
-      </c>
-      <c r="H137" t="s">
-        <v>17</v>
-      </c>
-      <c r="I137" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K137" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="C138" t="s">
-        <v>171</v>
-      </c>
-      <c r="D138" t="s">
-        <v>172</v>
-      </c>
-      <c r="E138" t="s">
-        <v>173</v>
-      </c>
-      <c r="F138" t="s">
-        <v>164</v>
-      </c>
-      <c r="G138" t="s">
-        <v>17</v>
-      </c>
-      <c r="H138" t="s">
-        <v>17</v>
-      </c>
-      <c r="I138" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K138" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="C139" t="s">
-        <v>174</v>
-      </c>
-      <c r="D139" t="s">
-        <v>175</v>
-      </c>
-      <c r="E139" t="s">
-        <v>176</v>
-      </c>
-      <c r="F139" t="s">
-        <v>164</v>
-      </c>
-      <c r="G139" t="s">
-        <v>17</v>
-      </c>
-      <c r="H139" t="s">
-        <v>17</v>
-      </c>
-      <c r="I139" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K139" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="C140" t="s">
-        <v>177</v>
-      </c>
-      <c r="D140" t="s">
-        <v>178</v>
-      </c>
-      <c r="E140" t="s">
-        <v>179</v>
-      </c>
-      <c r="F140" t="s">
-        <v>164</v>
-      </c>
-      <c r="G140" t="s">
-        <v>17</v>
-      </c>
-      <c r="H140" t="s">
-        <v>17</v>
-      </c>
-      <c r="I140" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K140" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="14.25">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="C141" t="s">
-        <v>180</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F141" t="s">
-        <v>164</v>
-      </c>
-      <c r="G141" t="s">
-        <v>17</v>
-      </c>
-      <c r="H141" t="s">
-        <v>17</v>
-      </c>
-      <c r="I141" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K141" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="14.25">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F142" t="s">
-        <v>164</v>
-      </c>
-      <c r="G142" t="s">
-        <v>17</v>
-      </c>
-      <c r="H142" t="s">
-        <v>17</v>
-      </c>
-      <c r="I142" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K142" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="14.25">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="C143" t="s">
-        <v>185</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F143" t="s">
-        <v>164</v>
-      </c>
-      <c r="G143" t="s">
-        <v>17</v>
-      </c>
-      <c r="H143" t="s">
-        <v>17</v>
-      </c>
-      <c r="I143" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K143" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="14.25">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="C144" t="s">
-        <v>187</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F144" t="s">
-        <v>164</v>
-      </c>
-      <c r="G144" t="s">
-        <v>17</v>
-      </c>
-      <c r="H144" t="s">
-        <v>17</v>
-      </c>
-      <c r="I144" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K144" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" ht="14.25">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="C145" t="s">
-        <v>189</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F145" t="s">
-        <v>164</v>
-      </c>
-      <c r="G145" t="s">
-        <v>17</v>
-      </c>
-      <c r="H145" t="s">
-        <v>17</v>
-      </c>
-      <c r="I145" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K145" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" ht="14.25">
-      <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="C146" t="s">
-        <v>191</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F146" t="s">
-        <v>164</v>
-      </c>
-      <c r="G146" t="s">
-        <v>17</v>
-      </c>
-      <c r="H146" t="s">
-        <v>17</v>
-      </c>
-      <c r="I146" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K146" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="14.25">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="C147" t="s">
-        <v>193</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F147" t="s">
-        <v>164</v>
-      </c>
-      <c r="G147" t="s">
-        <v>17</v>
-      </c>
-      <c r="H147" t="s">
-        <v>17</v>
-      </c>
-      <c r="I147" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K147" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="14.25">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="C148" t="s">
-        <v>195</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F148" t="s">
-        <v>164</v>
-      </c>
-      <c r="G148" t="s">
-        <v>17</v>
-      </c>
-      <c r="H148" t="s">
-        <v>17</v>
-      </c>
-      <c r="I148" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K148" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="14.25">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="C149" t="s">
-        <v>197</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F149" t="s">
-        <v>164</v>
-      </c>
-      <c r="G149" t="s">
-        <v>17</v>
-      </c>
-      <c r="H149" t="s">
-        <v>17</v>
-      </c>
-      <c r="I149" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K149" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="14.25">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>153</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="F150" t="s">
-        <v>15</v>
-      </c>
-      <c r="G150" t="s">
-        <v>343</v>
-      </c>
-      <c r="H150" t="s">
-        <v>343</v>
-      </c>
-      <c r="I150" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K150" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151">
-        <v>150</v>
-      </c>
-      <c r="B151" t="s">
-        <v>344</v>
-      </c>
-      <c r="C151" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" t="s">
-        <v>13</v>
-      </c>
-      <c r="E151" t="s">
-        <v>14</v>
-      </c>
-      <c r="F151" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" t="s">
-        <v>16</v>
-      </c>
-      <c r="H151" t="s">
-        <v>16</v>
-      </c>
-      <c r="I151" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K151" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152">
-        <v>151</v>
-      </c>
-      <c r="D152" t="s">
-        <v>18</v>
-      </c>
-      <c r="E152" t="s">
-        <v>19</v>
-      </c>
-      <c r="F152" t="s">
-        <v>15</v>
-      </c>
-      <c r="G152" t="s">
-        <v>20</v>
-      </c>
-      <c r="H152" t="s">
-        <v>20</v>
-      </c>
-      <c r="I152" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K152" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
-      <c r="A153">
-        <v>152</v>
-      </c>
-      <c r="D153" t="s">
-        <v>344</v>
-      </c>
-      <c r="E153" t="s">
-        <v>345</v>
-      </c>
-      <c r="F153" t="s">
-        <v>15</v>
-      </c>
-      <c r="G153" t="s">
-        <v>343</v>
-      </c>
-      <c r="H153" t="s">
-        <v>343</v>
-      </c>
-      <c r="K153" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" ht="39.75" customHeight="1">
-      <c r="A154">
-        <v>153</v>
-      </c>
-      <c r="C154" t="s">
-        <v>346</v>
-      </c>
-      <c r="D154" t="s">
-        <v>347</v>
-      </c>
-      <c r="E154" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="F154" t="s">
-        <v>164</v>
-      </c>
-      <c r="K154" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155">
-        <v>154</v>
-      </c>
-      <c r="E155" t="s">
-        <v>349</v>
-      </c>
-      <c r="F155" t="s">
-        <v>164</v>
-      </c>
-      <c r="G155" t="s">
-        <v>17</v>
-      </c>
-      <c r="H155" t="s">
-        <v>17</v>
-      </c>
-      <c r="K155" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156">
-        <v>155</v>
-      </c>
-      <c r="E156" t="s">
-        <v>350</v>
-      </c>
-      <c r="F156" t="s">
-        <v>164</v>
-      </c>
-      <c r="G156" t="s">
-        <v>17</v>
-      </c>
-      <c r="H156" t="s">
-        <v>17</v>
-      </c>
-      <c r="K156" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157">
-        <v>156</v>
-      </c>
-      <c r="E157" t="s">
-        <v>351</v>
-      </c>
-      <c r="F157" t="s">
-        <v>164</v>
-      </c>
-      <c r="G157" t="s">
-        <v>17</v>
-      </c>
-      <c r="H157" t="s">
-        <v>17</v>
-      </c>
-      <c r="K157" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158">
-        <v>157</v>
-      </c>
-      <c r="E158" t="s">
-        <v>352</v>
-      </c>
-      <c r="F158" t="s">
-        <v>164</v>
-      </c>
-      <c r="G158" t="s">
-        <v>17</v>
-      </c>
-      <c r="H158" t="s">
-        <v>17</v>
-      </c>
-      <c r="K158" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159">
-        <v>158</v>
-      </c>
-      <c r="E159" t="s">
-        <v>353</v>
-      </c>
-      <c r="F159" t="s">
-        <v>164</v>
-      </c>
-      <c r="G159" t="s">
-        <v>17</v>
-      </c>
-      <c r="H159" t="s">
-        <v>17</v>
-      </c>
-      <c r="K159" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160">
-        <v>159</v>
-      </c>
-      <c r="E160" t="s">
-        <v>354</v>
-      </c>
-      <c r="F160" t="s">
-        <v>164</v>
-      </c>
-      <c r="G160" t="s">
-        <v>17</v>
-      </c>
-      <c r="H160" t="s">
-        <v>17</v>
-      </c>
-      <c r="K160" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161">
-        <v>160</v>
-      </c>
-      <c r="E161" t="s">
-        <v>355</v>
-      </c>
-      <c r="F161" t="s">
-        <v>164</v>
-      </c>
-      <c r="G161" t="s">
-        <v>17</v>
-      </c>
-      <c r="H161" t="s">
-        <v>17</v>
-      </c>
-      <c r="K161" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162">
-        <v>161</v>
-      </c>
-      <c r="E162" t="s">
-        <v>356</v>
-      </c>
-      <c r="F162" t="s">
-        <v>164</v>
-      </c>
-      <c r="G162" t="s">
-        <v>17</v>
-      </c>
-      <c r="H162" t="s">
-        <v>17</v>
-      </c>
-      <c r="K162" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163">
-        <v>162</v>
-      </c>
-      <c r="E163" t="s">
-        <v>357</v>
-      </c>
-      <c r="F163" t="s">
-        <v>164</v>
-      </c>
-      <c r="G163" t="s">
-        <v>17</v>
-      </c>
-      <c r="H163" t="s">
-        <v>17</v>
-      </c>
-      <c r="K163" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
-      <c r="A164">
-        <v>163</v>
-      </c>
-      <c r="E164" t="s">
-        <v>358</v>
-      </c>
-      <c r="F164" t="s">
-        <v>164</v>
-      </c>
-      <c r="G164" t="s">
-        <v>17</v>
-      </c>
-      <c r="H164" t="s">
-        <v>17</v>
-      </c>
-      <c r="K164" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="A165">
-        <v>164</v>
-      </c>
-      <c r="E165" t="s">
-        <v>359</v>
-      </c>
-      <c r="F165" t="s">
-        <v>164</v>
-      </c>
-      <c r="G165" t="s">
-        <v>17</v>
-      </c>
-      <c r="H165" t="s">
-        <v>17</v>
-      </c>
-      <c r="K165" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="A166">
-        <v>165</v>
-      </c>
-      <c r="E166" t="s">
-        <v>360</v>
-      </c>
-      <c r="F166" t="s">
-        <v>164</v>
-      </c>
-      <c r="G166" t="s">
-        <v>17</v>
-      </c>
-      <c r="H166" t="s">
-        <v>17</v>
-      </c>
-      <c r="K166" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="A167">
-        <v>166</v>
-      </c>
-      <c r="C167" t="s">
-        <v>361</v>
-      </c>
-      <c r="D167" t="s">
-        <v>362</v>
-      </c>
-      <c r="E167" t="s">
-        <v>363</v>
-      </c>
-      <c r="F167" t="s">
-        <v>164</v>
-      </c>
-      <c r="G167" t="s">
-        <v>17</v>
-      </c>
-      <c r="H167" t="s">
-        <v>17</v>
-      </c>
-      <c r="K167" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="A168">
-        <v>167</v>
-      </c>
-      <c r="D168" t="s">
-        <v>364</v>
-      </c>
-      <c r="E168" t="s">
-        <v>365</v>
-      </c>
-      <c r="F168" t="s">
-        <v>164</v>
-      </c>
-      <c r="G168" t="s">
-        <v>17</v>
-      </c>
-      <c r="H168" t="s">
-        <v>17</v>
-      </c>
-      <c r="K168" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169">
-        <v>168</v>
-      </c>
-      <c r="B169" t="s">
-        <v>366</v>
-      </c>
-      <c r="C169" t="s">
-        <v>367</v>
-      </c>
-      <c r="D169" t="s">
-        <v>368</v>
-      </c>
-      <c r="E169" t="s">
-        <v>369</v>
-      </c>
-      <c r="F169" t="s">
-        <v>164</v>
-      </c>
-      <c r="G169" t="s">
-        <v>17</v>
-      </c>
-      <c r="H169" t="s">
-        <v>17</v>
-      </c>
-      <c r="K169" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170">
-        <v>169</v>
-      </c>
-      <c r="E170" t="s">
-        <v>370</v>
-      </c>
-      <c r="F170" t="s">
-        <v>164</v>
-      </c>
-      <c r="G170" t="s">
-        <v>17</v>
-      </c>
-      <c r="H170" t="s">
-        <v>17</v>
-      </c>
-      <c r="K170" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171">
-        <v>170</v>
-      </c>
-      <c r="E171" t="s">
-        <v>371</v>
-      </c>
-      <c r="F171" t="s">
-        <v>164</v>
-      </c>
-      <c r="G171" t="s">
-        <v>17</v>
-      </c>
-      <c r="H171" t="s">
-        <v>17</v>
-      </c>
-      <c r="K171" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="A172">
-        <v>171</v>
-      </c>
-      <c r="E172" t="s">
-        <v>372</v>
-      </c>
-      <c r="F172" t="s">
-        <v>164</v>
-      </c>
-      <c r="G172" t="s">
-        <v>17</v>
-      </c>
-      <c r="H172" t="s">
-        <v>17</v>
-      </c>
-      <c r="K172" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" ht="14.25">
-      <c r="A173">
-        <v>172</v>
-      </c>
-      <c r="B173" t="s">
-        <v>160</v>
-      </c>
-      <c r="D173" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E173" t="s">
-        <v>373</v>
-      </c>
-      <c r="F173" t="s">
-        <v>164</v>
-      </c>
-      <c r="G173" t="s">
-        <v>17</v>
-      </c>
-      <c r="H173" t="s">
-        <v>17</v>
-      </c>
-      <c r="K173" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="A174">
-        <v>173</v>
-      </c>
-      <c r="E174" t="s">
-        <v>374</v>
-      </c>
-      <c r="F174" t="s">
-        <v>164</v>
-      </c>
-      <c r="G174" t="s">
-        <v>17</v>
-      </c>
-      <c r="H174" t="s">
-        <v>17</v>
-      </c>
-      <c r="K174" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" ht="14.25">
-      <c r="A175">
-        <v>174</v>
-      </c>
-      <c r="D175" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E175" t="s">
-        <v>375</v>
-      </c>
-      <c r="F175" t="s">
-        <v>164</v>
-      </c>
-      <c r="G175" t="s">
-        <v>17</v>
-      </c>
-      <c r="H175" t="s">
-        <v>17</v>
-      </c>
-      <c r="K175" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
-      <c r="A176">
-        <v>175</v>
-      </c>
-      <c r="E176" t="s">
-        <v>376</v>
-      </c>
-      <c r="F176" t="s">
-        <v>164</v>
-      </c>
-      <c r="G176" t="s">
-        <v>17</v>
-      </c>
-      <c r="H176" t="s">
-        <v>17</v>
-      </c>
-      <c r="K176" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" ht="14.25">
-      <c r="A177">
-        <v>176</v>
-      </c>
-      <c r="D177" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E177" t="s">
-        <v>377</v>
-      </c>
-      <c r="F177" t="s">
-        <v>164</v>
-      </c>
-      <c r="G177" t="s">
-        <v>17</v>
-      </c>
-      <c r="H177" t="s">
-        <v>17</v>
-      </c>
-      <c r="K177" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
-      <c r="A178">
-        <v>177</v>
-      </c>
-      <c r="E178" t="s">
-        <v>378</v>
-      </c>
-      <c r="F178" t="s">
-        <v>379</v>
-      </c>
-      <c r="G178" t="s">
-        <v>98</v>
-      </c>
-      <c r="H178" t="s">
-        <v>98</v>
-      </c>
-      <c r="K178" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D134" r:id="rId1" xr:uid="{60769E34-3D4C-4FB6-A57D-3CD7164D4454}"/>
-    <hyperlink ref="D133" r:id="rId2" xr:uid="{6A4F960C-7E4B-40CD-8339-D36582FCCE7C}"/>
-    <hyperlink ref="E150" r:id="rId3" xr:uid="{EF5A39C5-8FE3-4C13-8A99-38054C38387B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9CC3FD-7885-4A67-BB33-5BB23EC7C9D8}">
-  <dimension ref="A1:K45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36:H45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="B2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G2" t="s">
-        <v>383</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="B3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="G3" t="s">
-        <v>383</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E4" t="s">
-        <v>381</v>
-      </c>
-      <c r="F4" t="s">
-        <v>385</v>
-      </c>
-      <c r="G4" t="s">
-        <v>383</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="D5" t="s">
-        <v>386</v>
-      </c>
-      <c r="E5" t="s">
-        <v>387</v>
-      </c>
-      <c r="F5" t="s">
-        <v>388</v>
-      </c>
-      <c r="G5" t="s">
-        <v>388</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="I5" s="3">
-        <v>45070</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="E6" t="s">
-        <v>391</v>
-      </c>
-      <c r="F6" t="s">
-        <v>392</v>
-      </c>
-      <c r="G6" t="s">
-        <v>392</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="I6" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" t="s">
-        <v>380</v>
-      </c>
-      <c r="E7" t="s">
-        <v>394</v>
-      </c>
-      <c r="F7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G7" t="s">
-        <v>396</v>
-      </c>
-      <c r="H7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I7" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="E8" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="F8" t="s">
-        <v>398</v>
-      </c>
-      <c r="G8" t="s">
-        <v>396</v>
-      </c>
-      <c r="H8" t="s">
-        <v>396</v>
-      </c>
-      <c r="I8" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="E9" s="24"/>
-      <c r="F9" t="s">
-        <v>399</v>
-      </c>
-      <c r="G9" t="s">
-        <v>396</v>
-      </c>
-      <c r="H9" t="s">
-        <v>396</v>
-      </c>
-      <c r="I9" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="E10" s="24"/>
-      <c r="F10" t="s">
-        <v>400</v>
-      </c>
-      <c r="G10" t="s">
-        <v>396</v>
-      </c>
-      <c r="H10" t="s">
-        <v>396</v>
-      </c>
-      <c r="I10" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="54">
-      <c r="E11" s="24"/>
-      <c r="F11" t="s">
-        <v>401</v>
-      </c>
-      <c r="G11" t="s">
-        <v>396</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="I11" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="E12" s="24"/>
-      <c r="F12" t="s">
-        <v>402</v>
-      </c>
-      <c r="G12" t="s">
-        <v>396</v>
-      </c>
-      <c r="H12" t="s">
-        <v>396</v>
-      </c>
-      <c r="I12" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="E13" s="24"/>
-      <c r="F13" t="s">
-        <v>403</v>
-      </c>
-      <c r="G13" t="s">
-        <v>396</v>
-      </c>
-      <c r="H13" t="s">
-        <v>396</v>
-      </c>
-      <c r="I13" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="E14" s="24"/>
-      <c r="F14" t="s">
-        <v>404</v>
-      </c>
-      <c r="G14" t="s">
-        <v>396</v>
-      </c>
-      <c r="H14" t="s">
-        <v>396</v>
-      </c>
-      <c r="I14" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="E15" s="24"/>
-      <c r="F15" t="s">
-        <v>405</v>
-      </c>
-      <c r="G15" t="s">
-        <v>396</v>
-      </c>
-      <c r="H15" t="s">
-        <v>396</v>
-      </c>
-      <c r="I15" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16" t="s">
-        <v>406</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="E16" t="s">
-        <v>408</v>
-      </c>
-      <c r="F16" t="s">
-        <v>409</v>
-      </c>
-      <c r="G16" t="s">
-        <v>410</v>
-      </c>
-      <c r="H16" t="s">
-        <v>410</v>
-      </c>
-      <c r="I16" s="3">
-        <v>45070</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="K16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11" ht="14.25">
-      <c r="E17" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" ht="14.25">
-      <c r="E18" s="15"/>
-      <c r="F18" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" ht="14.25">
-      <c r="F19" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11" ht="14.25">
-      <c r="F20" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11" ht="14.25">
-      <c r="F21" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="5:11" ht="14.25">
-      <c r="F22" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="5:11" ht="14.25">
-      <c r="F23" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="5:11" ht="14.25">
-      <c r="F24" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="5:11" ht="14.25">
-      <c r="F25" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="5:11" ht="14.25">
-      <c r="F26" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="5:11" ht="14.25">
-      <c r="F27" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="5:11" ht="14.25">
-      <c r="F28" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="5:11" ht="14.25">
-      <c r="F29" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="5:11" ht="14.25">
-      <c r="F30" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="5:11" ht="14.25">
-      <c r="F31" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="5:11" ht="14.25">
-      <c r="F32" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="14.25">
-      <c r="F33" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="14.25">
-      <c r="F34" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="14.25">
-      <c r="F35" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="14.25">
-      <c r="F36" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="F37" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="14.25">
-      <c r="B38" t="s">
-        <v>344</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" t="s">
-        <v>373</v>
-      </c>
-      <c r="F38" t="s">
-        <v>164</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="E39" t="s">
-        <v>374</v>
-      </c>
-      <c r="F39" t="s">
-        <v>164</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="14.25">
-      <c r="D40" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E40" t="s">
-        <v>375</v>
-      </c>
-      <c r="F40" t="s">
-        <v>164</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="E41" t="s">
-        <v>376</v>
-      </c>
-      <c r="F41" t="s">
-        <v>164</v>
-      </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="14.25">
-      <c r="D42" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E42" t="s">
-        <v>377</v>
-      </c>
-      <c r="F42" t="s">
-        <v>164</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="E43" t="s">
-        <v>378</v>
-      </c>
-      <c r="F43" t="s">
-        <v>379</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="D44" t="s">
-        <v>347</v>
-      </c>
-      <c r="E44" t="s">
-        <v>412</v>
-      </c>
-      <c r="F44" t="s">
-        <v>164</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="E45" t="s">
-        <v>413</v>
-      </c>
-      <c r="F45" t="s">
-        <v>164</v>
-      </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E8:E15"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{0A2BF983-BE3E-42A5-9DF8-5385B0F83BB5}"/>
-    <hyperlink ref="D16" r:id="rId2" xr:uid="{9630B051-EA63-44DE-A154-F61096EBA1F2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/account/test2.xlsx
+++ b/account/test2.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26516"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71A11AF5-068E-48E7-AD1F-79C0CB50294D}"/>
+  <xr:revisionPtr revIDLastSave="339" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3457BC9-3EEF-4997-8037-63A8B45F7FC2}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="test1単体" sheetId="1" r:id="rId1"/>
+    <sheet name="test1結合" sheetId="2" r:id="rId2"/>
+    <sheet name="testVer2単体" sheetId="3" r:id="rId3"/>
+    <sheet name="testVer2結合" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="415">
   <si>
     <t>NO</t>
   </si>
@@ -1286,6 +1288,242 @@
   </si>
   <si>
     <t>0から入力されている</t>
+  </si>
+  <si>
+    <t>＠の後ろにひらがなを入れると通っていまい
+アルファベットに変換されている「ぽ」→xn--99jなど</t>
+  </si>
+  <si>
+    <t>半角英数と半角数字しか入力できない</t>
+  </si>
+  <si>
+    <t>されない（list.phpへ移行）</t>
+  </si>
+  <si>
+    <t>http://localhost//account/list.phpにアクセスする</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面</t>
+  </si>
+  <si>
+    <t>アカウント一覧</t>
+  </si>
+  <si>
+    <t>アカウント一覧をクリック</t>
+  </si>
+  <si>
+    <t>メイン</t>
+  </si>
+  <si>
+    <t>UIの確認</t>
+  </si>
+  <si>
+    <t>ID/名前（姓）/名前（名）/カナ（姓）/カナ（名）/メールアドレス/性別/アカウント権限/
+削除フラグ/登録日時/更新日時/操作が表の一番上に横に並んでいる</t>
+  </si>
+  <si>
+    <t>IDには降順で登録したものがならんでいる</t>
+  </si>
+  <si>
+    <t>名前（姓）が指定文字で入力か、他項目混ざってないか</t>
+  </si>
+  <si>
+    <t>名前（名）が指定文字で入力か、他項目混ざってないか</t>
+  </si>
+  <si>
+    <t>カナ（姓）が指定文字で入力か、他項目混ざってないか</t>
+  </si>
+  <si>
+    <t>カナ（名）が指定文字で入力か、他項目混ざってないか</t>
+  </si>
+  <si>
+    <t>メールアドレスが指定文字で入力か、他項目混ざってないか</t>
+  </si>
+  <si>
+    <t>性別は「男」か「女」のみ表示されているか</t>
+  </si>
+  <si>
+    <t>アカウント権限は「一般」「管理者」のみで表示されているか</t>
+  </si>
+  <si>
+    <t>削除フラグは無効になっているか（有効は削除のボタンの遷移先をプログラムしていないのでない、あればエラー）</t>
+  </si>
+  <si>
+    <t>登録日時は年月日のみ表示になっているか</t>
+  </si>
+  <si>
+    <t>更新日時は年月日のみ表示になっているか</t>
+  </si>
+  <si>
+    <t>操作には「編集」と「削除」のボタンがあるかどうか</t>
+  </si>
+  <si>
+    <t>ボタン</t>
+  </si>
+  <si>
+    <t>「削除」</t>
+  </si>
+  <si>
+    <t>削除をクリックするとhttp://localhost//account/delete.phpに遷移するか</t>
+  </si>
+  <si>
+    <t>「編集」</t>
+  </si>
+  <si>
+    <t>更新をクリックするとhttp://localhost//account/update.phpに遷移するか</t>
+  </si>
+  <si>
+    <t>アカウント登録</t>
+  </si>
+  <si>
+    <t>登録→一覧</t>
+  </si>
+  <si>
+    <t>登録→一覧で入力を確認</t>
+  </si>
+  <si>
+    <t>アカウント登録から指定文字で正常に登録完了まで進め、その後アカウント一覧をクリック、一番上に登録内容が更新されているか</t>
+  </si>
+  <si>
+    <t>先ほど登録したIDがプラス1されているか</t>
+  </si>
+  <si>
+    <t>登録日時は本日の日付になっているか</t>
+  </si>
+  <si>
+    <t>更新日時は本日の日付になっているか</t>
+  </si>
+  <si>
+    <t>MySQLでデータが0の時「アカウント一覧」ページでは「男」と表記されているか</t>
+  </si>
+  <si>
+    <t>MySQLでデータが1の時「アカウント一覧」ページでは「女」と表記されているか</t>
+  </si>
+  <si>
+    <t>MySQLでデータが0の時「アカウント一覧」ページでは「一般」と表記されているか</t>
+  </si>
+  <si>
+    <t>MySQLでデータが1の時「アカウント一覧」ページでは「管理者」と表記されているか</t>
+  </si>
+  <si>
+    <t>MySQLでデータが0の時「アカウント一覧」ページでは「無効」と表記されているか</t>
+  </si>
+  <si>
+    <t>MySQLでデータが1の時「アカウント一覧」ページでは「有効」と表記されているか</t>
+  </si>
+  <si>
+    <t>有効は現段階でない（あればエラー）</t>
+  </si>
+  <si>
+    <t>入力ホーム</t>
+  </si>
+  <si>
+    <t>正常値の登録</t>
+  </si>
+  <si>
+    <t>指定文字で入力をおこなってMYSQLに登録される</t>
+  </si>
+  <si>
+    <t>問題なくできる</t>
+  </si>
+  <si>
+    <t>http://localhost/account/regist.php　から入って登録</t>
+  </si>
+  <si>
+    <t>先の順でアカウント登録を正常値で行う</t>
+  </si>
+  <si>
+    <t>登録完了画面</t>
+  </si>
+  <si>
+    <t>メッセージの確認</t>
+  </si>
+  <si>
+    <t>登録完了しましたとでる</t>
+  </si>
+  <si>
+    <t>でない（list.phpにとぶ）（登録はできる）</t>
+  </si>
+  <si>
+    <t>登録完了ページではなくlist.phpに遷移するようになってしまっている</t>
+  </si>
+  <si>
+    <t>エラーの確認</t>
+  </si>
+  <si>
+    <t>登録完了できませんでしたとでる</t>
+  </si>
+  <si>
+    <t>でない（登録もできない）</t>
+  </si>
+  <si>
+    <t>正常値と異常値の混在</t>
+  </si>
+  <si>
+    <t>指定文字と異常値を混合させてエラーを確認（名前（姓））</t>
+  </si>
+  <si>
+    <t>異常値があればエラーで登録できない</t>
+  </si>
+  <si>
+    <t>常用漢字、ひらがな、
+全角半角カタカナ、
+全角半角英数字、
+記号、
+スペース
+全て混ぜる</t>
+  </si>
+  <si>
+    <t>指定文字と異常値を混合させてエラーを確認（名前（名））</t>
+  </si>
+  <si>
+    <t>指定文字と異常値を混合させてエラーを確認（カナ（姓））</t>
+  </si>
+  <si>
+    <t>指定文字と異常値を混合させてエラーを確認（カナ（名））</t>
+  </si>
+  <si>
+    <t>指定文字と異常値を混合させてエラーを確認（メールアドレス）</t>
+  </si>
+  <si>
+    <t>指定文字と異常値を混合させてエラーを確認（パスワード）</t>
+  </si>
+  <si>
+    <t>指定文字と異常値を混合させてエラーを確認（郵便番号※半角数字のみ）</t>
+  </si>
+  <si>
+    <t>指定文字と異常値を混合させてエラーを確認（住所（市区町村））</t>
+  </si>
+  <si>
+    <t>指定文字と異常値を混合させてエラーを確認（住所（番地））</t>
+  </si>
+  <si>
+    <t>MYSQL</t>
+  </si>
+  <si>
+    <t>diblog_account</t>
+  </si>
+  <si>
+    <t>登録データの確認</t>
+  </si>
+  <si>
+    <t>NO1~3で登録が無事に成功した場合、登録データが反映されているかを確認</t>
+  </si>
+  <si>
+    <t>３件追加されている</t>
+  </si>
+  <si>
+    <t>アカウント確認画面のフッターのCSSがはずれている</t>
+  </si>
+  <si>
+    <t>操作のボタンは「編集」「削除」がある</t>
+  </si>
+  <si>
+    <t>それぞれのページに遷移する</t>
+  </si>
+  <si>
+    <t>＠の後ろにひらがなを入れると通ってしまい
+アルファベットに変換されている「ぽ」→xn--99jなど</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1481,6 +1719,18 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1798,11 +2048,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="13" width="21.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -5907,7 +6160,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFD9AE5-B6FD-4476-BAA8-BD4C9F4881E0}">
   <dimension ref="A1:K184"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106:C107"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -9614,4 +9869,5488 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471C042D-9C2F-46E9-8D44-B45D4C190838}">
+  <dimension ref="A1:K178"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="99.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="118.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" t="s">
+        <v>44</v>
+      </c>
+      <c r="I51" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="40.5">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="I53" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s">
+        <v>28</v>
+      </c>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" t="s">
+        <v>38</v>
+      </c>
+      <c r="H61" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" t="s">
+        <v>41</v>
+      </c>
+      <c r="I62" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" t="s">
+        <v>62</v>
+      </c>
+      <c r="I63" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>340</v>
+      </c>
+      <c r="F64" t="s">
+        <v>340</v>
+      </c>
+      <c r="G64" t="s">
+        <v>340</v>
+      </c>
+      <c r="H64" t="s">
+        <v>340</v>
+      </c>
+      <c r="I64" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" t="s">
+        <v>65</v>
+      </c>
+      <c r="G65" t="s">
+        <v>66</v>
+      </c>
+      <c r="H65" t="s">
+        <v>66</v>
+      </c>
+      <c r="I65" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" t="s">
+        <v>40</v>
+      </c>
+      <c r="G66" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" t="s">
+        <v>41</v>
+      </c>
+      <c r="I66" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" t="s">
+        <v>43</v>
+      </c>
+      <c r="G67" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" t="s">
+        <v>44</v>
+      </c>
+      <c r="I67" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>68</v>
+      </c>
+      <c r="F68" t="s">
+        <v>69</v>
+      </c>
+      <c r="G68" t="s">
+        <v>38</v>
+      </c>
+      <c r="H68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I68" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>68</v>
+      </c>
+      <c r="F69" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" t="s">
+        <v>38</v>
+      </c>
+      <c r="H69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I69" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F70" t="s">
+        <v>68</v>
+      </c>
+      <c r="G70" t="s">
+        <v>71</v>
+      </c>
+      <c r="H70" t="s">
+        <v>71</v>
+      </c>
+      <c r="I70" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F71" t="s">
+        <v>73</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>74</v>
+      </c>
+      <c r="F72" t="s">
+        <v>75</v>
+      </c>
+      <c r="G72" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72" t="s">
+        <v>76</v>
+      </c>
+      <c r="I72" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s">
+        <v>28</v>
+      </c>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>80</v>
+      </c>
+      <c r="F74" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>81</v>
+      </c>
+      <c r="F75" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s">
+        <v>28</v>
+      </c>
+      <c r="H75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>82</v>
+      </c>
+      <c r="F76" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>83</v>
+      </c>
+      <c r="F77" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s">
+        <v>25</v>
+      </c>
+      <c r="H77" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>84</v>
+      </c>
+      <c r="F78" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>85</v>
+      </c>
+      <c r="F79" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>86</v>
+      </c>
+      <c r="F80" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" t="s">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>36</v>
+      </c>
+      <c r="F82" t="s">
+        <v>37</v>
+      </c>
+      <c r="G82" t="s">
+        <v>38</v>
+      </c>
+      <c r="H82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I82" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>39</v>
+      </c>
+      <c r="F83" t="s">
+        <v>40</v>
+      </c>
+      <c r="G83" t="s">
+        <v>41</v>
+      </c>
+      <c r="H83" t="s">
+        <v>41</v>
+      </c>
+      <c r="I83" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>88</v>
+      </c>
+      <c r="F84" t="s">
+        <v>89</v>
+      </c>
+      <c r="G84" t="s">
+        <v>90</v>
+      </c>
+      <c r="H84" t="s">
+        <v>90</v>
+      </c>
+      <c r="I84" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="D85" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" t="s">
+        <v>93</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>94</v>
+      </c>
+      <c r="F86" t="s">
+        <v>95</v>
+      </c>
+      <c r="G86" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>96</v>
+      </c>
+      <c r="F87" t="s">
+        <v>97</v>
+      </c>
+      <c r="G87" t="s">
+        <v>98</v>
+      </c>
+      <c r="H87" t="s">
+        <v>98</v>
+      </c>
+      <c r="I87" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>99</v>
+      </c>
+      <c r="F88" t="s">
+        <v>100</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>101</v>
+      </c>
+      <c r="F89" t="s">
+        <v>102</v>
+      </c>
+      <c r="G89" t="s">
+        <v>41</v>
+      </c>
+      <c r="H89" t="s">
+        <v>41</v>
+      </c>
+      <c r="I89" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="D90" t="s">
+        <v>103</v>
+      </c>
+      <c r="E90" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" t="s">
+        <v>25</v>
+      </c>
+      <c r="I90" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="D91" t="s">
+        <v>104</v>
+      </c>
+      <c r="E91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s">
+        <v>25</v>
+      </c>
+      <c r="H91" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E92" t="s">
+        <v>27</v>
+      </c>
+      <c r="F92" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s">
+        <v>28</v>
+      </c>
+      <c r="H93" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s">
+        <v>25</v>
+      </c>
+      <c r="H94" t="s">
+        <v>25</v>
+      </c>
+      <c r="I94" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s">
+        <v>28</v>
+      </c>
+      <c r="H95" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>106</v>
+      </c>
+      <c r="F96" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s">
+        <v>25</v>
+      </c>
+      <c r="H96" t="s">
+        <v>25</v>
+      </c>
+      <c r="I96" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" t="s">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s">
+        <v>28</v>
+      </c>
+      <c r="H97" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>107</v>
+      </c>
+      <c r="F98" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s">
+        <v>25</v>
+      </c>
+      <c r="H98" t="s">
+        <v>25</v>
+      </c>
+      <c r="I98" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>36</v>
+      </c>
+      <c r="F99" t="s">
+        <v>37</v>
+      </c>
+      <c r="G99" t="s">
+        <v>38</v>
+      </c>
+      <c r="H99" t="s">
+        <v>38</v>
+      </c>
+      <c r="I99" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>39</v>
+      </c>
+      <c r="F100" t="s">
+        <v>40</v>
+      </c>
+      <c r="G100" t="s">
+        <v>41</v>
+      </c>
+      <c r="H100" t="s">
+        <v>41</v>
+      </c>
+      <c r="I100" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>42</v>
+      </c>
+      <c r="F101" t="s">
+        <v>43</v>
+      </c>
+      <c r="G101" t="s">
+        <v>44</v>
+      </c>
+      <c r="H101" t="s">
+        <v>44</v>
+      </c>
+      <c r="I101" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="D102" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102" t="s">
+        <v>50</v>
+      </c>
+      <c r="F102" t="s">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s">
+        <v>25</v>
+      </c>
+      <c r="H102" t="s">
+        <v>25</v>
+      </c>
+      <c r="I102" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K102" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="D103" t="s">
+        <v>104</v>
+      </c>
+      <c r="E103" t="s">
+        <v>52</v>
+      </c>
+      <c r="F103" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s">
+        <v>25</v>
+      </c>
+      <c r="H103" t="s">
+        <v>25</v>
+      </c>
+      <c r="I103" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E104" t="s">
+        <v>109</v>
+      </c>
+      <c r="F104" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s">
+        <v>28</v>
+      </c>
+      <c r="H104" t="s">
+        <v>28</v>
+      </c>
+      <c r="I104" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K104" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>54</v>
+      </c>
+      <c r="F105" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s">
+        <v>28</v>
+      </c>
+      <c r="H105" t="s">
+        <v>28</v>
+      </c>
+      <c r="I105" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K105" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>55</v>
+      </c>
+      <c r="F106" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s">
+        <v>25</v>
+      </c>
+      <c r="H106" t="s">
+        <v>25</v>
+      </c>
+      <c r="I106" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>56</v>
+      </c>
+      <c r="F107" t="s">
+        <v>24</v>
+      </c>
+      <c r="G107" t="s">
+        <v>28</v>
+      </c>
+      <c r="H107" t="s">
+        <v>28</v>
+      </c>
+      <c r="I107" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>110</v>
+      </c>
+      <c r="F108" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s">
+        <v>25</v>
+      </c>
+      <c r="H108" t="s">
+        <v>25</v>
+      </c>
+      <c r="I108" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K108" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>58</v>
+      </c>
+      <c r="F109" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" t="s">
+        <v>28</v>
+      </c>
+      <c r="H109" t="s">
+        <v>28</v>
+      </c>
+      <c r="I109" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>111</v>
+      </c>
+      <c r="F110" t="s">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s">
+        <v>25</v>
+      </c>
+      <c r="H110" t="s">
+        <v>25</v>
+      </c>
+      <c r="I110" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>36</v>
+      </c>
+      <c r="F111" t="s">
+        <v>37</v>
+      </c>
+      <c r="G111" t="s">
+        <v>38</v>
+      </c>
+      <c r="H111" t="s">
+        <v>38</v>
+      </c>
+      <c r="I111" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K111" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>39</v>
+      </c>
+      <c r="F112" t="s">
+        <v>40</v>
+      </c>
+      <c r="G112" t="s">
+        <v>41</v>
+      </c>
+      <c r="H112" t="s">
+        <v>41</v>
+      </c>
+      <c r="I112" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K112" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>60</v>
+      </c>
+      <c r="F113" t="s">
+        <v>112</v>
+      </c>
+      <c r="G113" t="s">
+        <v>62</v>
+      </c>
+      <c r="H113" t="s">
+        <v>62</v>
+      </c>
+      <c r="I113" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K113" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="D114" t="s">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>99</v>
+      </c>
+      <c r="F114" t="s">
+        <v>100</v>
+      </c>
+      <c r="G114" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" t="s">
+        <v>17</v>
+      </c>
+      <c r="I114" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K114" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>114</v>
+      </c>
+      <c r="F115" t="s">
+        <v>115</v>
+      </c>
+      <c r="G115" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" t="s">
+        <v>17</v>
+      </c>
+      <c r="I115" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K115" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>114</v>
+      </c>
+      <c r="F116" t="s">
+        <v>116</v>
+      </c>
+      <c r="G116" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" t="s">
+        <v>17</v>
+      </c>
+      <c r="I116" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K116" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>101</v>
+      </c>
+      <c r="F117" t="s">
+        <v>102</v>
+      </c>
+      <c r="G117" t="s">
+        <v>117</v>
+      </c>
+      <c r="H117" t="s">
+        <v>117</v>
+      </c>
+      <c r="I117" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>118</v>
+      </c>
+      <c r="D118" t="s">
+        <v>119</v>
+      </c>
+      <c r="E118" t="s">
+        <v>120</v>
+      </c>
+      <c r="F118" t="s">
+        <v>121</v>
+      </c>
+      <c r="G118" t="s">
+        <v>122</v>
+      </c>
+      <c r="H118" t="s">
+        <v>122</v>
+      </c>
+      <c r="I118" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K118" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="D119" t="s">
+        <v>119</v>
+      </c>
+      <c r="E119" t="s">
+        <v>123</v>
+      </c>
+      <c r="F119" t="s">
+        <v>124</v>
+      </c>
+      <c r="G119" t="s">
+        <v>125</v>
+      </c>
+      <c r="H119" t="s">
+        <v>125</v>
+      </c>
+      <c r="I119" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K119" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="14.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" t="s">
+        <v>127</v>
+      </c>
+      <c r="D120" t="s">
+        <v>128</v>
+      </c>
+      <c r="E120" t="s">
+        <v>129</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G120" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" t="s">
+        <v>17</v>
+      </c>
+      <c r="I120" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K120" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="E121" t="s">
+        <v>132</v>
+      </c>
+      <c r="F121" t="s">
+        <v>133</v>
+      </c>
+      <c r="G121" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" t="s">
+        <v>17</v>
+      </c>
+      <c r="I121" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K121" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="C122" t="s">
+        <v>118</v>
+      </c>
+      <c r="D122" t="s">
+        <v>134</v>
+      </c>
+      <c r="E122" t="s">
+        <v>135</v>
+      </c>
+      <c r="F122" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K122" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="E123" t="s">
+        <v>136</v>
+      </c>
+      <c r="F123" t="s">
+        <v>137</v>
+      </c>
+      <c r="G123" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" t="s">
+        <v>17</v>
+      </c>
+      <c r="I123" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K123" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="D124" t="s">
+        <v>138</v>
+      </c>
+      <c r="E124" t="s">
+        <v>135</v>
+      </c>
+      <c r="F124" t="s">
+        <v>139</v>
+      </c>
+      <c r="G124" t="s">
+        <v>139</v>
+      </c>
+      <c r="H124" t="s">
+        <v>139</v>
+      </c>
+      <c r="I124" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125" t="s">
+        <v>139</v>
+      </c>
+      <c r="D125" t="s">
+        <v>140</v>
+      </c>
+      <c r="E125" t="s">
+        <v>141</v>
+      </c>
+      <c r="F125" t="s">
+        <v>142</v>
+      </c>
+      <c r="G125" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="I125" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K125" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="C126" t="s">
+        <v>118</v>
+      </c>
+      <c r="D126" t="s">
+        <v>147</v>
+      </c>
+      <c r="E126" t="s">
+        <v>135</v>
+      </c>
+      <c r="F126" t="s">
+        <v>148</v>
+      </c>
+      <c r="G126" t="s">
+        <v>148</v>
+      </c>
+      <c r="H126" t="s">
+        <v>148</v>
+      </c>
+      <c r="I126" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K126" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>150</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" t="s">
+        <v>151</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="D128" t="s">
+        <v>151</v>
+      </c>
+      <c r="E128" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
+        <v>20</v>
+      </c>
+      <c r="H128" t="s">
+        <v>20</v>
+      </c>
+      <c r="I128" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K128" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>126</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" t="s">
+        <v>151</v>
+      </c>
+      <c r="E129" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
+        <v>16</v>
+      </c>
+      <c r="H129" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="D130" t="s">
+        <v>151</v>
+      </c>
+      <c r="E130" t="s">
+        <v>19</v>
+      </c>
+      <c r="F130" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
+        <v>20</v>
+      </c>
+      <c r="H130" t="s">
+        <v>20</v>
+      </c>
+      <c r="I130" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K130" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>139</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" t="s">
+        <v>151</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>16</v>
+      </c>
+      <c r="H131" t="s">
+        <v>16</v>
+      </c>
+      <c r="I131" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K131" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="D132" t="s">
+        <v>151</v>
+      </c>
+      <c r="E132" t="s">
+        <v>19</v>
+      </c>
+      <c r="F132" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" t="s">
+        <v>20</v>
+      </c>
+      <c r="I132" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K132" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>153</v>
+      </c>
+      <c r="C133" t="s">
+        <v>154</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E133" t="s">
+        <v>156</v>
+      </c>
+      <c r="F133" t="s">
+        <v>157</v>
+      </c>
+      <c r="G133" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" t="s">
+        <v>17</v>
+      </c>
+      <c r="I133" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K133" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E134" t="s">
+        <v>156</v>
+      </c>
+      <c r="F134" t="s">
+        <v>159</v>
+      </c>
+      <c r="G134" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" t="s">
+        <v>17</v>
+      </c>
+      <c r="I134" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>160</v>
+      </c>
+      <c r="C135" t="s">
+        <v>161</v>
+      </c>
+      <c r="D135" t="s">
+        <v>162</v>
+      </c>
+      <c r="E135" t="s">
+        <v>163</v>
+      </c>
+      <c r="F135" t="s">
+        <v>164</v>
+      </c>
+      <c r="G135" t="s">
+        <v>17</v>
+      </c>
+      <c r="H135" t="s">
+        <v>17</v>
+      </c>
+      <c r="I135" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K135" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="C136" t="s">
+        <v>165</v>
+      </c>
+      <c r="D136" t="s">
+        <v>166</v>
+      </c>
+      <c r="E136" t="s">
+        <v>167</v>
+      </c>
+      <c r="F136" t="s">
+        <v>164</v>
+      </c>
+      <c r="G136" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" t="s">
+        <v>17</v>
+      </c>
+      <c r="I136" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K136" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="C137" t="s">
+        <v>168</v>
+      </c>
+      <c r="D137" t="s">
+        <v>169</v>
+      </c>
+      <c r="E137" t="s">
+        <v>170</v>
+      </c>
+      <c r="F137" t="s">
+        <v>164</v>
+      </c>
+      <c r="G137" t="s">
+        <v>17</v>
+      </c>
+      <c r="H137" t="s">
+        <v>17</v>
+      </c>
+      <c r="I137" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="C138" t="s">
+        <v>171</v>
+      </c>
+      <c r="D138" t="s">
+        <v>172</v>
+      </c>
+      <c r="E138" t="s">
+        <v>173</v>
+      </c>
+      <c r="F138" t="s">
+        <v>164</v>
+      </c>
+      <c r="G138" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" t="s">
+        <v>17</v>
+      </c>
+      <c r="I138" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="C139" t="s">
+        <v>174</v>
+      </c>
+      <c r="D139" t="s">
+        <v>175</v>
+      </c>
+      <c r="E139" t="s">
+        <v>176</v>
+      </c>
+      <c r="F139" t="s">
+        <v>164</v>
+      </c>
+      <c r="G139" t="s">
+        <v>17</v>
+      </c>
+      <c r="H139" t="s">
+        <v>17</v>
+      </c>
+      <c r="I139" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K139" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="C140" t="s">
+        <v>177</v>
+      </c>
+      <c r="D140" t="s">
+        <v>178</v>
+      </c>
+      <c r="E140" t="s">
+        <v>179</v>
+      </c>
+      <c r="F140" t="s">
+        <v>164</v>
+      </c>
+      <c r="G140" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" t="s">
+        <v>17</v>
+      </c>
+      <c r="I140" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K140" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="14.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>180</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F141" t="s">
+        <v>164</v>
+      </c>
+      <c r="G141" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" t="s">
+        <v>17</v>
+      </c>
+      <c r="I141" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K141" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="14.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F142" t="s">
+        <v>164</v>
+      </c>
+      <c r="G142" t="s">
+        <v>17</v>
+      </c>
+      <c r="H142" t="s">
+        <v>17</v>
+      </c>
+      <c r="I142" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K142" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="14.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="C143" t="s">
+        <v>185</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F143" t="s">
+        <v>164</v>
+      </c>
+      <c r="G143" t="s">
+        <v>17</v>
+      </c>
+      <c r="H143" t="s">
+        <v>17</v>
+      </c>
+      <c r="I143" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K143" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="14.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="C144" t="s">
+        <v>187</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F144" t="s">
+        <v>164</v>
+      </c>
+      <c r="G144" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" t="s">
+        <v>17</v>
+      </c>
+      <c r="I144" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K144" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="14.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="C145" t="s">
+        <v>189</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F145" t="s">
+        <v>164</v>
+      </c>
+      <c r="G145" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" t="s">
+        <v>17</v>
+      </c>
+      <c r="I145" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K145" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="14.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="C146" t="s">
+        <v>191</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F146" t="s">
+        <v>164</v>
+      </c>
+      <c r="G146" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K146" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="14.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="C147" t="s">
+        <v>193</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F147" t="s">
+        <v>164</v>
+      </c>
+      <c r="G147" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" t="s">
+        <v>17</v>
+      </c>
+      <c r="I147" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K147" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="14.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="C148" t="s">
+        <v>195</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F148" t="s">
+        <v>164</v>
+      </c>
+      <c r="G148" t="s">
+        <v>17</v>
+      </c>
+      <c r="H148" t="s">
+        <v>17</v>
+      </c>
+      <c r="I148" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K148" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="14.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="C149" t="s">
+        <v>197</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F149" t="s">
+        <v>164</v>
+      </c>
+      <c r="G149" t="s">
+        <v>17</v>
+      </c>
+      <c r="H149" t="s">
+        <v>17</v>
+      </c>
+      <c r="I149" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K149" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="14.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>153</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F150" t="s">
+        <v>15</v>
+      </c>
+      <c r="G150" t="s">
+        <v>343</v>
+      </c>
+      <c r="H150" t="s">
+        <v>343</v>
+      </c>
+      <c r="I150" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K150" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>344</v>
+      </c>
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" t="s">
+        <v>16</v>
+      </c>
+      <c r="I151" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K151" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="D152" t="s">
+        <v>18</v>
+      </c>
+      <c r="E152" t="s">
+        <v>19</v>
+      </c>
+      <c r="F152" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" t="s">
+        <v>20</v>
+      </c>
+      <c r="H152" t="s">
+        <v>20</v>
+      </c>
+      <c r="I152" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K152" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="D153" t="s">
+        <v>344</v>
+      </c>
+      <c r="E153" t="s">
+        <v>345</v>
+      </c>
+      <c r="F153" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" t="s">
+        <v>343</v>
+      </c>
+      <c r="H153" t="s">
+        <v>343</v>
+      </c>
+      <c r="K153" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="39.75" customHeight="1">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="C154" t="s">
+        <v>346</v>
+      </c>
+      <c r="D154" t="s">
+        <v>347</v>
+      </c>
+      <c r="E154" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="F154" t="s">
+        <v>164</v>
+      </c>
+      <c r="K154" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="E155" t="s">
+        <v>349</v>
+      </c>
+      <c r="F155" t="s">
+        <v>164</v>
+      </c>
+      <c r="G155" t="s">
+        <v>17</v>
+      </c>
+      <c r="H155" t="s">
+        <v>17</v>
+      </c>
+      <c r="K155" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="E156" t="s">
+        <v>350</v>
+      </c>
+      <c r="F156" t="s">
+        <v>164</v>
+      </c>
+      <c r="G156" t="s">
+        <v>17</v>
+      </c>
+      <c r="H156" t="s">
+        <v>17</v>
+      </c>
+      <c r="K156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="E157" t="s">
+        <v>351</v>
+      </c>
+      <c r="F157" t="s">
+        <v>164</v>
+      </c>
+      <c r="G157" t="s">
+        <v>17</v>
+      </c>
+      <c r="H157" t="s">
+        <v>17</v>
+      </c>
+      <c r="K157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="E158" t="s">
+        <v>352</v>
+      </c>
+      <c r="F158" t="s">
+        <v>164</v>
+      </c>
+      <c r="G158" t="s">
+        <v>17</v>
+      </c>
+      <c r="H158" t="s">
+        <v>17</v>
+      </c>
+      <c r="K158" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="E159" t="s">
+        <v>353</v>
+      </c>
+      <c r="F159" t="s">
+        <v>164</v>
+      </c>
+      <c r="G159" t="s">
+        <v>17</v>
+      </c>
+      <c r="H159" t="s">
+        <v>17</v>
+      </c>
+      <c r="K159" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="E160" t="s">
+        <v>354</v>
+      </c>
+      <c r="F160" t="s">
+        <v>164</v>
+      </c>
+      <c r="G160" t="s">
+        <v>17</v>
+      </c>
+      <c r="H160" t="s">
+        <v>17</v>
+      </c>
+      <c r="K160" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="E161" t="s">
+        <v>355</v>
+      </c>
+      <c r="F161" t="s">
+        <v>164</v>
+      </c>
+      <c r="G161" t="s">
+        <v>17</v>
+      </c>
+      <c r="H161" t="s">
+        <v>17</v>
+      </c>
+      <c r="K161" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="E162" t="s">
+        <v>356</v>
+      </c>
+      <c r="F162" t="s">
+        <v>164</v>
+      </c>
+      <c r="G162" t="s">
+        <v>17</v>
+      </c>
+      <c r="H162" t="s">
+        <v>17</v>
+      </c>
+      <c r="K162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="E163" t="s">
+        <v>357</v>
+      </c>
+      <c r="F163" t="s">
+        <v>164</v>
+      </c>
+      <c r="G163" t="s">
+        <v>17</v>
+      </c>
+      <c r="H163" t="s">
+        <v>17</v>
+      </c>
+      <c r="K163" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="E164" t="s">
+        <v>358</v>
+      </c>
+      <c r="F164" t="s">
+        <v>164</v>
+      </c>
+      <c r="G164" t="s">
+        <v>17</v>
+      </c>
+      <c r="H164" t="s">
+        <v>17</v>
+      </c>
+      <c r="K164" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="E165" t="s">
+        <v>359</v>
+      </c>
+      <c r="F165" t="s">
+        <v>164</v>
+      </c>
+      <c r="G165" t="s">
+        <v>17</v>
+      </c>
+      <c r="H165" t="s">
+        <v>17</v>
+      </c>
+      <c r="K165" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="E166" t="s">
+        <v>360</v>
+      </c>
+      <c r="F166" t="s">
+        <v>164</v>
+      </c>
+      <c r="G166" t="s">
+        <v>17</v>
+      </c>
+      <c r="H166" t="s">
+        <v>17</v>
+      </c>
+      <c r="K166" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="C167" t="s">
+        <v>361</v>
+      </c>
+      <c r="D167" t="s">
+        <v>362</v>
+      </c>
+      <c r="E167" t="s">
+        <v>363</v>
+      </c>
+      <c r="F167" t="s">
+        <v>164</v>
+      </c>
+      <c r="G167" t="s">
+        <v>17</v>
+      </c>
+      <c r="H167" t="s">
+        <v>17</v>
+      </c>
+      <c r="K167" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="D168" t="s">
+        <v>364</v>
+      </c>
+      <c r="E168" t="s">
+        <v>365</v>
+      </c>
+      <c r="F168" t="s">
+        <v>164</v>
+      </c>
+      <c r="G168" t="s">
+        <v>17</v>
+      </c>
+      <c r="H168" t="s">
+        <v>17</v>
+      </c>
+      <c r="K168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>366</v>
+      </c>
+      <c r="C169" t="s">
+        <v>367</v>
+      </c>
+      <c r="D169" t="s">
+        <v>368</v>
+      </c>
+      <c r="E169" t="s">
+        <v>369</v>
+      </c>
+      <c r="F169" t="s">
+        <v>164</v>
+      </c>
+      <c r="G169" t="s">
+        <v>17</v>
+      </c>
+      <c r="H169" t="s">
+        <v>17</v>
+      </c>
+      <c r="K169" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="E170" t="s">
+        <v>370</v>
+      </c>
+      <c r="F170" t="s">
+        <v>164</v>
+      </c>
+      <c r="G170" t="s">
+        <v>17</v>
+      </c>
+      <c r="H170" t="s">
+        <v>17</v>
+      </c>
+      <c r="K170" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="E171" t="s">
+        <v>371</v>
+      </c>
+      <c r="F171" t="s">
+        <v>164</v>
+      </c>
+      <c r="G171" t="s">
+        <v>17</v>
+      </c>
+      <c r="H171" t="s">
+        <v>17</v>
+      </c>
+      <c r="K171" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="E172" t="s">
+        <v>372</v>
+      </c>
+      <c r="F172" t="s">
+        <v>164</v>
+      </c>
+      <c r="G172" t="s">
+        <v>17</v>
+      </c>
+      <c r="H172" t="s">
+        <v>17</v>
+      </c>
+      <c r="K172" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="14.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>160</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E173" t="s">
+        <v>373</v>
+      </c>
+      <c r="F173" t="s">
+        <v>164</v>
+      </c>
+      <c r="G173" t="s">
+        <v>17</v>
+      </c>
+      <c r="H173" t="s">
+        <v>17</v>
+      </c>
+      <c r="K173" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="E174" t="s">
+        <v>374</v>
+      </c>
+      <c r="F174" t="s">
+        <v>164</v>
+      </c>
+      <c r="G174" t="s">
+        <v>17</v>
+      </c>
+      <c r="H174" t="s">
+        <v>17</v>
+      </c>
+      <c r="K174" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="14.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E175" t="s">
+        <v>375</v>
+      </c>
+      <c r="F175" t="s">
+        <v>164</v>
+      </c>
+      <c r="G175" t="s">
+        <v>17</v>
+      </c>
+      <c r="H175" t="s">
+        <v>17</v>
+      </c>
+      <c r="K175" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="E176" t="s">
+        <v>376</v>
+      </c>
+      <c r="F176" t="s">
+        <v>164</v>
+      </c>
+      <c r="G176" t="s">
+        <v>17</v>
+      </c>
+      <c r="H176" t="s">
+        <v>17</v>
+      </c>
+      <c r="K176" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="14.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E177" t="s">
+        <v>377</v>
+      </c>
+      <c r="F177" t="s">
+        <v>164</v>
+      </c>
+      <c r="G177" t="s">
+        <v>17</v>
+      </c>
+      <c r="H177" t="s">
+        <v>17</v>
+      </c>
+      <c r="K177" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="E178" t="s">
+        <v>378</v>
+      </c>
+      <c r="F178" t="s">
+        <v>379</v>
+      </c>
+      <c r="G178" t="s">
+        <v>98</v>
+      </c>
+      <c r="H178" t="s">
+        <v>98</v>
+      </c>
+      <c r="K178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D134" r:id="rId1" xr:uid="{60769E34-3D4C-4FB6-A57D-3CD7164D4454}"/>
+    <hyperlink ref="D133" r:id="rId2" xr:uid="{6A4F960C-7E4B-40CD-8339-D36582FCCE7C}"/>
+    <hyperlink ref="E150" r:id="rId3" xr:uid="{EF5A39C5-8FE3-4C13-8A99-38054C38387B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9CC3FD-7885-4A67-BB33-5BB23EC7C9D8}">
+  <dimension ref="A1:K49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="59.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="G3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G5" t="s">
+        <v>388</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45070</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F6" t="s">
+        <v>392</v>
+      </c>
+      <c r="G6" t="s">
+        <v>392</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="I6" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>380</v>
+      </c>
+      <c r="E7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I7" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="F8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G8" t="s">
+        <v>396</v>
+      </c>
+      <c r="H8" t="s">
+        <v>396</v>
+      </c>
+      <c r="I8" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" t="s">
+        <v>399</v>
+      </c>
+      <c r="G9" t="s">
+        <v>396</v>
+      </c>
+      <c r="H9" t="s">
+        <v>396</v>
+      </c>
+      <c r="I9" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" t="s">
+        <v>400</v>
+      </c>
+      <c r="G10" t="s">
+        <v>396</v>
+      </c>
+      <c r="H10" t="s">
+        <v>396</v>
+      </c>
+      <c r="I10" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="54">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" t="s">
+        <v>401</v>
+      </c>
+      <c r="G11" t="s">
+        <v>396</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="I11" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" t="s">
+        <v>402</v>
+      </c>
+      <c r="G12" t="s">
+        <v>396</v>
+      </c>
+      <c r="H12" t="s">
+        <v>396</v>
+      </c>
+      <c r="I12" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" t="s">
+        <v>403</v>
+      </c>
+      <c r="G13" t="s">
+        <v>396</v>
+      </c>
+      <c r="H13" t="s">
+        <v>396</v>
+      </c>
+      <c r="I13" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" t="s">
+        <v>404</v>
+      </c>
+      <c r="G14" t="s">
+        <v>396</v>
+      </c>
+      <c r="H14" t="s">
+        <v>396</v>
+      </c>
+      <c r="I14" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" t="s">
+        <v>405</v>
+      </c>
+      <c r="G15" t="s">
+        <v>396</v>
+      </c>
+      <c r="H15" t="s">
+        <v>396</v>
+      </c>
+      <c r="I15" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>406</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="E16" t="s">
+        <v>408</v>
+      </c>
+      <c r="F16" t="s">
+        <v>409</v>
+      </c>
+      <c r="G16" t="s">
+        <v>410</v>
+      </c>
+      <c r="H16" t="s">
+        <v>410</v>
+      </c>
+      <c r="I16" s="3">
+        <v>45070</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="14.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="14.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="14.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="14.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="14.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>344</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" t="s">
+        <v>373</v>
+      </c>
+      <c r="F38" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>374</v>
+      </c>
+      <c r="F39" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="14.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" t="s">
+        <v>375</v>
+      </c>
+      <c r="F40" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>376</v>
+      </c>
+      <c r="F41" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="14.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" t="s">
+        <v>377</v>
+      </c>
+      <c r="F42" t="s">
+        <v>164</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>378</v>
+      </c>
+      <c r="F43" t="s">
+        <v>379</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>347</v>
+      </c>
+      <c r="E44" t="s">
+        <v>412</v>
+      </c>
+      <c r="F44" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>413</v>
+      </c>
+      <c r="F45" t="s">
+        <v>164</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>386</v>
+      </c>
+      <c r="E47" t="s">
+        <v>387</v>
+      </c>
+      <c r="F47" t="s">
+        <v>388</v>
+      </c>
+      <c r="G47" t="s">
+        <v>388</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="3">
+        <v>45070</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>391</v>
+      </c>
+      <c r="F48" t="s">
+        <v>392</v>
+      </c>
+      <c r="G48" t="s">
+        <v>392</v>
+      </c>
+      <c r="I48" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="87.75" customHeight="1">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>401</v>
+      </c>
+      <c r="G49" t="s">
+        <v>396</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="I49" s="3">
+        <v>45070</v>
+      </c>
+      <c r="K49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E8:E15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{0A2BF983-BE3E-42A5-9DF8-5385B0F83BB5}"/>
+    <hyperlink ref="D16" r:id="rId2" xr:uid="{9630B051-EA63-44DE-A154-F61096EBA1F2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/account/test2.xlsx
+++ b/account/test2.xlsx
@@ -3,15 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26516"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="339" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3457BC9-3EEF-4997-8037-63A8B45F7FC2}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71A11AF5-068E-48E7-AD1F-79C0CB50294D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test1単体" sheetId="1" r:id="rId1"/>
-    <sheet name="test1結合" sheetId="2" r:id="rId2"/>
-    <sheet name="testVer2単体" sheetId="3" r:id="rId3"/>
-    <sheet name="testVer2結合" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="339">
   <si>
     <t>NO</t>
   </si>
@@ -1288,242 +1286,6 @@
   </si>
   <si>
     <t>0から入力されている</t>
-  </si>
-  <si>
-    <t>＠の後ろにひらがなを入れると通っていまい
-アルファベットに変換されている「ぽ」→xn--99jなど</t>
-  </si>
-  <si>
-    <t>半角英数と半角数字しか入力できない</t>
-  </si>
-  <si>
-    <t>されない（list.phpへ移行）</t>
-  </si>
-  <si>
-    <t>http://localhost//account/list.phpにアクセスする</t>
-  </si>
-  <si>
-    <t>アカウント一覧画面</t>
-  </si>
-  <si>
-    <t>アカウント一覧</t>
-  </si>
-  <si>
-    <t>アカウント一覧をクリック</t>
-  </si>
-  <si>
-    <t>メイン</t>
-  </si>
-  <si>
-    <t>UIの確認</t>
-  </si>
-  <si>
-    <t>ID/名前（姓）/名前（名）/カナ（姓）/カナ（名）/メールアドレス/性別/アカウント権限/
-削除フラグ/登録日時/更新日時/操作が表の一番上に横に並んでいる</t>
-  </si>
-  <si>
-    <t>IDには降順で登録したものがならんでいる</t>
-  </si>
-  <si>
-    <t>名前（姓）が指定文字で入力か、他項目混ざってないか</t>
-  </si>
-  <si>
-    <t>名前（名）が指定文字で入力か、他項目混ざってないか</t>
-  </si>
-  <si>
-    <t>カナ（姓）が指定文字で入力か、他項目混ざってないか</t>
-  </si>
-  <si>
-    <t>カナ（名）が指定文字で入力か、他項目混ざってないか</t>
-  </si>
-  <si>
-    <t>メールアドレスが指定文字で入力か、他項目混ざってないか</t>
-  </si>
-  <si>
-    <t>性別は「男」か「女」のみ表示されているか</t>
-  </si>
-  <si>
-    <t>アカウント権限は「一般」「管理者」のみで表示されているか</t>
-  </si>
-  <si>
-    <t>削除フラグは無効になっているか（有効は削除のボタンの遷移先をプログラムしていないのでない、あればエラー）</t>
-  </si>
-  <si>
-    <t>登録日時は年月日のみ表示になっているか</t>
-  </si>
-  <si>
-    <t>更新日時は年月日のみ表示になっているか</t>
-  </si>
-  <si>
-    <t>操作には「編集」と「削除」のボタンがあるかどうか</t>
-  </si>
-  <si>
-    <t>ボタン</t>
-  </si>
-  <si>
-    <t>「削除」</t>
-  </si>
-  <si>
-    <t>削除をクリックするとhttp://localhost//account/delete.phpに遷移するか</t>
-  </si>
-  <si>
-    <t>「編集」</t>
-  </si>
-  <si>
-    <t>更新をクリックするとhttp://localhost//account/update.phpに遷移するか</t>
-  </si>
-  <si>
-    <t>アカウント登録</t>
-  </si>
-  <si>
-    <t>登録→一覧</t>
-  </si>
-  <si>
-    <t>登録→一覧で入力を確認</t>
-  </si>
-  <si>
-    <t>アカウント登録から指定文字で正常に登録完了まで進め、その後アカウント一覧をクリック、一番上に登録内容が更新されているか</t>
-  </si>
-  <si>
-    <t>先ほど登録したIDがプラス1されているか</t>
-  </si>
-  <si>
-    <t>登録日時は本日の日付になっているか</t>
-  </si>
-  <si>
-    <t>更新日時は本日の日付になっているか</t>
-  </si>
-  <si>
-    <t>MySQLでデータが0の時「アカウント一覧」ページでは「男」と表記されているか</t>
-  </si>
-  <si>
-    <t>MySQLでデータが1の時「アカウント一覧」ページでは「女」と表記されているか</t>
-  </si>
-  <si>
-    <t>MySQLでデータが0の時「アカウント一覧」ページでは「一般」と表記されているか</t>
-  </si>
-  <si>
-    <t>MySQLでデータが1の時「アカウント一覧」ページでは「管理者」と表記されているか</t>
-  </si>
-  <si>
-    <t>MySQLでデータが0の時「アカウント一覧」ページでは「無効」と表記されているか</t>
-  </si>
-  <si>
-    <t>MySQLでデータが1の時「アカウント一覧」ページでは「有効」と表記されているか</t>
-  </si>
-  <si>
-    <t>有効は現段階でない（あればエラー）</t>
-  </si>
-  <si>
-    <t>入力ホーム</t>
-  </si>
-  <si>
-    <t>正常値の登録</t>
-  </si>
-  <si>
-    <t>指定文字で入力をおこなってMYSQLに登録される</t>
-  </si>
-  <si>
-    <t>問題なくできる</t>
-  </si>
-  <si>
-    <t>http://localhost/account/regist.php　から入って登録</t>
-  </si>
-  <si>
-    <t>先の順でアカウント登録を正常値で行う</t>
-  </si>
-  <si>
-    <t>登録完了画面</t>
-  </si>
-  <si>
-    <t>メッセージの確認</t>
-  </si>
-  <si>
-    <t>登録完了しましたとでる</t>
-  </si>
-  <si>
-    <t>でない（list.phpにとぶ）（登録はできる）</t>
-  </si>
-  <si>
-    <t>登録完了ページではなくlist.phpに遷移するようになってしまっている</t>
-  </si>
-  <si>
-    <t>エラーの確認</t>
-  </si>
-  <si>
-    <t>登録完了できませんでしたとでる</t>
-  </si>
-  <si>
-    <t>でない（登録もできない）</t>
-  </si>
-  <si>
-    <t>正常値と異常値の混在</t>
-  </si>
-  <si>
-    <t>指定文字と異常値を混合させてエラーを確認（名前（姓））</t>
-  </si>
-  <si>
-    <t>異常値があればエラーで登録できない</t>
-  </si>
-  <si>
-    <t>常用漢字、ひらがな、
-全角半角カタカナ、
-全角半角英数字、
-記号、
-スペース
-全て混ぜる</t>
-  </si>
-  <si>
-    <t>指定文字と異常値を混合させてエラーを確認（名前（名））</t>
-  </si>
-  <si>
-    <t>指定文字と異常値を混合させてエラーを確認（カナ（姓））</t>
-  </si>
-  <si>
-    <t>指定文字と異常値を混合させてエラーを確認（カナ（名））</t>
-  </si>
-  <si>
-    <t>指定文字と異常値を混合させてエラーを確認（メールアドレス）</t>
-  </si>
-  <si>
-    <t>指定文字と異常値を混合させてエラーを確認（パスワード）</t>
-  </si>
-  <si>
-    <t>指定文字と異常値を混合させてエラーを確認（郵便番号※半角数字のみ）</t>
-  </si>
-  <si>
-    <t>指定文字と異常値を混合させてエラーを確認（住所（市区町村））</t>
-  </si>
-  <si>
-    <t>指定文字と異常値を混合させてエラーを確認（住所（番地））</t>
-  </si>
-  <si>
-    <t>MYSQL</t>
-  </si>
-  <si>
-    <t>diblog_account</t>
-  </si>
-  <si>
-    <t>登録データの確認</t>
-  </si>
-  <si>
-    <t>NO1~3で登録が無事に成功した場合、登録データが反映されているかを確認</t>
-  </si>
-  <si>
-    <t>３件追加されている</t>
-  </si>
-  <si>
-    <t>アカウント確認画面のフッターのCSSがはずれている</t>
-  </si>
-  <si>
-    <t>操作のボタンは「編集」「削除」がある</t>
-  </si>
-  <si>
-    <t>それぞれのページに遷移する</t>
-  </si>
-  <si>
-    <t>＠の後ろにひらがなを入れると通ってしまい
-アルファベットに変換されている「ぽ」→xn--99jなど</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1719,18 +1481,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -2048,14 +1798,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G158"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="13" width="21.375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -6160,9 +5907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFD9AE5-B6FD-4476-BAA8-BD4C9F4881E0}">
   <dimension ref="A1:K184"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106:C107"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -9869,5488 +9614,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471C042D-9C2F-46E9-8D44-B45D4C190838}">
-  <dimension ref="A1:K178"/>
-  <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="99.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="118.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="41.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="30.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="E25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="E26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I28" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="E29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="E30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="E31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="E32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="E33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="E34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="E35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="E36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" t="s">
-        <v>25</v>
-      </c>
-      <c r="I36" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="E37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="E38" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" t="s">
-        <v>41</v>
-      </c>
-      <c r="I38" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="E39" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" t="s">
-        <v>44</v>
-      </c>
-      <c r="I39" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="D40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="E41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="E42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" t="s">
-        <v>28</v>
-      </c>
-      <c r="I42" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="E43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" t="s">
-        <v>28</v>
-      </c>
-      <c r="I43" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="E44" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" t="s">
-        <v>28</v>
-      </c>
-      <c r="I44" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="E45" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="E46" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="E47" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="E48" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" t="s">
-        <v>25</v>
-      </c>
-      <c r="I48" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="E49" t="s">
-        <v>36</v>
-      </c>
-      <c r="F49" t="s">
-        <v>37</v>
-      </c>
-      <c r="G49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H49" t="s">
-        <v>38</v>
-      </c>
-      <c r="I49" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="E50" t="s">
-        <v>39</v>
-      </c>
-      <c r="F50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G50" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="E51" t="s">
-        <v>42</v>
-      </c>
-      <c r="F51" t="s">
-        <v>43</v>
-      </c>
-      <c r="G51" t="s">
-        <v>44</v>
-      </c>
-      <c r="H51" t="s">
-        <v>44</v>
-      </c>
-      <c r="I51" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="D52" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" t="s">
-        <v>50</v>
-      </c>
-      <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>28</v>
-      </c>
-      <c r="I52" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="40.5">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="D53" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" t="s">
-        <v>52</v>
-      </c>
-      <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" t="s">
-        <v>28</v>
-      </c>
-      <c r="H53" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="I53" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="E54" t="s">
-        <v>53</v>
-      </c>
-      <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" t="s">
-        <v>25</v>
-      </c>
-      <c r="I54" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="E55" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" t="s">
-        <v>28</v>
-      </c>
-      <c r="I55" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="E56" t="s">
-        <v>55</v>
-      </c>
-      <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I56" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="E57" t="s">
-        <v>56</v>
-      </c>
-      <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s">
-        <v>28</v>
-      </c>
-      <c r="H57" t="s">
-        <v>28</v>
-      </c>
-      <c r="I57" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="E58" t="s">
-        <v>57</v>
-      </c>
-      <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
-        <v>28</v>
-      </c>
-      <c r="H58" t="s">
-        <v>28</v>
-      </c>
-      <c r="I58" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="E59" t="s">
-        <v>58</v>
-      </c>
-      <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>28</v>
-      </c>
-      <c r="H59" t="s">
-        <v>28</v>
-      </c>
-      <c r="I59" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="E60" t="s">
-        <v>59</v>
-      </c>
-      <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s">
-        <v>28</v>
-      </c>
-      <c r="H60" t="s">
-        <v>28</v>
-      </c>
-      <c r="I60" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="E61" t="s">
-        <v>36</v>
-      </c>
-      <c r="F61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G61" t="s">
-        <v>38</v>
-      </c>
-      <c r="H61" t="s">
-        <v>38</v>
-      </c>
-      <c r="I61" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K61" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="E62" t="s">
-        <v>39</v>
-      </c>
-      <c r="F62" t="s">
-        <v>40</v>
-      </c>
-      <c r="G62" t="s">
-        <v>41</v>
-      </c>
-      <c r="H62" t="s">
-        <v>41</v>
-      </c>
-      <c r="I62" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="E63" t="s">
-        <v>60</v>
-      </c>
-      <c r="F63" t="s">
-        <v>61</v>
-      </c>
-      <c r="G63" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" t="s">
-        <v>62</v>
-      </c>
-      <c r="I63" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K63" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="D64" t="s">
-        <v>63</v>
-      </c>
-      <c r="E64" t="s">
-        <v>340</v>
-      </c>
-      <c r="F64" t="s">
-        <v>340</v>
-      </c>
-      <c r="G64" t="s">
-        <v>340</v>
-      </c>
-      <c r="H64" t="s">
-        <v>340</v>
-      </c>
-      <c r="I64" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K64" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="E65" t="s">
-        <v>36</v>
-      </c>
-      <c r="F65" t="s">
-        <v>65</v>
-      </c>
-      <c r="G65" t="s">
-        <v>66</v>
-      </c>
-      <c r="H65" t="s">
-        <v>66</v>
-      </c>
-      <c r="I65" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="E66" t="s">
-        <v>39</v>
-      </c>
-      <c r="F66" t="s">
-        <v>40</v>
-      </c>
-      <c r="G66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H66" t="s">
-        <v>41</v>
-      </c>
-      <c r="I66" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K66" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="E67" t="s">
-        <v>42</v>
-      </c>
-      <c r="F67" t="s">
-        <v>43</v>
-      </c>
-      <c r="G67" t="s">
-        <v>44</v>
-      </c>
-      <c r="H67" t="s">
-        <v>44</v>
-      </c>
-      <c r="I67" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K67" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="D68" t="s">
-        <v>67</v>
-      </c>
-      <c r="E68" t="s">
-        <v>68</v>
-      </c>
-      <c r="F68" t="s">
-        <v>69</v>
-      </c>
-      <c r="G68" t="s">
-        <v>38</v>
-      </c>
-      <c r="H68" t="s">
-        <v>38</v>
-      </c>
-      <c r="I68" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K68" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="E69" t="s">
-        <v>68</v>
-      </c>
-      <c r="F69" t="s">
-        <v>70</v>
-      </c>
-      <c r="G69" t="s">
-        <v>38</v>
-      </c>
-      <c r="H69" t="s">
-        <v>38</v>
-      </c>
-      <c r="I69" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="E70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F70" t="s">
-        <v>68</v>
-      </c>
-      <c r="G70" t="s">
-        <v>71</v>
-      </c>
-      <c r="H70" t="s">
-        <v>71</v>
-      </c>
-      <c r="I70" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K70" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="E71" t="s">
-        <v>72</v>
-      </c>
-      <c r="F71" t="s">
-        <v>73</v>
-      </c>
-      <c r="G71" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" t="s">
-        <v>17</v>
-      </c>
-      <c r="I71" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K71" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="E72" t="s">
-        <v>74</v>
-      </c>
-      <c r="F72" t="s">
-        <v>75</v>
-      </c>
-      <c r="G72" t="s">
-        <v>76</v>
-      </c>
-      <c r="H72" t="s">
-        <v>76</v>
-      </c>
-      <c r="I72" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K72" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="D73" t="s">
-        <v>78</v>
-      </c>
-      <c r="E73" t="s">
-        <v>79</v>
-      </c>
-      <c r="F73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" t="s">
-        <v>28</v>
-      </c>
-      <c r="H73" t="s">
-        <v>28</v>
-      </c>
-      <c r="I73" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K73" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="E74" t="s">
-        <v>80</v>
-      </c>
-      <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" t="s">
-        <v>28</v>
-      </c>
-      <c r="H74" t="s">
-        <v>28</v>
-      </c>
-      <c r="I74" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K74" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="E75" t="s">
-        <v>81</v>
-      </c>
-      <c r="F75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" t="s">
-        <v>28</v>
-      </c>
-      <c r="H75" t="s">
-        <v>28</v>
-      </c>
-      <c r="I75" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K75" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="E76" t="s">
-        <v>82</v>
-      </c>
-      <c r="F76" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" t="s">
-        <v>28</v>
-      </c>
-      <c r="H76" t="s">
-        <v>28</v>
-      </c>
-      <c r="I76" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K76" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="E77" t="s">
-        <v>83</v>
-      </c>
-      <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s">
-        <v>25</v>
-      </c>
-      <c r="H77" t="s">
-        <v>25</v>
-      </c>
-      <c r="I77" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K77" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="E78" t="s">
-        <v>84</v>
-      </c>
-      <c r="F78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" t="s">
-        <v>28</v>
-      </c>
-      <c r="H78" t="s">
-        <v>28</v>
-      </c>
-      <c r="I78" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K78" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="E79" t="s">
-        <v>85</v>
-      </c>
-      <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>28</v>
-      </c>
-      <c r="H79" t="s">
-        <v>28</v>
-      </c>
-      <c r="I79" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K79" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="E80" t="s">
-        <v>86</v>
-      </c>
-      <c r="F80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" t="s">
-        <v>28</v>
-      </c>
-      <c r="H80" t="s">
-        <v>28</v>
-      </c>
-      <c r="I80" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K80" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="E81" t="s">
-        <v>87</v>
-      </c>
-      <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>28</v>
-      </c>
-      <c r="H81" t="s">
-        <v>28</v>
-      </c>
-      <c r="I81" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K81" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="E82" t="s">
-        <v>36</v>
-      </c>
-      <c r="F82" t="s">
-        <v>37</v>
-      </c>
-      <c r="G82" t="s">
-        <v>38</v>
-      </c>
-      <c r="H82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I82" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K82" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="E83" t="s">
-        <v>39</v>
-      </c>
-      <c r="F83" t="s">
-        <v>40</v>
-      </c>
-      <c r="G83" t="s">
-        <v>41</v>
-      </c>
-      <c r="H83" t="s">
-        <v>41</v>
-      </c>
-      <c r="I83" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K83" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="E84" t="s">
-        <v>88</v>
-      </c>
-      <c r="F84" t="s">
-        <v>89</v>
-      </c>
-      <c r="G84" t="s">
-        <v>90</v>
-      </c>
-      <c r="H84" t="s">
-        <v>90</v>
-      </c>
-      <c r="I84" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K84" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="D85" t="s">
-        <v>91</v>
-      </c>
-      <c r="E85" t="s">
-        <v>92</v>
-      </c>
-      <c r="F85" t="s">
-        <v>93</v>
-      </c>
-      <c r="G85" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" t="s">
-        <v>17</v>
-      </c>
-      <c r="I85" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K85" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="E86" t="s">
-        <v>94</v>
-      </c>
-      <c r="F86" t="s">
-        <v>95</v>
-      </c>
-      <c r="G86" t="s">
-        <v>17</v>
-      </c>
-      <c r="H86" t="s">
-        <v>17</v>
-      </c>
-      <c r="I86" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K86" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="E87" t="s">
-        <v>96</v>
-      </c>
-      <c r="F87" t="s">
-        <v>97</v>
-      </c>
-      <c r="G87" t="s">
-        <v>98</v>
-      </c>
-      <c r="H87" t="s">
-        <v>98</v>
-      </c>
-      <c r="I87" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K87" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="E88" t="s">
-        <v>99</v>
-      </c>
-      <c r="F88" t="s">
-        <v>100</v>
-      </c>
-      <c r="G88" t="s">
-        <v>17</v>
-      </c>
-      <c r="H88" t="s">
-        <v>17</v>
-      </c>
-      <c r="I88" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K88" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="E89" t="s">
-        <v>101</v>
-      </c>
-      <c r="F89" t="s">
-        <v>102</v>
-      </c>
-      <c r="G89" t="s">
-        <v>41</v>
-      </c>
-      <c r="H89" t="s">
-        <v>41</v>
-      </c>
-      <c r="I89" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K89" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="D90" t="s">
-        <v>103</v>
-      </c>
-      <c r="E90" t="s">
-        <v>23</v>
-      </c>
-      <c r="F90" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
-      <c r="H90" t="s">
-        <v>25</v>
-      </c>
-      <c r="I90" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K90" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="D91" t="s">
-        <v>104</v>
-      </c>
-      <c r="E91" t="s">
-        <v>26</v>
-      </c>
-      <c r="F91" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
-      <c r="H91" t="s">
-        <v>25</v>
-      </c>
-      <c r="I91" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K91" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E92" t="s">
-        <v>27</v>
-      </c>
-      <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>28</v>
-      </c>
-      <c r="H92" t="s">
-        <v>28</v>
-      </c>
-      <c r="I92" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K92" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="E93" t="s">
-        <v>30</v>
-      </c>
-      <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" t="s">
-        <v>28</v>
-      </c>
-      <c r="H93" t="s">
-        <v>28</v>
-      </c>
-      <c r="I93" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K93" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="E94" t="s">
-        <v>31</v>
-      </c>
-      <c r="F94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" t="s">
-        <v>25</v>
-      </c>
-      <c r="H94" t="s">
-        <v>25</v>
-      </c>
-      <c r="I94" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K94" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="E95" t="s">
-        <v>32</v>
-      </c>
-      <c r="F95" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" t="s">
-        <v>28</v>
-      </c>
-      <c r="H95" t="s">
-        <v>28</v>
-      </c>
-      <c r="I95" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K95" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="E96" t="s">
-        <v>106</v>
-      </c>
-      <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
-      <c r="H96" t="s">
-        <v>25</v>
-      </c>
-      <c r="I96" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K96" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="E97" t="s">
-        <v>34</v>
-      </c>
-      <c r="F97" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" t="s">
-        <v>28</v>
-      </c>
-      <c r="H97" t="s">
-        <v>28</v>
-      </c>
-      <c r="I97" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K97" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="E98" t="s">
-        <v>107</v>
-      </c>
-      <c r="F98" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" t="s">
-        <v>25</v>
-      </c>
-      <c r="H98" t="s">
-        <v>25</v>
-      </c>
-      <c r="I98" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K98" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="E99" t="s">
-        <v>36</v>
-      </c>
-      <c r="F99" t="s">
-        <v>37</v>
-      </c>
-      <c r="G99" t="s">
-        <v>38</v>
-      </c>
-      <c r="H99" t="s">
-        <v>38</v>
-      </c>
-      <c r="I99" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K99" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="E100" t="s">
-        <v>39</v>
-      </c>
-      <c r="F100" t="s">
-        <v>40</v>
-      </c>
-      <c r="G100" t="s">
-        <v>41</v>
-      </c>
-      <c r="H100" t="s">
-        <v>41</v>
-      </c>
-      <c r="I100" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K100" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="E101" t="s">
-        <v>42</v>
-      </c>
-      <c r="F101" t="s">
-        <v>43</v>
-      </c>
-      <c r="G101" t="s">
-        <v>44</v>
-      </c>
-      <c r="H101" t="s">
-        <v>44</v>
-      </c>
-      <c r="I101" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K101" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="D102" t="s">
-        <v>108</v>
-      </c>
-      <c r="E102" t="s">
-        <v>50</v>
-      </c>
-      <c r="F102" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" t="s">
-        <v>25</v>
-      </c>
-      <c r="H102" t="s">
-        <v>25</v>
-      </c>
-      <c r="I102" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K102" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="D103" t="s">
-        <v>104</v>
-      </c>
-      <c r="E103" t="s">
-        <v>52</v>
-      </c>
-      <c r="F103" t="s">
-        <v>24</v>
-      </c>
-      <c r="G103" t="s">
-        <v>25</v>
-      </c>
-      <c r="H103" t="s">
-        <v>25</v>
-      </c>
-      <c r="I103" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K103" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E104" t="s">
-        <v>109</v>
-      </c>
-      <c r="F104" t="s">
-        <v>24</v>
-      </c>
-      <c r="G104" t="s">
-        <v>28</v>
-      </c>
-      <c r="H104" t="s">
-        <v>28</v>
-      </c>
-      <c r="I104" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K104" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="E105" t="s">
-        <v>54</v>
-      </c>
-      <c r="F105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" t="s">
-        <v>28</v>
-      </c>
-      <c r="H105" t="s">
-        <v>28</v>
-      </c>
-      <c r="I105" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K105" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="E106" t="s">
-        <v>55</v>
-      </c>
-      <c r="F106" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" t="s">
-        <v>25</v>
-      </c>
-      <c r="H106" t="s">
-        <v>25</v>
-      </c>
-      <c r="I106" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K106" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="E107" t="s">
-        <v>56</v>
-      </c>
-      <c r="F107" t="s">
-        <v>24</v>
-      </c>
-      <c r="G107" t="s">
-        <v>28</v>
-      </c>
-      <c r="H107" t="s">
-        <v>28</v>
-      </c>
-      <c r="I107" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K107" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="E108" t="s">
-        <v>110</v>
-      </c>
-      <c r="F108" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" t="s">
-        <v>25</v>
-      </c>
-      <c r="H108" t="s">
-        <v>25</v>
-      </c>
-      <c r="I108" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K108" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="E109" t="s">
-        <v>58</v>
-      </c>
-      <c r="F109" t="s">
-        <v>24</v>
-      </c>
-      <c r="G109" t="s">
-        <v>28</v>
-      </c>
-      <c r="H109" t="s">
-        <v>28</v>
-      </c>
-      <c r="I109" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K109" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="E110" t="s">
-        <v>111</v>
-      </c>
-      <c r="F110" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" t="s">
-        <v>25</v>
-      </c>
-      <c r="H110" t="s">
-        <v>25</v>
-      </c>
-      <c r="I110" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K110" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="E111" t="s">
-        <v>36</v>
-      </c>
-      <c r="F111" t="s">
-        <v>37</v>
-      </c>
-      <c r="G111" t="s">
-        <v>38</v>
-      </c>
-      <c r="H111" t="s">
-        <v>38</v>
-      </c>
-      <c r="I111" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K111" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="E112" t="s">
-        <v>39</v>
-      </c>
-      <c r="F112" t="s">
-        <v>40</v>
-      </c>
-      <c r="G112" t="s">
-        <v>41</v>
-      </c>
-      <c r="H112" t="s">
-        <v>41</v>
-      </c>
-      <c r="I112" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K112" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="E113" t="s">
-        <v>60</v>
-      </c>
-      <c r="F113" t="s">
-        <v>112</v>
-      </c>
-      <c r="G113" t="s">
-        <v>62</v>
-      </c>
-      <c r="H113" t="s">
-        <v>62</v>
-      </c>
-      <c r="I113" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K113" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="D114" t="s">
-        <v>113</v>
-      </c>
-      <c r="E114" t="s">
-        <v>99</v>
-      </c>
-      <c r="F114" t="s">
-        <v>100</v>
-      </c>
-      <c r="G114" t="s">
-        <v>17</v>
-      </c>
-      <c r="H114" t="s">
-        <v>17</v>
-      </c>
-      <c r="I114" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K114" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="E115" t="s">
-        <v>114</v>
-      </c>
-      <c r="F115" t="s">
-        <v>115</v>
-      </c>
-      <c r="G115" t="s">
-        <v>17</v>
-      </c>
-      <c r="H115" t="s">
-        <v>17</v>
-      </c>
-      <c r="I115" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K115" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="E116" t="s">
-        <v>114</v>
-      </c>
-      <c r="F116" t="s">
-        <v>116</v>
-      </c>
-      <c r="G116" t="s">
-        <v>17</v>
-      </c>
-      <c r="H116" t="s">
-        <v>17</v>
-      </c>
-      <c r="I116" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K116" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="E117" t="s">
-        <v>101</v>
-      </c>
-      <c r="F117" t="s">
-        <v>102</v>
-      </c>
-      <c r="G117" t="s">
-        <v>117</v>
-      </c>
-      <c r="H117" t="s">
-        <v>117</v>
-      </c>
-      <c r="I117" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K117" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="C118" t="s">
-        <v>118</v>
-      </c>
-      <c r="D118" t="s">
-        <v>119</v>
-      </c>
-      <c r="E118" t="s">
-        <v>120</v>
-      </c>
-      <c r="F118" t="s">
-        <v>121</v>
-      </c>
-      <c r="G118" t="s">
-        <v>122</v>
-      </c>
-      <c r="H118" t="s">
-        <v>122</v>
-      </c>
-      <c r="I118" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K118" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="D119" t="s">
-        <v>119</v>
-      </c>
-      <c r="E119" t="s">
-        <v>123</v>
-      </c>
-      <c r="F119" t="s">
-        <v>124</v>
-      </c>
-      <c r="G119" t="s">
-        <v>125</v>
-      </c>
-      <c r="H119" t="s">
-        <v>125</v>
-      </c>
-      <c r="I119" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K119" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="14.25">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>126</v>
-      </c>
-      <c r="C120" t="s">
-        <v>127</v>
-      </c>
-      <c r="D120" t="s">
-        <v>128</v>
-      </c>
-      <c r="E120" t="s">
-        <v>129</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G120" t="s">
-        <v>17</v>
-      </c>
-      <c r="H120" t="s">
-        <v>17</v>
-      </c>
-      <c r="I120" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K120" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="E121" t="s">
-        <v>132</v>
-      </c>
-      <c r="F121" t="s">
-        <v>133</v>
-      </c>
-      <c r="G121" t="s">
-        <v>17</v>
-      </c>
-      <c r="H121" t="s">
-        <v>17</v>
-      </c>
-      <c r="I121" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K121" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="C122" t="s">
-        <v>118</v>
-      </c>
-      <c r="D122" t="s">
-        <v>134</v>
-      </c>
-      <c r="E122" t="s">
-        <v>135</v>
-      </c>
-      <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s">
-        <v>11</v>
-      </c>
-      <c r="H122" t="s">
-        <v>11</v>
-      </c>
-      <c r="I122" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K122" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="E123" t="s">
-        <v>136</v>
-      </c>
-      <c r="F123" t="s">
-        <v>137</v>
-      </c>
-      <c r="G123" t="s">
-        <v>17</v>
-      </c>
-      <c r="H123" t="s">
-        <v>17</v>
-      </c>
-      <c r="I123" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K123" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="D124" t="s">
-        <v>138</v>
-      </c>
-      <c r="E124" t="s">
-        <v>135</v>
-      </c>
-      <c r="F124" t="s">
-        <v>139</v>
-      </c>
-      <c r="G124" t="s">
-        <v>139</v>
-      </c>
-      <c r="H124" t="s">
-        <v>139</v>
-      </c>
-      <c r="I124" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K124" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>139</v>
-      </c>
-      <c r="C125" t="s">
-        <v>139</v>
-      </c>
-      <c r="D125" t="s">
-        <v>140</v>
-      </c>
-      <c r="E125" t="s">
-        <v>141</v>
-      </c>
-      <c r="F125" t="s">
-        <v>142</v>
-      </c>
-      <c r="G125" t="s">
-        <v>17</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="I125" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K125" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="C126" t="s">
-        <v>118</v>
-      </c>
-      <c r="D126" t="s">
-        <v>147</v>
-      </c>
-      <c r="E126" t="s">
-        <v>135</v>
-      </c>
-      <c r="F126" t="s">
-        <v>148</v>
-      </c>
-      <c r="G126" t="s">
-        <v>148</v>
-      </c>
-      <c r="H126" t="s">
-        <v>148</v>
-      </c>
-      <c r="I126" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K126" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>150</v>
-      </c>
-      <c r="C127" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" t="s">
-        <v>151</v>
-      </c>
-      <c r="E127" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" t="s">
-        <v>15</v>
-      </c>
-      <c r="G127" t="s">
-        <v>16</v>
-      </c>
-      <c r="H127" t="s">
-        <v>16</v>
-      </c>
-      <c r="I127" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K127" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="D128" t="s">
-        <v>151</v>
-      </c>
-      <c r="E128" t="s">
-        <v>19</v>
-      </c>
-      <c r="F128" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" t="s">
-        <v>20</v>
-      </c>
-      <c r="H128" t="s">
-        <v>20</v>
-      </c>
-      <c r="I128" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K128" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>126</v>
-      </c>
-      <c r="C129" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" t="s">
-        <v>151</v>
-      </c>
-      <c r="E129" t="s">
-        <v>14</v>
-      </c>
-      <c r="F129" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" t="s">
-        <v>16</v>
-      </c>
-      <c r="H129" t="s">
-        <v>16</v>
-      </c>
-      <c r="I129" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K129" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="D130" t="s">
-        <v>151</v>
-      </c>
-      <c r="E130" t="s">
-        <v>19</v>
-      </c>
-      <c r="F130" t="s">
-        <v>15</v>
-      </c>
-      <c r="G130" t="s">
-        <v>20</v>
-      </c>
-      <c r="H130" t="s">
-        <v>20</v>
-      </c>
-      <c r="I130" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K130" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>139</v>
-      </c>
-      <c r="C131" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" t="s">
-        <v>151</v>
-      </c>
-      <c r="E131" t="s">
-        <v>14</v>
-      </c>
-      <c r="F131" t="s">
-        <v>15</v>
-      </c>
-      <c r="G131" t="s">
-        <v>16</v>
-      </c>
-      <c r="H131" t="s">
-        <v>16</v>
-      </c>
-      <c r="I131" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K131" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="D132" t="s">
-        <v>151</v>
-      </c>
-      <c r="E132" t="s">
-        <v>19</v>
-      </c>
-      <c r="F132" t="s">
-        <v>15</v>
-      </c>
-      <c r="G132" t="s">
-        <v>20</v>
-      </c>
-      <c r="H132" t="s">
-        <v>20</v>
-      </c>
-      <c r="I132" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K132" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>153</v>
-      </c>
-      <c r="C133" t="s">
-        <v>154</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E133" t="s">
-        <v>156</v>
-      </c>
-      <c r="F133" t="s">
-        <v>157</v>
-      </c>
-      <c r="G133" t="s">
-        <v>17</v>
-      </c>
-      <c r="H133" t="s">
-        <v>17</v>
-      </c>
-      <c r="I133" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K133" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E134" t="s">
-        <v>156</v>
-      </c>
-      <c r="F134" t="s">
-        <v>159</v>
-      </c>
-      <c r="G134" t="s">
-        <v>17</v>
-      </c>
-      <c r="H134" t="s">
-        <v>17</v>
-      </c>
-      <c r="I134" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K134" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>160</v>
-      </c>
-      <c r="C135" t="s">
-        <v>161</v>
-      </c>
-      <c r="D135" t="s">
-        <v>162</v>
-      </c>
-      <c r="E135" t="s">
-        <v>163</v>
-      </c>
-      <c r="F135" t="s">
-        <v>164</v>
-      </c>
-      <c r="G135" t="s">
-        <v>17</v>
-      </c>
-      <c r="H135" t="s">
-        <v>17</v>
-      </c>
-      <c r="I135" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K135" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="C136" t="s">
-        <v>165</v>
-      </c>
-      <c r="D136" t="s">
-        <v>166</v>
-      </c>
-      <c r="E136" t="s">
-        <v>167</v>
-      </c>
-      <c r="F136" t="s">
-        <v>164</v>
-      </c>
-      <c r="G136" t="s">
-        <v>17</v>
-      </c>
-      <c r="H136" t="s">
-        <v>17</v>
-      </c>
-      <c r="I136" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K136" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137">
-        <v>136</v>
-      </c>
-      <c r="C137" t="s">
-        <v>168</v>
-      </c>
-      <c r="D137" t="s">
-        <v>169</v>
-      </c>
-      <c r="E137" t="s">
-        <v>170</v>
-      </c>
-      <c r="F137" t="s">
-        <v>164</v>
-      </c>
-      <c r="G137" t="s">
-        <v>17</v>
-      </c>
-      <c r="H137" t="s">
-        <v>17</v>
-      </c>
-      <c r="I137" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K137" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="C138" t="s">
-        <v>171</v>
-      </c>
-      <c r="D138" t="s">
-        <v>172</v>
-      </c>
-      <c r="E138" t="s">
-        <v>173</v>
-      </c>
-      <c r="F138" t="s">
-        <v>164</v>
-      </c>
-      <c r="G138" t="s">
-        <v>17</v>
-      </c>
-      <c r="H138" t="s">
-        <v>17</v>
-      </c>
-      <c r="I138" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K138" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="C139" t="s">
-        <v>174</v>
-      </c>
-      <c r="D139" t="s">
-        <v>175</v>
-      </c>
-      <c r="E139" t="s">
-        <v>176</v>
-      </c>
-      <c r="F139" t="s">
-        <v>164</v>
-      </c>
-      <c r="G139" t="s">
-        <v>17</v>
-      </c>
-      <c r="H139" t="s">
-        <v>17</v>
-      </c>
-      <c r="I139" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K139" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="C140" t="s">
-        <v>177</v>
-      </c>
-      <c r="D140" t="s">
-        <v>178</v>
-      </c>
-      <c r="E140" t="s">
-        <v>179</v>
-      </c>
-      <c r="F140" t="s">
-        <v>164</v>
-      </c>
-      <c r="G140" t="s">
-        <v>17</v>
-      </c>
-      <c r="H140" t="s">
-        <v>17</v>
-      </c>
-      <c r="I140" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K140" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="14.25">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="C141" t="s">
-        <v>180</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F141" t="s">
-        <v>164</v>
-      </c>
-      <c r="G141" t="s">
-        <v>17</v>
-      </c>
-      <c r="H141" t="s">
-        <v>17</v>
-      </c>
-      <c r="I141" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K141" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="14.25">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F142" t="s">
-        <v>164</v>
-      </c>
-      <c r="G142" t="s">
-        <v>17</v>
-      </c>
-      <c r="H142" t="s">
-        <v>17</v>
-      </c>
-      <c r="I142" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K142" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="14.25">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="C143" t="s">
-        <v>185</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F143" t="s">
-        <v>164</v>
-      </c>
-      <c r="G143" t="s">
-        <v>17</v>
-      </c>
-      <c r="H143" t="s">
-        <v>17</v>
-      </c>
-      <c r="I143" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K143" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="14.25">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="C144" t="s">
-        <v>187</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F144" t="s">
-        <v>164</v>
-      </c>
-      <c r="G144" t="s">
-        <v>17</v>
-      </c>
-      <c r="H144" t="s">
-        <v>17</v>
-      </c>
-      <c r="I144" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K144" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" ht="14.25">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="C145" t="s">
-        <v>189</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F145" t="s">
-        <v>164</v>
-      </c>
-      <c r="G145" t="s">
-        <v>17</v>
-      </c>
-      <c r="H145" t="s">
-        <v>17</v>
-      </c>
-      <c r="I145" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K145" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" ht="14.25">
-      <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="C146" t="s">
-        <v>191</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F146" t="s">
-        <v>164</v>
-      </c>
-      <c r="G146" t="s">
-        <v>17</v>
-      </c>
-      <c r="H146" t="s">
-        <v>17</v>
-      </c>
-      <c r="I146" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K146" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="14.25">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="C147" t="s">
-        <v>193</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F147" t="s">
-        <v>164</v>
-      </c>
-      <c r="G147" t="s">
-        <v>17</v>
-      </c>
-      <c r="H147" t="s">
-        <v>17</v>
-      </c>
-      <c r="I147" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K147" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="14.25">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="C148" t="s">
-        <v>195</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F148" t="s">
-        <v>164</v>
-      </c>
-      <c r="G148" t="s">
-        <v>17</v>
-      </c>
-      <c r="H148" t="s">
-        <v>17</v>
-      </c>
-      <c r="I148" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K148" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="14.25">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="C149" t="s">
-        <v>197</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F149" t="s">
-        <v>164</v>
-      </c>
-      <c r="G149" t="s">
-        <v>17</v>
-      </c>
-      <c r="H149" t="s">
-        <v>17</v>
-      </c>
-      <c r="I149" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K149" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="14.25">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>153</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="F150" t="s">
-        <v>15</v>
-      </c>
-      <c r="G150" t="s">
-        <v>343</v>
-      </c>
-      <c r="H150" t="s">
-        <v>343</v>
-      </c>
-      <c r="I150" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K150" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151">
-        <v>150</v>
-      </c>
-      <c r="B151" t="s">
-        <v>344</v>
-      </c>
-      <c r="C151" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" t="s">
-        <v>13</v>
-      </c>
-      <c r="E151" t="s">
-        <v>14</v>
-      </c>
-      <c r="F151" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" t="s">
-        <v>16</v>
-      </c>
-      <c r="H151" t="s">
-        <v>16</v>
-      </c>
-      <c r="I151" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K151" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152">
-        <v>151</v>
-      </c>
-      <c r="D152" t="s">
-        <v>18</v>
-      </c>
-      <c r="E152" t="s">
-        <v>19</v>
-      </c>
-      <c r="F152" t="s">
-        <v>15</v>
-      </c>
-      <c r="G152" t="s">
-        <v>20</v>
-      </c>
-      <c r="H152" t="s">
-        <v>20</v>
-      </c>
-      <c r="I152" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K152" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
-      <c r="A153">
-        <v>152</v>
-      </c>
-      <c r="D153" t="s">
-        <v>344</v>
-      </c>
-      <c r="E153" t="s">
-        <v>345</v>
-      </c>
-      <c r="F153" t="s">
-        <v>15</v>
-      </c>
-      <c r="G153" t="s">
-        <v>343</v>
-      </c>
-      <c r="H153" t="s">
-        <v>343</v>
-      </c>
-      <c r="K153" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" ht="39.75" customHeight="1">
-      <c r="A154">
-        <v>153</v>
-      </c>
-      <c r="C154" t="s">
-        <v>346</v>
-      </c>
-      <c r="D154" t="s">
-        <v>347</v>
-      </c>
-      <c r="E154" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="F154" t="s">
-        <v>164</v>
-      </c>
-      <c r="K154" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155">
-        <v>154</v>
-      </c>
-      <c r="E155" t="s">
-        <v>349</v>
-      </c>
-      <c r="F155" t="s">
-        <v>164</v>
-      </c>
-      <c r="G155" t="s">
-        <v>17</v>
-      </c>
-      <c r="H155" t="s">
-        <v>17</v>
-      </c>
-      <c r="K155" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156">
-        <v>155</v>
-      </c>
-      <c r="E156" t="s">
-        <v>350</v>
-      </c>
-      <c r="F156" t="s">
-        <v>164</v>
-      </c>
-      <c r="G156" t="s">
-        <v>17</v>
-      </c>
-      <c r="H156" t="s">
-        <v>17</v>
-      </c>
-      <c r="K156" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157">
-        <v>156</v>
-      </c>
-      <c r="E157" t="s">
-        <v>351</v>
-      </c>
-      <c r="F157" t="s">
-        <v>164</v>
-      </c>
-      <c r="G157" t="s">
-        <v>17</v>
-      </c>
-      <c r="H157" t="s">
-        <v>17</v>
-      </c>
-      <c r="K157" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158">
-        <v>157</v>
-      </c>
-      <c r="E158" t="s">
-        <v>352</v>
-      </c>
-      <c r="F158" t="s">
-        <v>164</v>
-      </c>
-      <c r="G158" t="s">
-        <v>17</v>
-      </c>
-      <c r="H158" t="s">
-        <v>17</v>
-      </c>
-      <c r="K158" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159">
-        <v>158</v>
-      </c>
-      <c r="E159" t="s">
-        <v>353</v>
-      </c>
-      <c r="F159" t="s">
-        <v>164</v>
-      </c>
-      <c r="G159" t="s">
-        <v>17</v>
-      </c>
-      <c r="H159" t="s">
-        <v>17</v>
-      </c>
-      <c r="K159" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160">
-        <v>159</v>
-      </c>
-      <c r="E160" t="s">
-        <v>354</v>
-      </c>
-      <c r="F160" t="s">
-        <v>164</v>
-      </c>
-      <c r="G160" t="s">
-        <v>17</v>
-      </c>
-      <c r="H160" t="s">
-        <v>17</v>
-      </c>
-      <c r="K160" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161">
-        <v>160</v>
-      </c>
-      <c r="E161" t="s">
-        <v>355</v>
-      </c>
-      <c r="F161" t="s">
-        <v>164</v>
-      </c>
-      <c r="G161" t="s">
-        <v>17</v>
-      </c>
-      <c r="H161" t="s">
-        <v>17</v>
-      </c>
-      <c r="K161" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
-      <c r="A162">
-        <v>161</v>
-      </c>
-      <c r="E162" t="s">
-        <v>356</v>
-      </c>
-      <c r="F162" t="s">
-        <v>164</v>
-      </c>
-      <c r="G162" t="s">
-        <v>17</v>
-      </c>
-      <c r="H162" t="s">
-        <v>17</v>
-      </c>
-      <c r="K162" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163">
-        <v>162</v>
-      </c>
-      <c r="E163" t="s">
-        <v>357</v>
-      </c>
-      <c r="F163" t="s">
-        <v>164</v>
-      </c>
-      <c r="G163" t="s">
-        <v>17</v>
-      </c>
-      <c r="H163" t="s">
-        <v>17</v>
-      </c>
-      <c r="K163" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
-      <c r="A164">
-        <v>163</v>
-      </c>
-      <c r="E164" t="s">
-        <v>358</v>
-      </c>
-      <c r="F164" t="s">
-        <v>164</v>
-      </c>
-      <c r="G164" t="s">
-        <v>17</v>
-      </c>
-      <c r="H164" t="s">
-        <v>17</v>
-      </c>
-      <c r="K164" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="A165">
-        <v>164</v>
-      </c>
-      <c r="E165" t="s">
-        <v>359</v>
-      </c>
-      <c r="F165" t="s">
-        <v>164</v>
-      </c>
-      <c r="G165" t="s">
-        <v>17</v>
-      </c>
-      <c r="H165" t="s">
-        <v>17</v>
-      </c>
-      <c r="K165" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="A166">
-        <v>165</v>
-      </c>
-      <c r="E166" t="s">
-        <v>360</v>
-      </c>
-      <c r="F166" t="s">
-        <v>164</v>
-      </c>
-      <c r="G166" t="s">
-        <v>17</v>
-      </c>
-      <c r="H166" t="s">
-        <v>17</v>
-      </c>
-      <c r="K166" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="A167">
-        <v>166</v>
-      </c>
-      <c r="C167" t="s">
-        <v>361</v>
-      </c>
-      <c r="D167" t="s">
-        <v>362</v>
-      </c>
-      <c r="E167" t="s">
-        <v>363</v>
-      </c>
-      <c r="F167" t="s">
-        <v>164</v>
-      </c>
-      <c r="G167" t="s">
-        <v>17</v>
-      </c>
-      <c r="H167" t="s">
-        <v>17</v>
-      </c>
-      <c r="K167" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
-      <c r="A168">
-        <v>167</v>
-      </c>
-      <c r="D168" t="s">
-        <v>364</v>
-      </c>
-      <c r="E168" t="s">
-        <v>365</v>
-      </c>
-      <c r="F168" t="s">
-        <v>164</v>
-      </c>
-      <c r="G168" t="s">
-        <v>17</v>
-      </c>
-      <c r="H168" t="s">
-        <v>17</v>
-      </c>
-      <c r="K168" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169">
-        <v>168</v>
-      </c>
-      <c r="B169" t="s">
-        <v>366</v>
-      </c>
-      <c r="C169" t="s">
-        <v>367</v>
-      </c>
-      <c r="D169" t="s">
-        <v>368</v>
-      </c>
-      <c r="E169" t="s">
-        <v>369</v>
-      </c>
-      <c r="F169" t="s">
-        <v>164</v>
-      </c>
-      <c r="G169" t="s">
-        <v>17</v>
-      </c>
-      <c r="H169" t="s">
-        <v>17</v>
-      </c>
-      <c r="K169" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
-      <c r="A170">
-        <v>169</v>
-      </c>
-      <c r="E170" t="s">
-        <v>370</v>
-      </c>
-      <c r="F170" t="s">
-        <v>164</v>
-      </c>
-      <c r="G170" t="s">
-        <v>17</v>
-      </c>
-      <c r="H170" t="s">
-        <v>17</v>
-      </c>
-      <c r="K170" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
-      <c r="A171">
-        <v>170</v>
-      </c>
-      <c r="E171" t="s">
-        <v>371</v>
-      </c>
-      <c r="F171" t="s">
-        <v>164</v>
-      </c>
-      <c r="G171" t="s">
-        <v>17</v>
-      </c>
-      <c r="H171" t="s">
-        <v>17</v>
-      </c>
-      <c r="K171" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
-      <c r="A172">
-        <v>171</v>
-      </c>
-      <c r="E172" t="s">
-        <v>372</v>
-      </c>
-      <c r="F172" t="s">
-        <v>164</v>
-      </c>
-      <c r="G172" t="s">
-        <v>17</v>
-      </c>
-      <c r="H172" t="s">
-        <v>17</v>
-      </c>
-      <c r="K172" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" ht="14.25">
-      <c r="A173">
-        <v>172</v>
-      </c>
-      <c r="B173" t="s">
-        <v>160</v>
-      </c>
-      <c r="D173" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E173" t="s">
-        <v>373</v>
-      </c>
-      <c r="F173" t="s">
-        <v>164</v>
-      </c>
-      <c r="G173" t="s">
-        <v>17</v>
-      </c>
-      <c r="H173" t="s">
-        <v>17</v>
-      </c>
-      <c r="K173" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="A174">
-        <v>173</v>
-      </c>
-      <c r="E174" t="s">
-        <v>374</v>
-      </c>
-      <c r="F174" t="s">
-        <v>164</v>
-      </c>
-      <c r="G174" t="s">
-        <v>17</v>
-      </c>
-      <c r="H174" t="s">
-        <v>17</v>
-      </c>
-      <c r="K174" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" ht="14.25">
-      <c r="A175">
-        <v>174</v>
-      </c>
-      <c r="D175" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E175" t="s">
-        <v>375</v>
-      </c>
-      <c r="F175" t="s">
-        <v>164</v>
-      </c>
-      <c r="G175" t="s">
-        <v>17</v>
-      </c>
-      <c r="H175" t="s">
-        <v>17</v>
-      </c>
-      <c r="K175" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
-      <c r="A176">
-        <v>175</v>
-      </c>
-      <c r="E176" t="s">
-        <v>376</v>
-      </c>
-      <c r="F176" t="s">
-        <v>164</v>
-      </c>
-      <c r="G176" t="s">
-        <v>17</v>
-      </c>
-      <c r="H176" t="s">
-        <v>17</v>
-      </c>
-      <c r="K176" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" ht="14.25">
-      <c r="A177">
-        <v>176</v>
-      </c>
-      <c r="D177" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E177" t="s">
-        <v>377</v>
-      </c>
-      <c r="F177" t="s">
-        <v>164</v>
-      </c>
-      <c r="G177" t="s">
-        <v>17</v>
-      </c>
-      <c r="H177" t="s">
-        <v>17</v>
-      </c>
-      <c r="K177" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
-      <c r="A178">
-        <v>177</v>
-      </c>
-      <c r="E178" t="s">
-        <v>378</v>
-      </c>
-      <c r="F178" t="s">
-        <v>379</v>
-      </c>
-      <c r="G178" t="s">
-        <v>98</v>
-      </c>
-      <c r="H178" t="s">
-        <v>98</v>
-      </c>
-      <c r="K178" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D134" r:id="rId1" xr:uid="{60769E34-3D4C-4FB6-A57D-3CD7164D4454}"/>
-    <hyperlink ref="D133" r:id="rId2" xr:uid="{6A4F960C-7E4B-40CD-8339-D36582FCCE7C}"/>
-    <hyperlink ref="E150" r:id="rId3" xr:uid="{EF5A39C5-8FE3-4C13-8A99-38054C38387B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9CC3FD-7885-4A67-BB33-5BB23EC7C9D8}">
-  <dimension ref="A1:K49"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D2" t="s">
-        <v>366</v>
-      </c>
-      <c r="E2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G2" t="s">
-        <v>383</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="G3" t="s">
-        <v>383</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E4" t="s">
-        <v>381</v>
-      </c>
-      <c r="F4" t="s">
-        <v>385</v>
-      </c>
-      <c r="G4" t="s">
-        <v>383</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>386</v>
-      </c>
-      <c r="E5" t="s">
-        <v>387</v>
-      </c>
-      <c r="F5" t="s">
-        <v>388</v>
-      </c>
-      <c r="G5" t="s">
-        <v>388</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="I5" s="3">
-        <v>45070</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>391</v>
-      </c>
-      <c r="F6" t="s">
-        <v>392</v>
-      </c>
-      <c r="G6" t="s">
-        <v>392</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="I6" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>380</v>
-      </c>
-      <c r="E7" t="s">
-        <v>394</v>
-      </c>
-      <c r="F7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G7" t="s">
-        <v>396</v>
-      </c>
-      <c r="H7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I7" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="F8" t="s">
-        <v>398</v>
-      </c>
-      <c r="G8" t="s">
-        <v>396</v>
-      </c>
-      <c r="H8" t="s">
-        <v>396</v>
-      </c>
-      <c r="I8" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" t="s">
-        <v>399</v>
-      </c>
-      <c r="G9" t="s">
-        <v>396</v>
-      </c>
-      <c r="H9" t="s">
-        <v>396</v>
-      </c>
-      <c r="I9" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" t="s">
-        <v>400</v>
-      </c>
-      <c r="G10" t="s">
-        <v>396</v>
-      </c>
-      <c r="H10" t="s">
-        <v>396</v>
-      </c>
-      <c r="I10" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="54">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" t="s">
-        <v>401</v>
-      </c>
-      <c r="G11" t="s">
-        <v>396</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="I11" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" t="s">
-        <v>402</v>
-      </c>
-      <c r="G12" t="s">
-        <v>396</v>
-      </c>
-      <c r="H12" t="s">
-        <v>396</v>
-      </c>
-      <c r="I12" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" t="s">
-        <v>403</v>
-      </c>
-      <c r="G13" t="s">
-        <v>396</v>
-      </c>
-      <c r="H13" t="s">
-        <v>396</v>
-      </c>
-      <c r="I13" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" t="s">
-        <v>404</v>
-      </c>
-      <c r="G14" t="s">
-        <v>396</v>
-      </c>
-      <c r="H14" t="s">
-        <v>396</v>
-      </c>
-      <c r="I14" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" t="s">
-        <v>405</v>
-      </c>
-      <c r="G15" t="s">
-        <v>396</v>
-      </c>
-      <c r="H15" t="s">
-        <v>396</v>
-      </c>
-      <c r="I15" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>406</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="E16" t="s">
-        <v>408</v>
-      </c>
-      <c r="F16" t="s">
-        <v>409</v>
-      </c>
-      <c r="G16" t="s">
-        <v>410</v>
-      </c>
-      <c r="H16" t="s">
-        <v>410</v>
-      </c>
-      <c r="I16" s="3">
-        <v>45070</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="K16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="14.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="14.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="14.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="14.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="14.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="14.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="14.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="14.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="14.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="14.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="14.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="14.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="14.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="14.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="14.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="14.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="14.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="14.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="14.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="14.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="14.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>344</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" t="s">
-        <v>373</v>
-      </c>
-      <c r="F38" t="s">
-        <v>164</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="E39" t="s">
-        <v>374</v>
-      </c>
-      <c r="F39" t="s">
-        <v>164</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" t="s">
-        <v>17</v>
-      </c>
-      <c r="I39" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="14.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E40" t="s">
-        <v>375</v>
-      </c>
-      <c r="F40" t="s">
-        <v>164</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="E41" t="s">
-        <v>376</v>
-      </c>
-      <c r="F41" t="s">
-        <v>164</v>
-      </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="14.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E42" t="s">
-        <v>377</v>
-      </c>
-      <c r="F42" t="s">
-        <v>164</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="E43" t="s">
-        <v>378</v>
-      </c>
-      <c r="F43" t="s">
-        <v>379</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="D44" t="s">
-        <v>347</v>
-      </c>
-      <c r="E44" t="s">
-        <v>412</v>
-      </c>
-      <c r="F44" t="s">
-        <v>164</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="E45" t="s">
-        <v>413</v>
-      </c>
-      <c r="F45" t="s">
-        <v>164</v>
-      </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I45" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>386</v>
-      </c>
-      <c r="E47" t="s">
-        <v>387</v>
-      </c>
-      <c r="F47" t="s">
-        <v>388</v>
-      </c>
-      <c r="G47" t="s">
-        <v>388</v>
-      </c>
-      <c r="H47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="3">
-        <v>45070</v>
-      </c>
-      <c r="J47" s="4"/>
-      <c r="K47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
-        <v>391</v>
-      </c>
-      <c r="F48" t="s">
-        <v>392</v>
-      </c>
-      <c r="G48" t="s">
-        <v>392</v>
-      </c>
-      <c r="I48" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="87.75" customHeight="1">
-      <c r="A49">
-        <v>3</v>
-      </c>
-      <c r="F49" t="s">
-        <v>401</v>
-      </c>
-      <c r="G49" t="s">
-        <v>396</v>
-      </c>
-      <c r="H49" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="I49" s="3">
-        <v>45070</v>
-      </c>
-      <c r="K49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E8:E15"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{0A2BF983-BE3E-42A5-9DF8-5385B0F83BB5}"/>
-    <hyperlink ref="D16" r:id="rId2" xr:uid="{9630B051-EA63-44DE-A154-F61096EBA1F2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>